--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -481,19 +481,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -563,19 +563,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>4</v>
@@ -697,19 +697,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -770,19 +770,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -945,30 +945,30 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
         <v>4</v>
-      </c>
-      <c r="S8" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -977,19 +977,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1021,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
@@ -1038,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1111,9 +1111,9 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
@@ -1166,16 +1166,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1184,9 +1184,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1208,41 +1208,41 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>4</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
@@ -1283,16 +1283,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="n">
         <v>4</v>
       </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1318,9 +1318,9 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1391,9 +1391,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1418,44 +1418,44 @@
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
         <v>6</v>
       </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4</v>
-      </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1525,14 +1525,14 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1547,14 +1547,14 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1574,17 +1574,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
     </row>
@@ -1594,19 +1594,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1631,19 +1631,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1716,19 +1716,19 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
         <is>
           <t>Programmer(พลกฤต)</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1789,19 +1789,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -1816,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
@@ -1844,13 +1844,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -1862,19 +1862,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -1906,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
@@ -1923,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
@@ -1984,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1998,17 +1998,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -2023,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1" t="inlineStr">
         <is>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>5</v>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -2096,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -2230,10 +2230,10 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -2258,16 +2258,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2331,16 +2331,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
         <v>5</v>
@@ -2410,19 +2410,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -2437,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
@@ -2448,16 +2448,16 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2483,19 +2483,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2510,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
@@ -2524,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
@@ -2541,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2568,47 +2568,47 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
       </c>
       <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
         <v>4</v>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2617,14 +2617,14 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2644,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
@@ -2678,10 +2678,10 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2690,14 +2690,14 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -2727,19 +2727,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2769,19 +2769,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -2796,10 +2796,10 @@
         <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2811,21 +2811,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
@@ -2835,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
         <v>15</v>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
@@ -2931,19 +2931,19 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
         <v>15</v>
@@ -2970,19 +2970,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
@@ -2997,10 +2997,10 @@
         <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3009,19 +3009,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -3033,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K45" t="n">
         <v>15</v>
@@ -3063,10 +3063,10 @@
         <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -3077,17 +3077,17 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
         <v>15</v>
@@ -3114,19 +3114,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
         <v>15</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
         <v>15</v>
@@ -3180,19 +3180,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -3207,10 +3207,10 @@
         <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -3221,17 +3221,17 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>10</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -3273,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -3287,17 +3287,17 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
           <t>Service(สุเมธร์)</t>
         </is>
       </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3307,9 +3307,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
@@ -3317,9 +3317,9 @@
           <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
           <t>Programmer(สัญญา)</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3361,19 +3361,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E57" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
     </row>
@@ -3395,17 +3395,17 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
           <t>Programmer(พลกฤต)</t>
         </is>
       </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
     </row>
@@ -3415,19 +3415,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
     </row>
@@ -3440,19 +3440,19 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3484,9 +3484,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
     </row>
@@ -3509,19 +3509,19 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3531,19 +3531,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
     </row>
@@ -3553,19 +3553,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
         <is>
           <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
         </is>
       </c>
     </row>
@@ -3585,19 +3585,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
           <t>Service(สุเมธร์)</t>
         </is>
       </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
           <t>Programmer(ปรมะ)</t>
         </is>
       </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
     </row>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3693,19 +3693,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3717,17 +3717,17 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="E75" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
     </row>
@@ -3749,17 +3749,17 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
           <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3825,17 +3825,17 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
     </row>
@@ -3848,19 +3848,19 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
     </row>
@@ -3870,9 +3870,9 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
     </row>
@@ -3892,9 +3892,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -3902,9 +3902,9 @@
           <t>Service(สุเมธร์)</t>
         </is>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3922,14 +3922,14 @@
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
     </row>
@@ -3961,9 +3961,9 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
@@ -3971,9 +3971,9 @@
           <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
     </row>
@@ -3995,17 +3995,17 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
     </row>
@@ -4017,17 +4017,17 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -4047,9 +4047,9 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,90 @@
         <bgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A33CA3"/>
+        <bgColor rgb="00A33CA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BF05E4"/>
+        <bgColor rgb="00BF05E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056E3BF"/>
+        <bgColor rgb="0056E3BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D24D18"/>
+        <bgColor rgb="00D24D18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047D900"/>
+        <bgColor rgb="0047D900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000194B5"/>
+        <bgColor rgb="000194B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009F304B"/>
+        <bgColor rgb="009F304B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00374BF6"/>
+        <bgColor rgb="00374BF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004FFB55"/>
+        <bgColor rgb="004FFB55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7F4C2"/>
+        <bgColor rgb="00F7F4C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BBCDC"/>
+        <bgColor rgb="008BBCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038DAB7"/>
+        <bgColor rgb="0038DAB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000026A7"/>
+        <bgColor rgb="000026A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C57810"/>
+        <bgColor rgb="00C57810"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -58,10 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +534,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>1*</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -478,37 +578,37 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -518,17 +618,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -538,17 +638,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -560,22 +660,22 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -601,13 +701,13 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
@@ -618,25 +718,27 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -648,68 +750,68 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -741,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1" t="inlineStr">
         <is>
@@ -758,31 +860,31 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -811,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="1" t="inlineStr">
         <is>
@@ -828,22 +930,24 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -872,51 +976,51 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
         <v>4</v>
-      </c>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -948,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="1" t="inlineStr">
         <is>
@@ -965,31 +1069,31 @@
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1045,12 +1149,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1079,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
@@ -1096,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
         <v>4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
@@ -1108,22 +1214,22 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1152,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
@@ -1169,34 +1275,34 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1252,12 +1358,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1269,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
@@ -1283,16 +1391,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
@@ -1300,37 +1408,37 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
         <v>6</v>
       </c>
-      <c r="V13" t="n">
-        <v>4</v>
-      </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1356,54 +1464,54 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6</v>
-      </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1415,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1435,36 +1543,38 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
         <v>5</v>
       </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="V15" t="n">
-        <v>6</v>
-      </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1476,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
@@ -1490,16 +1600,16 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
@@ -1507,106 +1617,108 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7*</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1628,37 +1740,37 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1668,17 +1780,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -1688,17 +1800,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1708,27 +1820,29 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>8</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8*</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -1740,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
@@ -1754,10 +1868,10 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -1771,13 +1885,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>5</v>
@@ -1786,22 +1900,22 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -1813,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1830,51 +1944,51 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
         <v>3</v>
       </c>
-      <c r="S23" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -1886,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1906,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
@@ -1920,22 +2034,24 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>9</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -1961,13 +2077,13 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -1978,13 +2094,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
@@ -1993,22 +2109,22 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -2020,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
@@ -2034,10 +2150,10 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2051,7 +2167,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -2060,28 +2176,28 @@
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -2093,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
@@ -2107,7 +2223,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -2116,33 +2232,35 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>10</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -2200,22 +2318,22 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -2230,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="1" t="inlineStr">
         <is>
@@ -2241,7 +2359,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -2250,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1" t="inlineStr">
         <is>
@@ -2258,13 +2376,13 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>5</v>
@@ -2273,22 +2391,22 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -2300,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
@@ -2314,10 +2432,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2331,25 +2449,27 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>11</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -2364,10 +2484,10 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
@@ -2375,16 +2495,16 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
@@ -2392,10 +2512,10 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>2</v>
@@ -2407,22 +2527,22 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -2434,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
@@ -2448,13 +2568,13 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2465,37 +2585,37 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2510,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
@@ -2524,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
@@ -2541,22 +2661,24 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>12</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2571,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
@@ -2582,16 +2704,16 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
@@ -2599,10 +2721,10 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
@@ -2614,22 +2736,22 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2641,78 +2763,80 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
       </c>
       <c r="K35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>3</v>
       </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>13</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2724,64 +2848,44 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>วันหยุดชดเชย</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>วันหยุด</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>วันทำการ</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>รวม</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -2803,27 +2907,29 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>14</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>14*</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -2838,31 +2944,31 @@
         <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -2886,22 +2992,22 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -2913,37 +3019,39 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>15</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>15*</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
@@ -2955,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
         <v>15</v>
@@ -2967,22 +3075,22 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
@@ -3006,22 +3114,22 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -3043,12 +3151,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>16</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
@@ -3060,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K46" t="n">
         <v>15</v>
@@ -3072,22 +3182,22 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -3099,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K47" t="n">
         <v>15</v>
@@ -3111,22 +3221,22 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -3138,22 +3248,24 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>17</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -3165,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
         <v>15</v>
@@ -3177,22 +3289,22 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -3207,31 +3319,31 @@
         <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -3246,19 +3358,21 @@
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>18</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -3282,806 +3396,3746 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>19</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>20</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>21</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>21*</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>22</v>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>22*</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>23</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>24</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>25</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>26</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>27</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>28</v>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>28*</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E83" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E84" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>29</v>
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>29*</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>30</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>31</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D92" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>1*</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D98" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E98" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลหลัก</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D101" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>6</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D102" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C104" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D104" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E104" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C105" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D105" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E105" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E107" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C108" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D108" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2</v>
+      </c>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C110" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D110" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C111" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D111" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E111" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4</v>
+      </c>
+      <c r="M111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2</v>
+      </c>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C113" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D113" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E113" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2</v>
+      </c>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D114" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E114" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>7*</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C115" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C117" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D117" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E117" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>8*</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C118" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D118" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C119" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D119" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E119" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="M119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="S119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C120" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D120" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="M120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="S120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="M121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="S121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C122" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D122" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="M122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="S122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E123" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="M123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="S123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="M124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="S124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="M125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="S125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C126" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E126" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="M126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="S126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="M127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C128" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="M128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C129" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D129" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="M129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="M130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C131" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="M131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="S131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C132" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D132" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="M132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C134" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>สรุป</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C135" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D135" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>14*</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C136" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D136" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C137" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D137" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E137" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C138" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D138" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>15*</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D139" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E139" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G139" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C140" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D140" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D141" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E141" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G141" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G142" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E143" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G143" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E144" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C146" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E146" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C147" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E147" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D149" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E149" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E150" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C152" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C153" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C155" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D155" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C156" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E156" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>21*</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D157" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E157" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C158" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D158" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E158" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D159" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E159" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>22*</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D160" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E160" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C161" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D161" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E161" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C162" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D162" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E162" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C164" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D164" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E164" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E165" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C167" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E167" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C168" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C170" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D170" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E170" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C171" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E171" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C173" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D174" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E174" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E176" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D177" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>28*</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C178" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E178" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C179" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D180" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E180" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>29*</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C181" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E181" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C182" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D182" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C183" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E183" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E185" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C186" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D186" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E186" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C188" s="14" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D188" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E188" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C189" s="13" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E189" s="12" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -35,8 +35,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001021E1"/>
+        <bgColor rgb="001021E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -47,86 +59,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A33CA3"/>
-        <bgColor rgb="00A33CA3"/>
+        <fgColor rgb="001235E5"/>
+        <bgColor rgb="001235E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BF05E4"/>
-        <bgColor rgb="00BF05E4"/>
+        <fgColor rgb="009F1AEE"/>
+        <bgColor rgb="009F1AEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0056E3BF"/>
-        <bgColor rgb="0056E3BF"/>
+        <fgColor rgb="00313DF0"/>
+        <bgColor rgb="00313DF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D24D18"/>
-        <bgColor rgb="00D24D18"/>
+        <fgColor rgb="00A6F103"/>
+        <bgColor rgb="00A6F103"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047D900"/>
-        <bgColor rgb="0047D900"/>
+        <fgColor rgb="00F1E4B3"/>
+        <bgColor rgb="00F1E4B3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000194B5"/>
-        <bgColor rgb="000194B5"/>
+        <fgColor rgb="003550B8"/>
+        <bgColor rgb="003550B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009F304B"/>
-        <bgColor rgb="009F304B"/>
+        <fgColor rgb="007193A3"/>
+        <bgColor rgb="007193A3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00374BF6"/>
-        <bgColor rgb="00374BF6"/>
+        <fgColor rgb="00A2BE18"/>
+        <bgColor rgb="00A2BE18"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004FFB55"/>
-        <bgColor rgb="004FFB55"/>
+        <fgColor rgb="006F45EF"/>
+        <bgColor rgb="006F45EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F7F4C2"/>
-        <bgColor rgb="00F7F4C2"/>
+        <fgColor rgb="0033AFC0"/>
+        <bgColor rgb="0033AFC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008BBCDC"/>
-        <bgColor rgb="008BBCDC"/>
+        <fgColor rgb="00FE90A0"/>
+        <bgColor rgb="00FE90A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0038DAB7"/>
-        <bgColor rgb="0038DAB7"/>
+        <fgColor rgb="00000905"/>
+        <bgColor rgb="00000905"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000026A7"/>
-        <bgColor rgb="000026A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C57810"/>
-        <bgColor rgb="00C57810"/>
+        <fgColor rgb="00285961"/>
+        <bgColor rgb="00285961"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,12 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -160,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -546,17 +553,17 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -581,19 +588,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -665,20 +672,20 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -695,36 +702,36 @@
       <c r="K3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -741,7 +748,7 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -750,15 +757,15 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -770,12 +777,12 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -784,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
@@ -799,22 +806,22 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -831,7 +838,7 @@
       <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -843,12 +850,12 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -860,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -874,20 +881,20 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -896,15 +903,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -913,15 +920,15 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -950,7 +957,7 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -962,12 +969,12 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" s="1" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -984,7 +991,7 @@
       <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="1" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -996,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1008,22 +1015,22 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -1040,7 +1047,7 @@
       <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -1052,12 +1059,12 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -1069,10 +1076,10 @@
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1081,22 +1088,22 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1113,7 +1120,7 @@
       <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1130,7 +1137,7 @@
       <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="S9" s="1" t="inlineStr">
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1159,7 +1166,7 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -1171,41 +1178,41 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
@@ -1219,20 +1226,20 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1249,7 +1256,7 @@
       <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1261,12 +1268,12 @@
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1278,10 +1285,10 @@
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1292,20 +1299,20 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -1314,47 +1321,47 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
       <c r="V12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1368,7 +1375,7 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -1380,44 +1387,44 @@
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1426,22 +1433,22 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -1453,18 +1460,18 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1473,24 +1480,24 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1499,22 +1506,22 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1523,15 +1530,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1540,15 +1547,15 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1560,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1577,7 +1584,7 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1594,7 +1601,7 @@
       <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1611,7 +1618,7 @@
       <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" s="2" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1635,19 +1642,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -1657,19 +1664,34 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
         </is>
       </c>
     </row>
@@ -1684,19 +1706,79 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -1708,33 +1790,69 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>วันทำการ โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>วันหยุด โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>รวมโรงพยาบาลเด็ก</t>
-        </is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1745,78 +1863,69 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1830,24 +1939,24 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1857,21 +1966,21 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+        <v>4</v>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -1879,22 +1988,22 @@
       <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="S22" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1903,24 +2012,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1930,41 +2039,41 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="S23" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>5</v>
@@ -1976,24 +2085,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2003,31 +2112,31 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="T24" t="n">
@@ -2054,9 +2163,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2066,14 +2175,14 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+        <v>3</v>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2083,14 +2192,14 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+        <v>3</v>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="T25" t="n">
@@ -2112,24 +2221,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2144,39 +2253,39 @@
       <c r="K26" t="n">
         <v>4</v>
       </c>
-      <c r="M26" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+        <v>3</v>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="T26" t="n">
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2185,24 +2294,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2212,41 +2321,41 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="M27" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>5</v>
@@ -2263,56 +2372,56 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
         <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+        <v>1</v>
+      </c>
+      <c r="S28" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="T28" t="n">
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2323,46 +2432,46 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2370,22 +2479,22 @@
       <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
         <v>3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2394,48 +2503,48 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+        <v>4</v>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2443,22 +2552,22 @@
       <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2472,9 +2581,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2484,14 +2593,14 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+        <v>4</v>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2506,9 +2615,9 @@
       <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="S31" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -2518,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2530,45 +2639,45 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
         <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2577,24 +2686,24 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>2</v>
       </c>
-      <c r="V32" t="n">
-        <v>1</v>
-      </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2603,71 +2712,71 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="S33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2681,57 +2790,6 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -2741,69 +2799,18 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3</v>
-      </c>
-      <c r="W35" t="n">
-        <v>6</v>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2812,19 +2819,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>สรุป</t>
         </is>
       </c>
     </row>
@@ -2839,9 +2851,24 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>สรุป</t>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -2851,20 +2878,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2873,24 +2917,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2917,37 +2961,37 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>10</v>
       </c>
       <c r="K40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2958,22 +3002,22 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2995,24 +3039,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3022,10 +3066,10 @@
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3041,32 +3085,32 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
         <v>15</v>
@@ -3078,24 +3122,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3105,10 +3149,10 @@
         <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3117,24 +3161,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3161,19 +3205,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
         <v>15</v>
@@ -3185,24 +3229,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3226,22 +3270,22 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3251,10 +3295,10 @@
         <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -3268,9 +3312,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3292,24 +3336,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3331,24 +3375,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3358,10 +3402,10 @@
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -3375,23 +3419,6 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10</v>
-      </c>
-      <c r="K52" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
@@ -3399,19 +3426,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3421,19 +3448,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3455,19 +3482,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -3477,19 +3504,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -3511,19 +3538,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3533,19 +3560,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3560,17 +3587,17 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -3582,19 +3609,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -3604,19 +3631,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -3631,19 +3658,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3653,17 +3680,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -3675,19 +3702,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3709,19 +3736,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -3733,17 +3760,17 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -3765,19 +3792,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -3787,19 +3814,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -3823,17 +3850,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -3843,19 +3870,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -3877,19 +3904,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C77" s="1" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -3899,19 +3926,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
           <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3962,17 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -3955,19 +3982,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C81" s="1" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -3982,19 +4009,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C82" s="1" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -4004,19 +4031,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -4026,19 +4053,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C84" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -4055,17 +4082,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E85" s="1" t="inlineStr">
-        <is>
           <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -4075,19 +4102,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -4099,17 +4126,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -4131,19 +4158,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -4153,19 +4180,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -4187,19 +4214,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -4209,19 +4236,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -4236,19 +4263,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -4258,19 +4285,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D98" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E98" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C98" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D98" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4295,14 +4322,14 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C99" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C99" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D99" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -4382,47 +4409,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G100" s="1" t="inlineStr">
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3</v>
-      </c>
-      <c r="M100" s="1" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100">
+        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$143:$D$143,"ภูวเนตร")+COUNTIF($C$146:$D$146,"ภูวเนตร")+COUNTIF($C$149:$D$149,"ภูวเนตร")+COUNTIF($C$152:$D$152,"ภูวเนตร")+COUNTIF($C$155:$D$155,"ภูวเนตร")+COUNTIF($C$164:$D$164,"ภูวเนตร")+COUNTIF($C$167:$D$167,"ภูวเนตร")+COUNTIF($C$170:$D$170,"ภูวเนตร")+COUNTIF($C$173:$D$173,"ภูวเนตร")+COUNTIF($C$176:$D$176,"ภูวเนตร")+COUNTIF($C$185:$D$185,"ภูวเนตร")+COUNTIF($C$188:$D$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J100">
+        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$144:$D$144,"ภูวเนตร")+COUNTIF($C$147:$D$147,"ภูวเนตร")+COUNTIF($C$150:$D$150,"ภูวเนตร")+COUNTIF($C$153:$D$153,"ภูวเนตร")+COUNTIF($C$156:$D$156,"ภูวเนตร")+COUNTIF($C$165:$D$165,"ภูวเนตร")+COUNTIF($C$168:$D$168,"ภูวเนตร")+COUNTIF($C$171:$D$171,"ภูวเนตร")+COUNTIF($C$174:$D$174,"ภูวเนตร")+COUNTIF($C$177:$D$177,"ภูวเนตร")+COUNTIF($C$186:$D$186,"ภูวเนตร")+COUNTIF($C$189:$D$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K100">
+        <f>SUM(H100:J100)</f>
+        <v/>
+      </c>
+      <c r="M100" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
-        <v>2</v>
-      </c>
-      <c r="S100" s="1" t="inlineStr">
+      <c r="N100">
+        <f>COUNTIF($C$97:$D$97,"ภูวเนตร")+COUNTIF($C$115:$D$115,"ภูวเนตร")+COUNTIF($C$118:$D$118,"ภูวเนตร")+COUNTIF($C$136:$D$136,"ภูวเนตร")+COUNTIF($C$139:$D$139,"ภูวเนตร")+COUNTIF($C$157:$D$157,"ภูวเนตร")+COUNTIF($C$160:$D$160,"ภูวเนตร")+COUNTIF($C$178:$D$178,"ภูวเนตร")+COUNTIF($C$181:$D$181,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($C$158:$D$158,"ภูวเนตร")+COUNTIF($C$161:$D$161,"ภูวเนตร")+COUNTIF($C$179:$D$179,"ภูวเนตร")+COUNTIF($C$182:$D$182,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($C$159:$D$159,"ภูวเนตร")+COUNTIF($C$162:$D$162,"ภูวเนตร")+COUNTIF($C$180:$D$180,"ภูวเนตร")+COUNTIF($C$183:$D$183,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q100">
+        <f>SUM(N100:P100)</f>
+        <v/>
+      </c>
+      <c r="S100" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="T100" t="n">
-        <v>1</v>
-      </c>
-      <c r="U100" t="n">
-        <v>4</v>
-      </c>
-      <c r="V100" t="n">
-        <v>5</v>
+      <c r="T100">
+        <f>SUM(H100,N100)</f>
+        <v/>
+      </c>
+      <c r="U100">
+        <f>SUM(I100,O100)</f>
+        <v/>
+      </c>
+      <c r="V100">
+        <f>SUM(J100,P100)</f>
+        <v/>
+      </c>
+      <c r="W100">
+        <f>SUM(K100,Q100)</f>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -4431,62 +4476,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D101" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E101" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G101" s="1" t="inlineStr">
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D101" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
-      <c r="M101" s="1" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101">
+        <f>COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($C$143:$D$143,"ราเชนทร์")+COUNTIF($C$146:$D$146,"ราเชนทร์")+COUNTIF($C$149:$D$149,"ราเชนทร์")+COUNTIF($C$152:$D$152,"ราเชนทร์")+COUNTIF($C$155:$D$155,"ราเชนทร์")+COUNTIF($C$164:$D$164,"ราเชนทร์")+COUNTIF($C$167:$D$167,"ราเชนทร์")+COUNTIF($C$170:$D$170,"ราเชนทร์")+COUNTIF($C$173:$D$173,"ราเชนทร์")+COUNTIF($C$176:$D$176,"ราเชนทร์")+COUNTIF($C$185:$D$185,"ราเชนทร์")+COUNTIF($C$188:$D$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J101">
+        <f>COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($C$144:$D$144,"ราเชนทร์")+COUNTIF($C$147:$D$147,"ราเชนทร์")+COUNTIF($C$150:$D$150,"ราเชนทร์")+COUNTIF($C$153:$D$153,"ราเชนทร์")+COUNTIF($C$156:$D$156,"ราเชนทร์")+COUNTIF($C$165:$D$165,"ราเชนทร์")+COUNTIF($C$168:$D$168,"ราเชนทร์")+COUNTIF($C$171:$D$171,"ราเชนทร์")+COUNTIF($C$174:$D$174,"ราเชนทร์")+COUNTIF($C$177:$D$177,"ราเชนทร์")+COUNTIF($C$186:$D$186,"ราเชนทร์")+COUNTIF($C$189:$D$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K101">
+        <f>SUM(H101:J101)</f>
+        <v/>
+      </c>
+      <c r="M101" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" t="n">
-        <v>2</v>
-      </c>
-      <c r="P101" t="n">
-        <v>1</v>
-      </c>
-      <c r="S101" s="1" t="inlineStr">
+      <c r="N101">
+        <f>COUNTIF($C$97:$D$97,"ราเชนทร์")+COUNTIF($C$115:$D$115,"ราเชนทร์")+COUNTIF($C$118:$D$118,"ราเชนทร์")+COUNTIF($C$136:$D$136,"ราเชนทร์")+COUNTIF($C$139:$D$139,"ราเชนทร์")+COUNTIF($C$157:$D$157,"ราเชนทร์")+COUNTIF($C$160:$D$160,"ราเชนทร์")+COUNTIF($C$178:$D$178,"ราเชนทร์")+COUNTIF($C$181:$D$181,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O101">
+        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($C$158:$D$158,"ราเชนทร์")+COUNTIF($C$161:$D$161,"ราเชนทร์")+COUNTIF($C$179:$D$179,"ราเชนทร์")+COUNTIF($C$182:$D$182,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P101">
+        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($C$159:$D$159,"ราเชนทร์")+COUNTIF($C$162:$D$162,"ราเชนทร์")+COUNTIF($C$180:$D$180,"ราเชนทร์")+COUNTIF($C$183:$D$183,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q101">
+        <f>SUM(N101:P101)</f>
+        <v/>
+      </c>
+      <c r="S101" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="T101" t="n">
-        <v>1</v>
-      </c>
-      <c r="U101" t="n">
-        <v>6</v>
-      </c>
-      <c r="V101" t="n">
-        <v>4</v>
+      <c r="T101">
+        <f>SUM(H101,N101)</f>
+        <v/>
+      </c>
+      <c r="U101">
+        <f>SUM(I101,O101)</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>SUM(J101,P101)</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>SUM(K101,Q101)</f>
+        <v/>
       </c>
     </row>
     <row r="102">
@@ -4495,62 +4558,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C102" s="7" t="inlineStr">
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D102" s="11" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="D102" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G102" s="1" t="inlineStr">
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" s="1" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102">
+        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$143:$D$143,"พลกฤต")+COUNTIF($C$146:$D$146,"พลกฤต")+COUNTIF($C$149:$D$149,"พลกฤต")+COUNTIF($C$152:$D$152,"พลกฤต")+COUNTIF($C$155:$D$155,"พลกฤต")+COUNTIF($C$164:$D$164,"พลกฤต")+COUNTIF($C$167:$D$167,"พลกฤต")+COUNTIF($C$170:$D$170,"พลกฤต")+COUNTIF($C$173:$D$173,"พลกฤต")+COUNTIF($C$176:$D$176,"พลกฤต")+COUNTIF($C$185:$D$185,"พลกฤต")+COUNTIF($C$188:$D$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J102">
+        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$144:$D$144,"พลกฤต")+COUNTIF($C$147:$D$147,"พลกฤต")+COUNTIF($C$150:$D$150,"พลกฤต")+COUNTIF($C$153:$D$153,"พลกฤต")+COUNTIF($C$156:$D$156,"พลกฤต")+COUNTIF($C$165:$D$165,"พลกฤต")+COUNTIF($C$168:$D$168,"พลกฤต")+COUNTIF($C$171:$D$171,"พลกฤต")+COUNTIF($C$174:$D$174,"พลกฤต")+COUNTIF($C$177:$D$177,"พลกฤต")+COUNTIF($C$186:$D$186,"พลกฤต")+COUNTIF($C$189:$D$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K102">
+        <f>SUM(H102:J102)</f>
+        <v/>
+      </c>
+      <c r="M102" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" t="n">
-        <v>2</v>
-      </c>
-      <c r="S102" s="1" t="inlineStr">
+      <c r="N102">
+        <f>COUNTIF($C$97:$D$97,"พลกฤต")+COUNTIF($C$115:$D$115,"พลกฤต")+COUNTIF($C$118:$D$118,"พลกฤต")+COUNTIF($C$136:$D$136,"พลกฤต")+COUNTIF($C$139:$D$139,"พลกฤต")+COUNTIF($C$157:$D$157,"พลกฤต")+COUNTIF($C$160:$D$160,"พลกฤต")+COUNTIF($C$178:$D$178,"พลกฤต")+COUNTIF($C$181:$D$181,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($C$158:$D$158,"พลกฤต")+COUNTIF($C$161:$D$161,"พลกฤต")+COUNTIF($C$179:$D$179,"พลกฤต")+COUNTIF($C$182:$D$182,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($C$159:$D$159,"พลกฤต")+COUNTIF($C$162:$D$162,"พลกฤต")+COUNTIF($C$180:$D$180,"พลกฤต")+COUNTIF($C$183:$D$183,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q102">
+        <f>SUM(N102:P102)</f>
+        <v/>
+      </c>
+      <c r="S102" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="T102" t="n">
-        <v>1</v>
-      </c>
-      <c r="U102" t="n">
-        <v>4</v>
-      </c>
-      <c r="V102" t="n">
-        <v>5</v>
+      <c r="T102">
+        <f>SUM(H102,N102)</f>
+        <v/>
+      </c>
+      <c r="U102">
+        <f>SUM(I102,O102)</f>
+        <v/>
+      </c>
+      <c r="V102">
+        <f>SUM(J102,P102)</f>
+        <v/>
+      </c>
+      <c r="W102">
+        <f>SUM(K102,Q102)</f>
+        <v/>
       </c>
     </row>
     <row r="103">
@@ -4564,47 +4645,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G103" s="1" t="inlineStr">
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3</v>
-      </c>
-      <c r="M103" s="1" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103">
+        <f>COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$143:$D$143,"ชานนท์")+COUNTIF($C$146:$D$146,"ชานนท์")+COUNTIF($C$149:$D$149,"ชานนท์")+COUNTIF($C$152:$D$152,"ชานนท์")+COUNTIF($C$155:$D$155,"ชานนท์")+COUNTIF($C$164:$D$164,"ชานนท์")+COUNTIF($C$167:$D$167,"ชานนท์")+COUNTIF($C$170:$D$170,"ชานนท์")+COUNTIF($C$173:$D$173,"ชานนท์")+COUNTIF($C$176:$D$176,"ชานนท์")+COUNTIF($C$185:$D$185,"ชานนท์")+COUNTIF($C$188:$D$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J103">
+        <f>COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$144:$D$144,"ชานนท์")+COUNTIF($C$147:$D$147,"ชานนท์")+COUNTIF($C$150:$D$150,"ชานนท์")+COUNTIF($C$153:$D$153,"ชานนท์")+COUNTIF($C$156:$D$156,"ชานนท์")+COUNTIF($C$165:$D$165,"ชานนท์")+COUNTIF($C$168:$D$168,"ชานนท์")+COUNTIF($C$171:$D$171,"ชานนท์")+COUNTIF($C$174:$D$174,"ชานนท์")+COUNTIF($C$177:$D$177,"ชานนท์")+COUNTIF($C$186:$D$186,"ชานนท์")+COUNTIF($C$189:$D$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K103">
+        <f>SUM(H103:J103)</f>
+        <v/>
+      </c>
+      <c r="M103" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" t="n">
-        <v>2</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1</v>
-      </c>
-      <c r="S103" s="1" t="inlineStr">
+      <c r="N103">
+        <f>COUNTIF($C$97:$D$97,"ชานนท์")+COUNTIF($C$115:$D$115,"ชานนท์")+COUNTIF($C$118:$D$118,"ชานนท์")+COUNTIF($C$136:$D$136,"ชานนท์")+COUNTIF($C$139:$D$139,"ชานนท์")+COUNTIF($C$157:$D$157,"ชานนท์")+COUNTIF($C$160:$D$160,"ชานนท์")+COUNTIF($C$178:$D$178,"ชานนท์")+COUNTIF($C$181:$D$181,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O103">
+        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($C$158:$D$158,"ชานนท์")+COUNTIF($C$161:$D$161,"ชานนท์")+COUNTIF($C$179:$D$179,"ชานนท์")+COUNTIF($C$182:$D$182,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P103">
+        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($C$159:$D$159,"ชานนท์")+COUNTIF($C$162:$D$162,"ชานนท์")+COUNTIF($C$180:$D$180,"ชานนท์")+COUNTIF($C$183:$D$183,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q103">
+        <f>SUM(N103:P103)</f>
+        <v/>
+      </c>
+      <c r="S103" s="2" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="T103" t="n">
-        <v>1</v>
-      </c>
-      <c r="U103" t="n">
-        <v>5</v>
-      </c>
-      <c r="V103" t="n">
-        <v>4</v>
+      <c r="T103">
+        <f>SUM(H103,N103)</f>
+        <v/>
+      </c>
+      <c r="U103">
+        <f>SUM(I103,O103)</f>
+        <v/>
+      </c>
+      <c r="V103">
+        <f>SUM(J103,P103)</f>
+        <v/>
+      </c>
+      <c r="W103">
+        <f>SUM(K103,Q103)</f>
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -4613,62 +4712,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="C104" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D104" s="13" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E104" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G104" s="1" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E104" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" s="1" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104">
+        <f>COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$143:$D$143,"ปรมะ")+COUNTIF($C$146:$D$146,"ปรมะ")+COUNTIF($C$149:$D$149,"ปรมะ")+COUNTIF($C$152:$D$152,"ปรมะ")+COUNTIF($C$155:$D$155,"ปรมะ")+COUNTIF($C$164:$D$164,"ปรมะ")+COUNTIF($C$167:$D$167,"ปรมะ")+COUNTIF($C$170:$D$170,"ปรมะ")+COUNTIF($C$173:$D$173,"ปรมะ")+COUNTIF($C$176:$D$176,"ปรมะ")+COUNTIF($C$185:$D$185,"ปรมะ")+COUNTIF($C$188:$D$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J104">
+        <f>COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$144:$D$144,"ปรมะ")+COUNTIF($C$147:$D$147,"ปรมะ")+COUNTIF($C$150:$D$150,"ปรมะ")+COUNTIF($C$153:$D$153,"ปรมะ")+COUNTIF($C$156:$D$156,"ปรมะ")+COUNTIF($C$165:$D$165,"ปรมะ")+COUNTIF($C$168:$D$168,"ปรมะ")+COUNTIF($C$171:$D$171,"ปรมะ")+COUNTIF($C$174:$D$174,"ปรมะ")+COUNTIF($C$177:$D$177,"ปรมะ")+COUNTIF($C$186:$D$186,"ปรมะ")+COUNTIF($C$189:$D$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K104">
+        <f>SUM(H104:J104)</f>
+        <v/>
+      </c>
+      <c r="M104" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" t="n">
-        <v>1</v>
-      </c>
-      <c r="S104" s="1" t="inlineStr">
+      <c r="N104">
+        <f>COUNTIF($C$97:$D$97,"ปรมะ")+COUNTIF($C$115:$D$115,"ปรมะ")+COUNTIF($C$118:$D$118,"ปรมะ")+COUNTIF($C$136:$D$136,"ปรมะ")+COUNTIF($C$139:$D$139,"ปรมะ")+COUNTIF($C$157:$D$157,"ปรมะ")+COUNTIF($C$160:$D$160,"ปรมะ")+COUNTIF($C$178:$D$178,"ปรมะ")+COUNTIF($C$181:$D$181,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O104">
+        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($C$158:$D$158,"ปรมะ")+COUNTIF($C$161:$D$161,"ปรมะ")+COUNTIF($C$179:$D$179,"ปรมะ")+COUNTIF($C$182:$D$182,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P104">
+        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($C$159:$D$159,"ปรมะ")+COUNTIF($C$162:$D$162,"ปรมะ")+COUNTIF($C$180:$D$180,"ปรมะ")+COUNTIF($C$183:$D$183,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q104">
+        <f>SUM(N104:P104)</f>
+        <v/>
+      </c>
+      <c r="S104" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="T104" t="n">
-        <v>1</v>
-      </c>
-      <c r="U104" t="n">
-        <v>4</v>
-      </c>
-      <c r="V104" t="n">
-        <v>4</v>
+      <c r="T104">
+        <f>SUM(H104,N104)</f>
+        <v/>
+      </c>
+      <c r="U104">
+        <f>SUM(I104,O104)</f>
+        <v/>
+      </c>
+      <c r="V104">
+        <f>SUM(J104,P104)</f>
+        <v/>
+      </c>
+      <c r="W104">
+        <f>SUM(K104,Q104)</f>
+        <v/>
       </c>
     </row>
     <row r="105">
@@ -4677,62 +4794,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C105" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D105" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E105" s="15" t="inlineStr">
+      <c r="C105" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D105" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G105" s="1" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105">
+        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$143:$D$143,"สัญญา")+COUNTIF($C$146:$D$146,"สัญญา")+COUNTIF($C$149:$D$149,"สัญญา")+COUNTIF($C$152:$D$152,"สัญญา")+COUNTIF($C$155:$D$155,"สัญญา")+COUNTIF($C$164:$D$164,"สัญญา")+COUNTIF($C$167:$D$167,"สัญญา")+COUNTIF($C$170:$D$170,"สัญญา")+COUNTIF($C$173:$D$173,"สัญญา")+COUNTIF($C$176:$D$176,"สัญญา")+COUNTIF($C$185:$D$185,"สัญญา")+COUNTIF($C$188:$D$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J105">
+        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$144:$D$144,"สัญญา")+COUNTIF($C$147:$D$147,"สัญญา")+COUNTIF($C$150:$D$150,"สัญญา")+COUNTIF($C$153:$D$153,"สัญญา")+COUNTIF($C$156:$D$156,"สัญญา")+COUNTIF($C$165:$D$165,"สัญญา")+COUNTIF($C$168:$D$168,"สัญญา")+COUNTIF($C$171:$D$171,"สัญญา")+COUNTIF($C$174:$D$174,"สัญญา")+COUNTIF($C$177:$D$177,"สัญญา")+COUNTIF($C$186:$D$186,"สัญญา")+COUNTIF($C$189:$D$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K105">
+        <f>SUM(H105:J105)</f>
+        <v/>
+      </c>
+      <c r="M105" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3</v>
-      </c>
-      <c r="M105" s="1" t="inlineStr">
+      <c r="N105">
+        <f>COUNTIF($C$97:$D$97,"สัญญา")+COUNTIF($C$115:$D$115,"สัญญา")+COUNTIF($C$118:$D$118,"สัญญา")+COUNTIF($C$136:$D$136,"สัญญา")+COUNTIF($C$139:$D$139,"สัญญา")+COUNTIF($C$157:$D$157,"สัญญา")+COUNTIF($C$160:$D$160,"สัญญา")+COUNTIF($C$178:$D$178,"สัญญา")+COUNTIF($C$181:$D$181,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($C$158:$D$158,"สัญญา")+COUNTIF($C$161:$D$161,"สัญญา")+COUNTIF($C$179:$D$179,"สัญญา")+COUNTIF($C$182:$D$182,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($C$159:$D$159,"สัญญา")+COUNTIF($C$162:$D$162,"สัญญา")+COUNTIF($C$180:$D$180,"สัญญา")+COUNTIF($C$183:$D$183,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q105">
+        <f>SUM(N105:P105)</f>
+        <v/>
+      </c>
+      <c r="S105" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2</v>
-      </c>
-      <c r="S105" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="T105" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" t="n">
-        <v>4</v>
-      </c>
-      <c r="V105" t="n">
-        <v>5</v>
+      <c r="T105">
+        <f>SUM(H105,N105)</f>
+        <v/>
+      </c>
+      <c r="U105">
+        <f>SUM(I105,O105)</f>
+        <v/>
+      </c>
+      <c r="V105">
+        <f>SUM(J105,P105)</f>
+        <v/>
+      </c>
+      <c r="W105">
+        <f>SUM(K105,Q105)</f>
+        <v/>
       </c>
     </row>
     <row r="106">
@@ -4746,47 +4881,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G106" s="1" t="inlineStr">
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
-      <c r="M106" s="1" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106">
+        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$143:$D$143,"วินัย")+COUNTIF($C$146:$D$146,"วินัย")+COUNTIF($C$149:$D$149,"วินัย")+COUNTIF($C$152:$D$152,"วินัย")+COUNTIF($C$155:$D$155,"วินัย")+COUNTIF($C$164:$D$164,"วินัย")+COUNTIF($C$167:$D$167,"วินัย")+COUNTIF($C$170:$D$170,"วินัย")+COUNTIF($C$173:$D$173,"วินัย")+COUNTIF($C$176:$D$176,"วินัย")+COUNTIF($C$185:$D$185,"วินัย")+COUNTIF($C$188:$D$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J106">
+        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$144:$D$144,"วินัย")+COUNTIF($C$147:$D$147,"วินัย")+COUNTIF($C$150:$D$150,"วินัย")+COUNTIF($C$153:$D$153,"วินัย")+COUNTIF($C$156:$D$156,"วินัย")+COUNTIF($C$165:$D$165,"วินัย")+COUNTIF($C$168:$D$168,"วินัย")+COUNTIF($C$171:$D$171,"วินัย")+COUNTIF($C$174:$D$174,"วินัย")+COUNTIF($C$177:$D$177,"วินัย")+COUNTIF($C$186:$D$186,"วินัย")+COUNTIF($C$189:$D$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K106">
+        <f>SUM(H106:J106)</f>
+        <v/>
+      </c>
+      <c r="M106" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-      <c r="O106" t="n">
-        <v>1</v>
-      </c>
-      <c r="P106" t="n">
-        <v>1</v>
-      </c>
-      <c r="S106" s="1" t="inlineStr">
+      <c r="N106">
+        <f>COUNTIF($C$97:$D$97,"วินัย")+COUNTIF($C$115:$D$115,"วินัย")+COUNTIF($C$118:$D$118,"วินัย")+COUNTIF($C$136:$D$136,"วินัย")+COUNTIF($C$139:$D$139,"วินัย")+COUNTIF($C$157:$D$157,"วินัย")+COUNTIF($C$160:$D$160,"วินัย")+COUNTIF($C$178:$D$178,"วินัย")+COUNTIF($C$181:$D$181,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($C$158:$D$158,"วินัย")+COUNTIF($C$161:$D$161,"วินัย")+COUNTIF($C$179:$D$179,"วินัย")+COUNTIF($C$182:$D$182,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($C$159:$D$159,"วินัย")+COUNTIF($C$162:$D$162,"วินัย")+COUNTIF($C$180:$D$180,"วินัย")+COUNTIF($C$183:$D$183,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q106">
+        <f>SUM(N106:P106)</f>
+        <v/>
+      </c>
+      <c r="S106" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="T106" t="n">
-        <v>1</v>
-      </c>
-      <c r="U106" t="n">
-        <v>4</v>
-      </c>
-      <c r="V106" t="n">
-        <v>4</v>
+      <c r="T106">
+        <f>SUM(H106,N106)</f>
+        <v/>
+      </c>
+      <c r="U106">
+        <f>SUM(I106,O106)</f>
+        <v/>
+      </c>
+      <c r="V106">
+        <f>SUM(J106,P106)</f>
+        <v/>
+      </c>
+      <c r="W106">
+        <f>SUM(K106,Q106)</f>
+        <v/>
       </c>
     </row>
     <row r="107">
@@ -4795,62 +4948,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C107" s="5" t="inlineStr">
+      <c r="C107" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D107" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E107" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E107" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G107" s="1" t="inlineStr">
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M107" s="1" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107">
+        <f>COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($C$143:$D$143,"รณยุทธ")+COUNTIF($C$146:$D$146,"รณยุทธ")+COUNTIF($C$149:$D$149,"รณยุทธ")+COUNTIF($C$152:$D$152,"รณยุทธ")+COUNTIF($C$155:$D$155,"รณยุทธ")+COUNTIF($C$164:$D$164,"รณยุทธ")+COUNTIF($C$167:$D$167,"รณยุทธ")+COUNTIF($C$170:$D$170,"รณยุทธ")+COUNTIF($C$173:$D$173,"รณยุทธ")+COUNTIF($C$176:$D$176,"รณยุทธ")+COUNTIF($C$185:$D$185,"รณยุทธ")+COUNTIF($C$188:$D$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J107">
+        <f>COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($C$144:$D$144,"รณยุทธ")+COUNTIF($C$147:$D$147,"รณยุทธ")+COUNTIF($C$150:$D$150,"รณยุทธ")+COUNTIF($C$153:$D$153,"รณยุทธ")+COUNTIF($C$156:$D$156,"รณยุทธ")+COUNTIF($C$165:$D$165,"รณยุทธ")+COUNTIF($C$168:$D$168,"รณยุทธ")+COUNTIF($C$171:$D$171,"รณยุทธ")+COUNTIF($C$174:$D$174,"รณยุทธ")+COUNTIF($C$177:$D$177,"รณยุทธ")+COUNTIF($C$186:$D$186,"รณยุทธ")+COUNTIF($C$189:$D$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K107">
+        <f>SUM(H107:J107)</f>
+        <v/>
+      </c>
+      <c r="M107" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-      <c r="O107" t="n">
-        <v>2</v>
-      </c>
-      <c r="P107" t="n">
-        <v>1</v>
-      </c>
-      <c r="S107" s="1" t="inlineStr">
+      <c r="N107">
+        <f>COUNTIF($C$97:$D$97,"รณยุทธ")+COUNTIF($C$115:$D$115,"รณยุทธ")+COUNTIF($C$118:$D$118,"รณยุทธ")+COUNTIF($C$136:$D$136,"รณยุทธ")+COUNTIF($C$139:$D$139,"รณยุทธ")+COUNTIF($C$157:$D$157,"รณยุทธ")+COUNTIF($C$160:$D$160,"รณยุทธ")+COUNTIF($C$178:$D$178,"รณยุทธ")+COUNTIF($C$181:$D$181,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O107">
+        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($C$158:$D$158,"รณยุทธ")+COUNTIF($C$161:$D$161,"รณยุทธ")+COUNTIF($C$179:$D$179,"รณยุทธ")+COUNTIF($C$182:$D$182,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P107">
+        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($C$159:$D$159,"รณยุทธ")+COUNTIF($C$162:$D$162,"รณยุทธ")+COUNTIF($C$180:$D$180,"รณยุทธ")+COUNTIF($C$183:$D$183,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q107">
+        <f>SUM(N107:P107)</f>
+        <v/>
+      </c>
+      <c r="S107" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="T107" t="n">
-        <v>1</v>
-      </c>
-      <c r="U107" t="n">
-        <v>5</v>
-      </c>
-      <c r="V107" t="n">
-        <v>4</v>
+      <c r="T107">
+        <f>SUM(H107,N107)</f>
+        <v/>
+      </c>
+      <c r="U107">
+        <f>SUM(I107,O107)</f>
+        <v/>
+      </c>
+      <c r="V107">
+        <f>SUM(J107,P107)</f>
+        <v/>
+      </c>
+      <c r="W107">
+        <f>SUM(K107,Q107)</f>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -4859,62 +5030,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C108" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="D108" s="11" t="inlineStr">
+      <c r="C108" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D108" s="8" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E108" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
+      <c r="E108" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" s="2" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108">
+        <f>COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$143:$D$143,"วัฒพงษ์")+COUNTIF($C$146:$D$146,"วัฒพงษ์")+COUNTIF($C$149:$D$149,"วัฒพงษ์")+COUNTIF($C$152:$D$152,"วัฒพงษ์")+COUNTIF($C$155:$D$155,"วัฒพงษ์")+COUNTIF($C$164:$D$164,"วัฒพงษ์")+COUNTIF($C$167:$D$167,"วัฒพงษ์")+COUNTIF($C$170:$D$170,"วัฒพงษ์")+COUNTIF($C$173:$D$173,"วัฒพงษ์")+COUNTIF($C$176:$D$176,"วัฒพงษ์")+COUNTIF($C$185:$D$185,"วัฒพงษ์")+COUNTIF($C$188:$D$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J108">
+        <f>COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$144:$D$144,"วัฒพงษ์")+COUNTIF($C$147:$D$147,"วัฒพงษ์")+COUNTIF($C$150:$D$150,"วัฒพงษ์")+COUNTIF($C$153:$D$153,"วัฒพงษ์")+COUNTIF($C$156:$D$156,"วัฒพงษ์")+COUNTIF($C$165:$D$165,"วัฒพงษ์")+COUNTIF($C$168:$D$168,"วัฒพงษ์")+COUNTIF($C$171:$D$171,"วัฒพงษ์")+COUNTIF($C$174:$D$174,"วัฒพงษ์")+COUNTIF($C$177:$D$177,"วัฒพงษ์")+COUNTIF($C$186:$D$186,"วัฒพงษ์")+COUNTIF($C$189:$D$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K108">
+        <f>SUM(H108:J108)</f>
+        <v/>
+      </c>
+      <c r="M108" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>2</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1</v>
-      </c>
-      <c r="S108" s="2" t="inlineStr">
+      <c r="N108">
+        <f>COUNTIF($C$97:$D$97,"วัฒพงษ์")+COUNTIF($C$115:$D$115,"วัฒพงษ์")+COUNTIF($C$118:$D$118,"วัฒพงษ์")+COUNTIF($C$136:$D$136,"วัฒพงษ์")+COUNTIF($C$139:$D$139,"วัฒพงษ์")+COUNTIF($C$157:$D$157,"วัฒพงษ์")+COUNTIF($C$160:$D$160,"วัฒพงษ์")+COUNTIF($C$178:$D$178,"วัฒพงษ์")+COUNTIF($C$181:$D$181,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O108">
+        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($C$158:$D$158,"วัฒพงษ์")+COUNTIF($C$161:$D$161,"วัฒพงษ์")+COUNTIF($C$179:$D$179,"วัฒพงษ์")+COUNTIF($C$182:$D$182,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P108">
+        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($C$159:$D$159,"วัฒพงษ์")+COUNTIF($C$162:$D$162,"วัฒพงษ์")+COUNTIF($C$180:$D$180,"วัฒพงษ์")+COUNTIF($C$183:$D$183,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q108">
+        <f>SUM(N108:P108)</f>
+        <v/>
+      </c>
+      <c r="S108" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="T108" t="n">
-        <v>1</v>
-      </c>
-      <c r="U108" t="n">
-        <v>5</v>
-      </c>
-      <c r="V108" t="n">
-        <v>4</v>
+      <c r="T108">
+        <f>SUM(H108,N108)</f>
+        <v/>
+      </c>
+      <c r="U108">
+        <f>SUM(I108,O108)</f>
+        <v/>
+      </c>
+      <c r="V108">
+        <f>SUM(J108,P108)</f>
+        <v/>
+      </c>
+      <c r="W108">
+        <f>SUM(K108,Q108)</f>
+        <v/>
       </c>
     </row>
     <row r="109">
@@ -4928,47 +5117,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G109" s="2" t="inlineStr">
+      <c r="G109" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3</v>
-      </c>
-      <c r="M109" s="2" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109">
+        <f>COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$143:$D$143,"ราเชน")+COUNTIF($C$146:$D$146,"ราเชน")+COUNTIF($C$149:$D$149,"ราเชน")+COUNTIF($C$152:$D$152,"ราเชน")+COUNTIF($C$155:$D$155,"ราเชน")+COUNTIF($C$164:$D$164,"ราเชน")+COUNTIF($C$167:$D$167,"ราเชน")+COUNTIF($C$170:$D$170,"ราเชน")+COUNTIF($C$173:$D$173,"ราเชน")+COUNTIF($C$176:$D$176,"ราเชน")+COUNTIF($C$185:$D$185,"ราเชน")+COUNTIF($C$188:$D$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J109">
+        <f>COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$144:$D$144,"ราเชน")+COUNTIF($C$147:$D$147,"ราเชน")+COUNTIF($C$150:$D$150,"ราเชน")+COUNTIF($C$153:$D$153,"ราเชน")+COUNTIF($C$156:$D$156,"ราเชน")+COUNTIF($C$165:$D$165,"ราเชน")+COUNTIF($C$168:$D$168,"ราเชน")+COUNTIF($C$171:$D$171,"ราเชน")+COUNTIF($C$174:$D$174,"ราเชน")+COUNTIF($C$177:$D$177,"ราเชน")+COUNTIF($C$186:$D$186,"ราเชน")+COUNTIF($C$189:$D$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K109">
+        <f>SUM(H109:J109)</f>
+        <v/>
+      </c>
+      <c r="M109" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>2</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1</v>
-      </c>
-      <c r="S109" s="2" t="inlineStr">
+      <c r="N109">
+        <f>COUNTIF($C$97:$D$97,"ราเชน")+COUNTIF($C$115:$D$115,"ราเชน")+COUNTIF($C$118:$D$118,"ราเชน")+COUNTIF($C$136:$D$136,"ราเชน")+COUNTIF($C$139:$D$139,"ราเชน")+COUNTIF($C$157:$D$157,"ราเชน")+COUNTIF($C$160:$D$160,"ราเชน")+COUNTIF($C$178:$D$178,"ราเชน")+COUNTIF($C$181:$D$181,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O109">
+        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($C$158:$D$158,"ราเชน")+COUNTIF($C$161:$D$161,"ราเชน")+COUNTIF($C$179:$D$179,"ราเชน")+COUNTIF($C$182:$D$182,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P109">
+        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($C$159:$D$159,"ราเชน")+COUNTIF($C$162:$D$162,"ราเชน")+COUNTIF($C$180:$D$180,"ราเชน")+COUNTIF($C$183:$D$183,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q109">
+        <f>SUM(N109:P109)</f>
+        <v/>
+      </c>
+      <c r="S109" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="T109" t="n">
-        <v>2</v>
-      </c>
-      <c r="U109" t="n">
-        <v>4</v>
-      </c>
-      <c r="V109" t="n">
-        <v>4</v>
+      <c r="T109">
+        <f>SUM(H109,N109)</f>
+        <v/>
+      </c>
+      <c r="U109">
+        <f>SUM(I109,O109)</f>
+        <v/>
+      </c>
+      <c r="V109">
+        <f>SUM(J109,P109)</f>
+        <v/>
+      </c>
+      <c r="W109">
+        <f>SUM(K109,Q109)</f>
+        <v/>
       </c>
     </row>
     <row r="110">
@@ -4977,62 +5184,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D110" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E110" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E110" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4</v>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110">
+        <f>COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$143:$D$143,"นฤชิต")+COUNTIF($C$146:$D$146,"นฤชิต")+COUNTIF($C$149:$D$149,"นฤชิต")+COUNTIF($C$152:$D$152,"นฤชิต")+COUNTIF($C$155:$D$155,"นฤชิต")+COUNTIF($C$164:$D$164,"นฤชิต")+COUNTIF($C$167:$D$167,"นฤชิต")+COUNTIF($C$170:$D$170,"นฤชิต")+COUNTIF($C$173:$D$173,"นฤชิต")+COUNTIF($C$176:$D$176,"นฤชิต")+COUNTIF($C$185:$D$185,"นฤชิต")+COUNTIF($C$188:$D$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J110">
+        <f>COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$144:$D$144,"นฤชิต")+COUNTIF($C$147:$D$147,"นฤชิต")+COUNTIF($C$150:$D$150,"นฤชิต")+COUNTIF($C$153:$D$153,"นฤชิต")+COUNTIF($C$156:$D$156,"นฤชิต")+COUNTIF($C$165:$D$165,"นฤชิต")+COUNTIF($C$168:$D$168,"นฤชิต")+COUNTIF($C$171:$D$171,"นฤชิต")+COUNTIF($C$174:$D$174,"นฤชิต")+COUNTIF($C$177:$D$177,"นฤชิต")+COUNTIF($C$186:$D$186,"นฤชิต")+COUNTIF($C$189:$D$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K110">
+        <f>SUM(H110:J110)</f>
+        <v/>
+      </c>
+      <c r="M110" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" t="n">
-        <v>2</v>
-      </c>
-      <c r="S110" s="2" t="inlineStr">
+      <c r="N110">
+        <f>COUNTIF($C$97:$D$97,"นฤชิต")+COUNTIF($C$115:$D$115,"นฤชิต")+COUNTIF($C$118:$D$118,"นฤชิต")+COUNTIF($C$136:$D$136,"นฤชิต")+COUNTIF($C$139:$D$139,"นฤชิต")+COUNTIF($C$157:$D$157,"นฤชิต")+COUNTIF($C$160:$D$160,"นฤชิต")+COUNTIF($C$178:$D$178,"นฤชิต")+COUNTIF($C$181:$D$181,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O110">
+        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($C$158:$D$158,"นฤชิต")+COUNTIF($C$161:$D$161,"นฤชิต")+COUNTIF($C$179:$D$179,"นฤชิต")+COUNTIF($C$182:$D$182,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P110">
+        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($C$159:$D$159,"นฤชิต")+COUNTIF($C$162:$D$162,"นฤชิต")+COUNTIF($C$180:$D$180,"นฤชิต")+COUNTIF($C$183:$D$183,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q110">
+        <f>SUM(N110:P110)</f>
+        <v/>
+      </c>
+      <c r="S110" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="T110" t="n">
-        <v>1</v>
-      </c>
-      <c r="U110" t="n">
-        <v>4</v>
-      </c>
-      <c r="V110" t="n">
-        <v>6</v>
+      <c r="T110">
+        <f>SUM(H110,N110)</f>
+        <v/>
+      </c>
+      <c r="U110">
+        <f>SUM(I110,O110)</f>
+        <v/>
+      </c>
+      <c r="V110">
+        <f>SUM(J110,P110)</f>
+        <v/>
+      </c>
+      <c r="W110">
+        <f>SUM(K110,Q110)</f>
+        <v/>
       </c>
     </row>
     <row r="111">
@@ -5041,62 +5266,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C111" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D111" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E111" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E111" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4</v>
-      </c>
-      <c r="M111" s="2" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111">
+        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$143:$D$143,"จีรวัฒน์")+COUNTIF($C$146:$D$146,"จีรวัฒน์")+COUNTIF($C$149:$D$149,"จีรวัฒน์")+COUNTIF($C$152:$D$152,"จีรวัฒน์")+COUNTIF($C$155:$D$155,"จีรวัฒน์")+COUNTIF($C$164:$D$164,"จีรวัฒน์")+COUNTIF($C$167:$D$167,"จีรวัฒน์")+COUNTIF($C$170:$D$170,"จีรวัฒน์")+COUNTIF($C$173:$D$173,"จีรวัฒน์")+COUNTIF($C$176:$D$176,"จีรวัฒน์")+COUNTIF($C$185:$D$185,"จีรวัฒน์")+COUNTIF($C$188:$D$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J111">
+        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$144:$D$144,"จีรวัฒน์")+COUNTIF($C$147:$D$147,"จีรวัฒน์")+COUNTIF($C$150:$D$150,"จีรวัฒน์")+COUNTIF($C$153:$D$153,"จีรวัฒน์")+COUNTIF($C$156:$D$156,"จีรวัฒน์")+COUNTIF($C$165:$D$165,"จีรวัฒน์")+COUNTIF($C$168:$D$168,"จีรวัฒน์")+COUNTIF($C$171:$D$171,"จีรวัฒน์")+COUNTIF($C$174:$D$174,"จีรวัฒน์")+COUNTIF($C$177:$D$177,"จีรวัฒน์")+COUNTIF($C$186:$D$186,"จีรวัฒน์")+COUNTIF($C$189:$D$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K111">
+        <f>SUM(H111:J111)</f>
+        <v/>
+      </c>
+      <c r="M111" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>2</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" t="n">
-        <v>1</v>
-      </c>
-      <c r="S111" s="2" t="inlineStr">
+      <c r="N111">
+        <f>COUNTIF($C$97:$D$97,"จีรวัฒน์")+COUNTIF($C$115:$D$115,"จีรวัฒน์")+COUNTIF($C$118:$D$118,"จีรวัฒน์")+COUNTIF($C$136:$D$136,"จีรวัฒน์")+COUNTIF($C$139:$D$139,"จีรวัฒน์")+COUNTIF($C$157:$D$157,"จีรวัฒน์")+COUNTIF($C$160:$D$160,"จีรวัฒน์")+COUNTIF($C$178:$D$178,"จีรวัฒน์")+COUNTIF($C$181:$D$181,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($C$158:$D$158,"จีรวัฒน์")+COUNTIF($C$161:$D$161,"จีรวัฒน์")+COUNTIF($C$179:$D$179,"จีรวัฒน์")+COUNTIF($C$182:$D$182,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($C$159:$D$159,"จีรวัฒน์")+COUNTIF($C$162:$D$162,"จีรวัฒน์")+COUNTIF($C$180:$D$180,"จีรวัฒน์")+COUNTIF($C$183:$D$183,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q111">
+        <f>SUM(N111:P111)</f>
+        <v/>
+      </c>
+      <c r="S111" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="T111" t="n">
-        <v>2</v>
-      </c>
-      <c r="U111" t="n">
-        <v>4</v>
-      </c>
-      <c r="V111" t="n">
-        <v>5</v>
+      <c r="T111">
+        <f>SUM(H111,N111)</f>
+        <v/>
+      </c>
+      <c r="U111">
+        <f>SUM(I111,O111)</f>
+        <v/>
+      </c>
+      <c r="V111">
+        <f>SUM(J111,P111)</f>
+        <v/>
+      </c>
+      <c r="W111">
+        <f>SUM(K111,Q111)</f>
+        <v/>
       </c>
     </row>
     <row r="112">
@@ -5110,47 +5353,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G112" s="2" t="inlineStr">
+      <c r="G112" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3</v>
-      </c>
-      <c r="M112" s="2" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112">
+        <f>COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$143:$D$143,"สุเมธร์")+COUNTIF($C$146:$D$146,"สุเมธร์")+COUNTIF($C$149:$D$149,"สุเมธร์")+COUNTIF($C$152:$D$152,"สุเมธร์")+COUNTIF($C$155:$D$155,"สุเมธร์")+COUNTIF($C$164:$D$164,"สุเมธร์")+COUNTIF($C$167:$D$167,"สุเมธร์")+COUNTIF($C$170:$D$170,"สุเมธร์")+COUNTIF($C$173:$D$173,"สุเมธร์")+COUNTIF($C$176:$D$176,"สุเมธร์")+COUNTIF($C$185:$D$185,"สุเมธร์")+COUNTIF($C$188:$D$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J112">
+        <f>COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$144:$D$144,"สุเมธร์")+COUNTIF($C$147:$D$147,"สุเมธร์")+COUNTIF($C$150:$D$150,"สุเมธร์")+COUNTIF($C$153:$D$153,"สุเมธร์")+COUNTIF($C$156:$D$156,"สุเมธร์")+COUNTIF($C$165:$D$165,"สุเมธร์")+COUNTIF($C$168:$D$168,"สุเมธร์")+COUNTIF($C$171:$D$171,"สุเมธร์")+COUNTIF($C$174:$D$174,"สุเมธร์")+COUNTIF($C$177:$D$177,"สุเมธร์")+COUNTIF($C$186:$D$186,"สุเมธร์")+COUNTIF($C$189:$D$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K112">
+        <f>SUM(H112:J112)</f>
+        <v/>
+      </c>
+      <c r="M112" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>2</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" t="n">
-        <v>1</v>
-      </c>
-      <c r="S112" s="2" t="inlineStr">
+      <c r="N112">
+        <f>COUNTIF($C$97:$D$97,"สุเมธร์")+COUNTIF($C$115:$D$115,"สุเมธร์")+COUNTIF($C$118:$D$118,"สุเมธร์")+COUNTIF($C$136:$D$136,"สุเมธร์")+COUNTIF($C$139:$D$139,"สุเมธร์")+COUNTIF($C$157:$D$157,"สุเมธร์")+COUNTIF($C$160:$D$160,"สุเมธร์")+COUNTIF($C$178:$D$178,"สุเมธร์")+COUNTIF($C$181:$D$181,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O112">
+        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($C$158:$D$158,"สุเมธร์")+COUNTIF($C$161:$D$161,"สุเมธร์")+COUNTIF($C$179:$D$179,"สุเมธร์")+COUNTIF($C$182:$D$182,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P112">
+        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($C$159:$D$159,"สุเมธร์")+COUNTIF($C$162:$D$162,"สุเมธร์")+COUNTIF($C$180:$D$180,"สุเมธร์")+COUNTIF($C$183:$D$183,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q112">
+        <f>SUM(N112:P112)</f>
+        <v/>
+      </c>
+      <c r="S112" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="T112" t="n">
-        <v>2</v>
-      </c>
-      <c r="U112" t="n">
-        <v>5</v>
-      </c>
-      <c r="V112" t="n">
-        <v>4</v>
+      <c r="T112">
+        <f>SUM(H112,N112)</f>
+        <v/>
+      </c>
+      <c r="U112">
+        <f>SUM(I112,O112)</f>
+        <v/>
+      </c>
+      <c r="V112">
+        <f>SUM(J112,P112)</f>
+        <v/>
+      </c>
+      <c r="W112">
+        <f>SUM(K112,Q112)</f>
+        <v/>
       </c>
     </row>
     <row r="113">
@@ -5159,62 +5420,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C113" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D113" s="8" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E113" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
-      <c r="M113" s="2" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113">
+        <f>COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$143:$D$143,"นที")+COUNTIF($C$146:$D$146,"นที")+COUNTIF($C$149:$D$149,"นที")+COUNTIF($C$152:$D$152,"นที")+COUNTIF($C$155:$D$155,"นที")+COUNTIF($C$164:$D$164,"นที")+COUNTIF($C$167:$D$167,"นที")+COUNTIF($C$170:$D$170,"นที")+COUNTIF($C$173:$D$173,"นที")+COUNTIF($C$176:$D$176,"นที")+COUNTIF($C$185:$D$185,"นที")+COUNTIF($C$188:$D$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="J113">
+        <f>COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$144:$D$144,"นที")+COUNTIF($C$147:$D$147,"นที")+COUNTIF($C$150:$D$150,"นที")+COUNTIF($C$153:$D$153,"นที")+COUNTIF($C$156:$D$156,"นที")+COUNTIF($C$165:$D$165,"นที")+COUNTIF($C$168:$D$168,"นที")+COUNTIF($C$171:$D$171,"นที")+COUNTIF($C$174:$D$174,"นที")+COUNTIF($C$177:$D$177,"นที")+COUNTIF($C$186:$D$186,"นที")+COUNTIF($C$189:$D$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="K113">
+        <f>SUM(H113:J113)</f>
+        <v/>
+      </c>
+      <c r="M113" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>2</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" t="n">
-        <v>1</v>
-      </c>
-      <c r="S113" s="2" t="inlineStr">
+      <c r="N113">
+        <f>COUNTIF($C$97:$D$97,"นที")+COUNTIF($C$115:$D$115,"นที")+COUNTIF($C$118:$D$118,"นที")+COUNTIF($C$136:$D$136,"นที")+COUNTIF($C$139:$D$139,"นที")+COUNTIF($C$157:$D$157,"นที")+COUNTIF($C$160:$D$160,"นที")+COUNTIF($C$178:$D$178,"นที")+COUNTIF($C$181:$D$181,"นที")</f>
+        <v/>
+      </c>
+      <c r="O113">
+        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($C$158:$D$158,"นที")+COUNTIF($C$161:$D$161,"นที")+COUNTIF($C$179:$D$179,"นที")+COUNTIF($C$182:$D$182,"นที")</f>
+        <v/>
+      </c>
+      <c r="P113">
+        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($C$159:$D$159,"นที")+COUNTIF($C$162:$D$162,"นที")+COUNTIF($C$180:$D$180,"นที")+COUNTIF($C$183:$D$183,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q113">
+        <f>SUM(N113:P113)</f>
+        <v/>
+      </c>
+      <c r="S113" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="T113" t="n">
-        <v>2</v>
-      </c>
-      <c r="U113" t="n">
-        <v>4</v>
-      </c>
-      <c r="V113" t="n">
-        <v>4</v>
+      <c r="T113">
+        <f>SUM(H113,N113)</f>
+        <v/>
+      </c>
+      <c r="U113">
+        <f>SUM(I113,O113)</f>
+        <v/>
+      </c>
+      <c r="V113">
+        <f>SUM(J113,P113)</f>
+        <v/>
+      </c>
+      <c r="W113">
+        <f>SUM(K113,Q113)</f>
+        <v/>
       </c>
     </row>
     <row r="114">
@@ -5225,17 +5504,17 @@
       </c>
       <c r="C114" s="12" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D114" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E114" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D114" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -5250,19 +5529,34 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C115" s="16" t="inlineStr">
+      <c r="C115" s="4" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="D115" s="5" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E115" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
         </is>
       </c>
     </row>
@@ -5272,19 +5566,79 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D116" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="C116" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D116" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E116" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -5294,35 +5648,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C117" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D117" s="7" t="inlineStr">
+      <c r="C117" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D117" s="11" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E117" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>วันทำการ โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>วันหยุด โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>รวมโรงพยาบาลเด็ก</t>
-        </is>
+      <c r="E117" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117">
+        <f>COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$143,"ภูวเนตร")+COUNTIF($E$146,"ภูวเนตร")+COUNTIF($E$149,"ภูวเนตร")+COUNTIF($E$152,"ภูวเนตร")+COUNTIF($E$155,"ภูวเนตร")+COUNTIF($E$164,"ภูวเนตร")+COUNTIF($E$167,"ภูวเนตร")+COUNTIF($E$170,"ภูวเนตร")+COUNTIF($E$173,"ภูวเนตร")+COUNTIF($E$176,"ภูวเนตร")+COUNTIF($E$185,"ภูวเนตร")+COUNTIF($E$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J117">
+        <f>COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$144,"ภูวเนตร")+COUNTIF($E$147,"ภูวเนตร")+COUNTIF($E$150,"ภูวเนตร")+COUNTIF($E$153,"ภูวเนตร")+COUNTIF($E$156,"ภูวเนตร")+COUNTIF($E$165,"ภูวเนตร")+COUNTIF($E$168,"ภูวเนตร")+COUNTIF($E$171,"ภูวเนตร")+COUNTIF($E$174,"ภูวเนตร")+COUNTIF($E$177,"ภูวเนตร")+COUNTIF($E$186,"ภูวเนตร")+COUNTIF($E$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K117">
+        <f>SUM(H117:J117)</f>
+        <v/>
+      </c>
+      <c r="M117" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N117">
+        <f>COUNTIF($E$97,"ภูวเนตร")+COUNTIF($E$115,"ภูวเนตร")+COUNTIF($E$118,"ภูวเนตร")+COUNTIF($E$136,"ภูวเนตร")+COUNTIF($E$139,"ภูวเนตร")+COUNTIF($E$157,"ภูวเนตร")+COUNTIF($E$160,"ภูวเนตร")+COUNTIF($E$178,"ภูวเนตร")+COUNTIF($E$181,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O117">
+        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($E$158,"ภูวเนตร")+COUNTIF($E$161,"ภูวเนตร")+COUNTIF($E$179,"ภูวเนตร")+COUNTIF($E$182,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P117">
+        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($E$159,"ภูวเนตร")+COUNTIF($E$162,"ภูวเนตร")+COUNTIF($E$180,"ภูวเนตร")+COUNTIF($E$183,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q117">
+        <f>SUM(N117:P117)</f>
+        <v/>
+      </c>
+      <c r="S117" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T117">
+        <f>SUM(H117,N117)</f>
+        <v/>
+      </c>
+      <c r="U117">
+        <f>SUM(I117,O117)</f>
+        <v/>
+      </c>
+      <c r="V117">
+        <f>SUM(J117,P117)</f>
+        <v/>
+      </c>
+      <c r="W117">
+        <f>SUM(K117,Q117)</f>
+        <v/>
       </c>
     </row>
     <row r="118">
@@ -5336,80 +5735,80 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C118" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D118" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E118" s="9" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="D118" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E118" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118">
+        <f>COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($E$143,"ราเชนทร์")+COUNTIF($E$146,"ราเชนทร์")+COUNTIF($E$149,"ราเชนทร์")+COUNTIF($E$152,"ราเชนทร์")+COUNTIF($E$155,"ราเชนทร์")+COUNTIF($E$164,"ราเชนทร์")+COUNTIF($E$167,"ราเชนทร์")+COUNTIF($E$170,"ราเชนทร์")+COUNTIF($E$173,"ราเชนทร์")+COUNTIF($E$176,"ราเชนทร์")+COUNTIF($E$185,"ราเชนทร์")+COUNTIF($E$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J118">
+        <f>COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($E$144,"ราเชนทร์")+COUNTIF($E$147,"ราเชนทร์")+COUNTIF($E$150,"ราเชนทร์")+COUNTIF($E$153,"ราเชนทร์")+COUNTIF($E$156,"ราเชนทร์")+COUNTIF($E$165,"ราเชนทร์")+COUNTIF($E$168,"ราเชนทร์")+COUNTIF($E$171,"ราเชนทร์")+COUNTIF($E$174,"ราเชนทร์")+COUNTIF($E$177,"ราเชนทร์")+COUNTIF($E$186,"ราเชนทร์")+COUNTIF($E$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K118">
+        <f>SUM(H118:J118)</f>
+        <v/>
+      </c>
+      <c r="M118" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N118">
+        <f>COUNTIF($E$97,"ราเชนทร์")+COUNTIF($E$115,"ราเชนทร์")+COUNTIF($E$118,"ราเชนทร์")+COUNTIF($E$136,"ราเชนทร์")+COUNTIF($E$139,"ราเชนทร์")+COUNTIF($E$157,"ราเชนทร์")+COUNTIF($E$160,"ราเชนทร์")+COUNTIF($E$178,"ราเชนทร์")+COUNTIF($E$181,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O118">
+        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($E$158,"ราเชนทร์")+COUNTIF($E$161,"ราเชนทร์")+COUNTIF($E$179,"ราเชนทร์")+COUNTIF($E$182,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P118">
+        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($E$159,"ราเชนทร์")+COUNTIF($E$162,"ราเชนทร์")+COUNTIF($E$180,"ราเชนทร์")+COUNTIF($E$183,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q118">
+        <f>SUM(N118:P118)</f>
+        <v/>
+      </c>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T118">
+        <f>SUM(H118,N118)</f>
+        <v/>
+      </c>
+      <c r="U118">
+        <f>SUM(I118,O118)</f>
+        <v/>
+      </c>
+      <c r="V118">
+        <f>SUM(J118,P118)</f>
+        <v/>
+      </c>
+      <c r="W118">
+        <f>SUM(K118,Q118)</f>
+        <v/>
       </c>
     </row>
     <row r="119">
@@ -5418,35 +5817,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C119" s="8" t="inlineStr">
+      <c r="C119" s="12" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D119" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E119" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G119" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="M119" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="S119" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
+      <c r="D119" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119">
+        <f>COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$143,"พลกฤต")+COUNTIF($E$146,"พลกฤต")+COUNTIF($E$149,"พลกฤต")+COUNTIF($E$152,"พลกฤต")+COUNTIF($E$155,"พลกฤต")+COUNTIF($E$164,"พลกฤต")+COUNTIF($E$167,"พลกฤต")+COUNTIF($E$170,"พลกฤต")+COUNTIF($E$173,"พลกฤต")+COUNTIF($E$176,"พลกฤต")+COUNTIF($E$185,"พลกฤต")+COUNTIF($E$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J119">
+        <f>COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$144,"พลกฤต")+COUNTIF($E$147,"พลกฤต")+COUNTIF($E$150,"พลกฤต")+COUNTIF($E$153,"พลกฤต")+COUNTIF($E$156,"พลกฤต")+COUNTIF($E$165,"พลกฤต")+COUNTIF($E$168,"พลกฤต")+COUNTIF($E$171,"พลกฤต")+COUNTIF($E$174,"พลกฤต")+COUNTIF($E$177,"พลกฤต")+COUNTIF($E$186,"พลกฤต")+COUNTIF($E$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K119">
+        <f>SUM(H119:J119)</f>
+        <v/>
+      </c>
+      <c r="M119" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N119">
+        <f>COUNTIF($E$97,"พลกฤต")+COUNTIF($E$115,"พลกฤต")+COUNTIF($E$118,"พลกฤต")+COUNTIF($E$136,"พลกฤต")+COUNTIF($E$139,"พลกฤต")+COUNTIF($E$157,"พลกฤต")+COUNTIF($E$160,"พลกฤต")+COUNTIF($E$178,"พลกฤต")+COUNTIF($E$181,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O119">
+        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($E$158,"พลกฤต")+COUNTIF($E$161,"พลกฤต")+COUNTIF($E$179,"พลกฤต")+COUNTIF($E$182,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P119">
+        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($E$159,"พลกฤต")+COUNTIF($E$162,"พลกฤต")+COUNTIF($E$180,"พลกฤต")+COUNTIF($E$183,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q119">
+        <f>SUM(N119:P119)</f>
+        <v/>
+      </c>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T119">
+        <f>SUM(H119,N119)</f>
+        <v/>
+      </c>
+      <c r="U119">
+        <f>SUM(I119,O119)</f>
+        <v/>
+      </c>
+      <c r="V119">
+        <f>SUM(J119,P119)</f>
+        <v/>
+      </c>
+      <c r="W119">
+        <f>SUM(K119,Q119)</f>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -5455,35 +5899,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C120" s="15" t="inlineStr">
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D120" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E120" s="6" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D120" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="G120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="M120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="S120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120">
+        <f>COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$143,"ชานนท์")+COUNTIF($E$146,"ชานนท์")+COUNTIF($E$149,"ชานนท์")+COUNTIF($E$152,"ชานนท์")+COUNTIF($E$155,"ชานนท์")+COUNTIF($E$164,"ชานนท์")+COUNTIF($E$167,"ชานนท์")+COUNTIF($E$170,"ชานนท์")+COUNTIF($E$173,"ชานนท์")+COUNTIF($E$176,"ชานนท์")+COUNTIF($E$185,"ชานนท์")+COUNTIF($E$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J120">
+        <f>COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$144,"ชานนท์")+COUNTIF($E$147,"ชานนท์")+COUNTIF($E$150,"ชานนท์")+COUNTIF($E$153,"ชานนท์")+COUNTIF($E$156,"ชานนท์")+COUNTIF($E$165,"ชานนท์")+COUNTIF($E$168,"ชานนท์")+COUNTIF($E$171,"ชานนท์")+COUNTIF($E$174,"ชานนท์")+COUNTIF($E$177,"ชานนท์")+COUNTIF($E$186,"ชานนท์")+COUNTIF($E$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K120">
+        <f>SUM(H120:J120)</f>
+        <v/>
+      </c>
+      <c r="M120" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N120">
+        <f>COUNTIF($E$97,"ชานนท์")+COUNTIF($E$115,"ชานนท์")+COUNTIF($E$118,"ชานนท์")+COUNTIF($E$136,"ชานนท์")+COUNTIF($E$139,"ชานนท์")+COUNTIF($E$157,"ชานนท์")+COUNTIF($E$160,"ชานนท์")+COUNTIF($E$178,"ชานนท์")+COUNTIF($E$181,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O120">
+        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($E$158,"ชานนท์")+COUNTIF($E$161,"ชานนท์")+COUNTIF($E$179,"ชานนท์")+COUNTIF($E$182,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P120">
+        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($E$159,"ชานนท์")+COUNTIF($E$162,"ชานนท์")+COUNTIF($E$180,"ชานนท์")+COUNTIF($E$183,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q120">
+        <f>SUM(N120:P120)</f>
+        <v/>
+      </c>
+      <c r="S120" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T120">
+        <f>SUM(H120,N120)</f>
+        <v/>
+      </c>
+      <c r="U120">
+        <f>SUM(I120,O120)</f>
+        <v/>
+      </c>
+      <c r="V120">
+        <f>SUM(J120,P120)</f>
+        <v/>
+      </c>
+      <c r="W120">
+        <f>SUM(K120,Q120)</f>
+        <v/>
       </c>
     </row>
     <row r="121">
@@ -5497,20 +5986,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G121" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="M121" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="S121" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121">
+        <f>COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$143,"ปรมะ")+COUNTIF($E$146,"ปรมะ")+COUNTIF($E$149,"ปรมะ")+COUNTIF($E$152,"ปรมะ")+COUNTIF($E$155,"ปรมะ")+COUNTIF($E$164,"ปรมะ")+COUNTIF($E$167,"ปรมะ")+COUNTIF($E$170,"ปรมะ")+COUNTIF($E$173,"ปรมะ")+COUNTIF($E$176,"ปรมะ")+COUNTIF($E$185,"ปรมะ")+COUNTIF($E$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J121">
+        <f>COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$144,"ปรมะ")+COUNTIF($E$147,"ปรมะ")+COUNTIF($E$150,"ปรมะ")+COUNTIF($E$153,"ปรมะ")+COUNTIF($E$156,"ปรมะ")+COUNTIF($E$165,"ปรมะ")+COUNTIF($E$168,"ปรมะ")+COUNTIF($E$171,"ปรมะ")+COUNTIF($E$174,"ปรมะ")+COUNTIF($E$177,"ปรมะ")+COUNTIF($E$186,"ปรมะ")+COUNTIF($E$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K121">
+        <f>SUM(H121:J121)</f>
+        <v/>
+      </c>
+      <c r="M121" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N121">
+        <f>COUNTIF($E$97,"ปรมะ")+COUNTIF($E$115,"ปรมะ")+COUNTIF($E$118,"ปรมะ")+COUNTIF($E$136,"ปรมะ")+COUNTIF($E$139,"ปรมะ")+COUNTIF($E$157,"ปรมะ")+COUNTIF($E$160,"ปรมะ")+COUNTIF($E$178,"ปรมะ")+COUNTIF($E$181,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O121">
+        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($E$158,"ปรมะ")+COUNTIF($E$161,"ปรมะ")+COUNTIF($E$179,"ปรมะ")+COUNTIF($E$182,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P121">
+        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($E$159,"ปรมะ")+COUNTIF($E$162,"ปรมะ")+COUNTIF($E$180,"ปรมะ")+COUNTIF($E$183,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q121">
+        <f>SUM(N121:P121)</f>
+        <v/>
+      </c>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T121">
+        <f>SUM(H121,N121)</f>
+        <v/>
+      </c>
+      <c r="U121">
+        <f>SUM(I121,O121)</f>
+        <v/>
+      </c>
+      <c r="V121">
+        <f>SUM(J121,P121)</f>
+        <v/>
+      </c>
+      <c r="W121">
+        <f>SUM(K121,Q121)</f>
+        <v/>
       </c>
     </row>
     <row r="122">
@@ -5519,35 +6053,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="13" t="inlineStr">
+      <c r="C122" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E122" s="7" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D122" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G122" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="M122" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="S122" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122">
+        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$143,"สัญญา")+COUNTIF($E$146,"สัญญา")+COUNTIF($E$149,"สัญญา")+COUNTIF($E$152,"สัญญา")+COUNTIF($E$155,"สัญญา")+COUNTIF($E$164,"สัญญา")+COUNTIF($E$167,"สัญญา")+COUNTIF($E$170,"สัญญา")+COUNTIF($E$173,"สัญญา")+COUNTIF($E$176,"สัญญา")+COUNTIF($E$185,"สัญญา")+COUNTIF($E$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J122">
+        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$144,"สัญญา")+COUNTIF($E$147,"สัญญา")+COUNTIF($E$150,"สัญญา")+COUNTIF($E$153,"สัญญา")+COUNTIF($E$156,"สัญญา")+COUNTIF($E$165,"สัญญา")+COUNTIF($E$168,"สัญญา")+COUNTIF($E$171,"สัญญา")+COUNTIF($E$174,"สัญญา")+COUNTIF($E$177,"สัญญา")+COUNTIF($E$186,"สัญญา")+COUNTIF($E$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K122">
+        <f>SUM(H122:J122)</f>
+        <v/>
+      </c>
+      <c r="M122" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N122">
+        <f>COUNTIF($E$97,"สัญญา")+COUNTIF($E$115,"สัญญา")+COUNTIF($E$118,"สัญญา")+COUNTIF($E$136,"สัญญา")+COUNTIF($E$139,"สัญญา")+COUNTIF($E$157,"สัญญา")+COUNTIF($E$160,"สัญญา")+COUNTIF($E$178,"สัญญา")+COUNTIF($E$181,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($E$158,"สัญญา")+COUNTIF($E$161,"สัญญา")+COUNTIF($E$179,"สัญญา")+COUNTIF($E$182,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($E$159,"สัญญา")+COUNTIF($E$162,"สัญญา")+COUNTIF($E$180,"สัญญา")+COUNTIF($E$183,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q122">
+        <f>SUM(N122:P122)</f>
+        <v/>
+      </c>
+      <c r="S122" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T122">
+        <f>SUM(H122,N122)</f>
+        <v/>
+      </c>
+      <c r="U122">
+        <f>SUM(I122,O122)</f>
+        <v/>
+      </c>
+      <c r="V122">
+        <f>SUM(J122,P122)</f>
+        <v/>
+      </c>
+      <c r="W122">
+        <f>SUM(K122,Q122)</f>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -5556,35 +6135,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D123" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E123" s="14" t="inlineStr">
+      <c r="C123" s="17" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="G123" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="M123" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="S123" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123">
+        <f>COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$143,"วินัย")+COUNTIF($E$146,"วินัย")+COUNTIF($E$149,"วินัย")+COUNTIF($E$152,"วินัย")+COUNTIF($E$155,"วินัย")+COUNTIF($E$164,"วินัย")+COUNTIF($E$167,"วินัย")+COUNTIF($E$170,"วินัย")+COUNTIF($E$173,"วินัย")+COUNTIF($E$176,"วินัย")+COUNTIF($E$185,"วินัย")+COUNTIF($E$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J123">
+        <f>COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$144,"วินัย")+COUNTIF($E$147,"วินัย")+COUNTIF($E$150,"วินัย")+COUNTIF($E$153,"วินัย")+COUNTIF($E$156,"วินัย")+COUNTIF($E$165,"วินัย")+COUNTIF($E$168,"วินัย")+COUNTIF($E$171,"วินัย")+COUNTIF($E$174,"วินัย")+COUNTIF($E$177,"วินัย")+COUNTIF($E$186,"วินัย")+COUNTIF($E$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K123">
+        <f>SUM(H123:J123)</f>
+        <v/>
+      </c>
+      <c r="M123" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N123">
+        <f>COUNTIF($E$97,"วินัย")+COUNTIF($E$115,"วินัย")+COUNTIF($E$118,"วินัย")+COUNTIF($E$136,"วินัย")+COUNTIF($E$139,"วินัย")+COUNTIF($E$157,"วินัย")+COUNTIF($E$160,"วินัย")+COUNTIF($E$178,"วินัย")+COUNTIF($E$181,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O123">
+        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($E$158,"วินัย")+COUNTIF($E$161,"วินัย")+COUNTIF($E$179,"วินัย")+COUNTIF($E$182,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P123">
+        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($E$159,"วินัย")+COUNTIF($E$162,"วินัย")+COUNTIF($E$180,"วินัย")+COUNTIF($E$183,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q123">
+        <f>SUM(N123:P123)</f>
+        <v/>
+      </c>
+      <c r="S123" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T123">
+        <f>SUM(H123,N123)</f>
+        <v/>
+      </c>
+      <c r="U123">
+        <f>SUM(I123,O123)</f>
+        <v/>
+      </c>
+      <c r="V123">
+        <f>SUM(J123,P123)</f>
+        <v/>
+      </c>
+      <c r="W123">
+        <f>SUM(K123,Q123)</f>
+        <v/>
       </c>
     </row>
     <row r="124">
@@ -5598,20 +6222,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G124" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="M124" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="S124" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124">
+        <f>COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($E$143,"รณยุทธ")+COUNTIF($E$146,"รณยุทธ")+COUNTIF($E$149,"รณยุทธ")+COUNTIF($E$152,"รณยุทธ")+COUNTIF($E$155,"รณยุทธ")+COUNTIF($E$164,"รณยุทธ")+COUNTIF($E$167,"รณยุทธ")+COUNTIF($E$170,"รณยุทธ")+COUNTIF($E$173,"รณยุทธ")+COUNTIF($E$176,"รณยุทธ")+COUNTIF($E$185,"รณยุทธ")+COUNTIF($E$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J124">
+        <f>COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($E$144,"รณยุทธ")+COUNTIF($E$147,"รณยุทธ")+COUNTIF($E$150,"รณยุทธ")+COUNTIF($E$153,"รณยุทธ")+COUNTIF($E$156,"รณยุทธ")+COUNTIF($E$165,"รณยุทธ")+COUNTIF($E$168,"รณยุทธ")+COUNTIF($E$171,"รณยุทธ")+COUNTIF($E$174,"รณยุทธ")+COUNTIF($E$177,"รณยุทธ")+COUNTIF($E$186,"รณยุทธ")+COUNTIF($E$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K124">
+        <f>SUM(H124:J124)</f>
+        <v/>
+      </c>
+      <c r="M124" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N124">
+        <f>COUNTIF($E$97,"รณยุทธ")+COUNTIF($E$115,"รณยุทธ")+COUNTIF($E$118,"รณยุทธ")+COUNTIF($E$136,"รณยุทธ")+COUNTIF($E$139,"รณยุทธ")+COUNTIF($E$157,"รณยุทธ")+COUNTIF($E$160,"รณยุทธ")+COUNTIF($E$178,"รณยุทธ")+COUNTIF($E$181,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O124">
+        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($E$158,"รณยุทธ")+COUNTIF($E$161,"รณยุทธ")+COUNTIF($E$179,"รณยุทธ")+COUNTIF($E$182,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P124">
+        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($E$159,"รณยุทธ")+COUNTIF($E$162,"รณยุทธ")+COUNTIF($E$180,"รณยุทธ")+COUNTIF($E$183,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q124">
+        <f>SUM(N124:P124)</f>
+        <v/>
+      </c>
+      <c r="S124" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T124">
+        <f>SUM(H124,N124)</f>
+        <v/>
+      </c>
+      <c r="U124">
+        <f>SUM(I124,O124)</f>
+        <v/>
+      </c>
+      <c r="V124">
+        <f>SUM(J124,P124)</f>
+        <v/>
+      </c>
+      <c r="W124">
+        <f>SUM(K124,Q124)</f>
+        <v/>
       </c>
     </row>
     <row r="125">
@@ -5622,33 +6291,78 @@
       </c>
       <c r="C125" s="10" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D125" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E125" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="inlineStr">
+        <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="D125" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="M125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="S125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125">
+        <f>COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$143,"วัฒพงษ์")+COUNTIF($E$146,"วัฒพงษ์")+COUNTIF($E$149,"วัฒพงษ์")+COUNTIF($E$152,"วัฒพงษ์")+COUNTIF($E$155,"วัฒพงษ์")+COUNTIF($E$164,"วัฒพงษ์")+COUNTIF($E$167,"วัฒพงษ์")+COUNTIF($E$170,"วัฒพงษ์")+COUNTIF($E$173,"วัฒพงษ์")+COUNTIF($E$176,"วัฒพงษ์")+COUNTIF($E$185,"วัฒพงษ์")+COUNTIF($E$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J125">
+        <f>COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$144,"วัฒพงษ์")+COUNTIF($E$147,"วัฒพงษ์")+COUNTIF($E$150,"วัฒพงษ์")+COUNTIF($E$153,"วัฒพงษ์")+COUNTIF($E$156,"วัฒพงษ์")+COUNTIF($E$165,"วัฒพงษ์")+COUNTIF($E$168,"วัฒพงษ์")+COUNTIF($E$171,"วัฒพงษ์")+COUNTIF($E$174,"วัฒพงษ์")+COUNTIF($E$177,"วัฒพงษ์")+COUNTIF($E$186,"วัฒพงษ์")+COUNTIF($E$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K125">
+        <f>SUM(H125:J125)</f>
+        <v/>
+      </c>
+      <c r="M125" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N125">
+        <f>COUNTIF($E$97,"วัฒพงษ์")+COUNTIF($E$115,"วัฒพงษ์")+COUNTIF($E$118,"วัฒพงษ์")+COUNTIF($E$136,"วัฒพงษ์")+COUNTIF($E$139,"วัฒพงษ์")+COUNTIF($E$157,"วัฒพงษ์")+COUNTIF($E$160,"วัฒพงษ์")+COUNTIF($E$178,"วัฒพงษ์")+COUNTIF($E$181,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O125">
+        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($E$158,"วัฒพงษ์")+COUNTIF($E$161,"วัฒพงษ์")+COUNTIF($E$179,"วัฒพงษ์")+COUNTIF($E$182,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P125">
+        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($E$159,"วัฒพงษ์")+COUNTIF($E$162,"วัฒพงษ์")+COUNTIF($E$180,"วัฒพงษ์")+COUNTIF($E$183,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q125">
+        <f>SUM(N125:P125)</f>
+        <v/>
+      </c>
+      <c r="S125" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T125">
+        <f>SUM(H125,N125)</f>
+        <v/>
+      </c>
+      <c r="U125">
+        <f>SUM(I125,O125)</f>
+        <v/>
+      </c>
+      <c r="V125">
+        <f>SUM(J125,P125)</f>
+        <v/>
+      </c>
+      <c r="W125">
+        <f>SUM(K125,Q125)</f>
+        <v/>
       </c>
     </row>
     <row r="126">
@@ -5657,35 +6371,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C126" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D126" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E126" s="11" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="G126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="M126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="S126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126">
+        <f>COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$143,"ราเชน")+COUNTIF($E$146,"ราเชน")+COUNTIF($E$149,"ราเชน")+COUNTIF($E$152,"ราเชน")+COUNTIF($E$155,"ราเชน")+COUNTIF($E$164,"ราเชน")+COUNTIF($E$167,"ราเชน")+COUNTIF($E$170,"ราเชน")+COUNTIF($E$173,"ราเชน")+COUNTIF($E$176,"ราเชน")+COUNTIF($E$185,"ราเชน")+COUNTIF($E$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J126">
+        <f>COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$144,"ราเชน")+COUNTIF($E$147,"ราเชน")+COUNTIF($E$150,"ราเชน")+COUNTIF($E$153,"ราเชน")+COUNTIF($E$156,"ราเชน")+COUNTIF($E$165,"ราเชน")+COUNTIF($E$168,"ราเชน")+COUNTIF($E$171,"ราเชน")+COUNTIF($E$174,"ราเชน")+COUNTIF($E$177,"ราเชน")+COUNTIF($E$186,"ราเชน")+COUNTIF($E$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K126">
+        <f>SUM(H126:J126)</f>
+        <v/>
+      </c>
+      <c r="M126" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N126">
+        <f>COUNTIF($E$97,"ราเชน")+COUNTIF($E$115,"ราเชน")+COUNTIF($E$118,"ราเชน")+COUNTIF($E$136,"ราเชน")+COUNTIF($E$139,"ราเชน")+COUNTIF($E$157,"ราเชน")+COUNTIF($E$160,"ราเชน")+COUNTIF($E$178,"ราเชน")+COUNTIF($E$181,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O126">
+        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($E$158,"ราเชน")+COUNTIF($E$161,"ราเชน")+COUNTIF($E$179,"ราเชน")+COUNTIF($E$182,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P126">
+        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($E$159,"ราเชน")+COUNTIF($E$162,"ราเชน")+COUNTIF($E$180,"ราเชน")+COUNTIF($E$183,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q126">
+        <f>SUM(N126:P126)</f>
+        <v/>
+      </c>
+      <c r="S126" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T126">
+        <f>SUM(H126,N126)</f>
+        <v/>
+      </c>
+      <c r="U126">
+        <f>SUM(I126,O126)</f>
+        <v/>
+      </c>
+      <c r="V126">
+        <f>SUM(J126,P126)</f>
+        <v/>
+      </c>
+      <c r="W126">
+        <f>SUM(K126,Q126)</f>
+        <v/>
       </c>
     </row>
     <row r="127">
@@ -5699,20 +6458,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="M127" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="S127" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
+      <c r="G127" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127">
+        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$143,"นฤชิต")+COUNTIF($E$146,"นฤชิต")+COUNTIF($E$149,"นฤชิต")+COUNTIF($E$152,"นฤชิต")+COUNTIF($E$155,"นฤชิต")+COUNTIF($E$164,"นฤชิต")+COUNTIF($E$167,"นฤชิต")+COUNTIF($E$170,"นฤชิต")+COUNTIF($E$173,"นฤชิต")+COUNTIF($E$176,"นฤชิต")+COUNTIF($E$185,"นฤชิต")+COUNTIF($E$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J127">
+        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$144,"นฤชิต")+COUNTIF($E$147,"นฤชิต")+COUNTIF($E$150,"นฤชิต")+COUNTIF($E$153,"นฤชิต")+COUNTIF($E$156,"นฤชิต")+COUNTIF($E$165,"นฤชิต")+COUNTIF($E$168,"นฤชิต")+COUNTIF($E$171,"นฤชิต")+COUNTIF($E$174,"นฤชิต")+COUNTIF($E$177,"นฤชิต")+COUNTIF($E$186,"นฤชิต")+COUNTIF($E$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K127">
+        <f>SUM(H127:J127)</f>
+        <v/>
+      </c>
+      <c r="M127" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N127">
+        <f>COUNTIF($E$97,"นฤชิต")+COUNTIF($E$115,"นฤชิต")+COUNTIF($E$118,"นฤชิต")+COUNTIF($E$136,"นฤชิต")+COUNTIF($E$139,"นฤชิต")+COUNTIF($E$157,"นฤชิต")+COUNTIF($E$160,"นฤชิต")+COUNTIF($E$178,"นฤชิต")+COUNTIF($E$181,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($E$158,"นฤชิต")+COUNTIF($E$161,"นฤชิต")+COUNTIF($E$179,"นฤชิต")+COUNTIF($E$182,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($E$159,"นฤชิต")+COUNTIF($E$162,"นฤชิต")+COUNTIF($E$180,"นฤชิต")+COUNTIF($E$183,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q127">
+        <f>SUM(N127:P127)</f>
+        <v/>
+      </c>
+      <c r="S127" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T127">
+        <f>SUM(H127,N127)</f>
+        <v/>
+      </c>
+      <c r="U127">
+        <f>SUM(I127,O127)</f>
+        <v/>
+      </c>
+      <c r="V127">
+        <f>SUM(J127,P127)</f>
+        <v/>
+      </c>
+      <c r="W127">
+        <f>SUM(K127,Q127)</f>
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -5721,35 +6525,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D128" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E128" s="4" t="inlineStr">
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D128" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G128" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G128" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="M128" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="S128" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128">
+        <f>COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$143,"จีรวัฒน์")+COUNTIF($E$146,"จีรวัฒน์")+COUNTIF($E$149,"จีรวัฒน์")+COUNTIF($E$152,"จีรวัฒน์")+COUNTIF($E$155,"จีรวัฒน์")+COUNTIF($E$164,"จีรวัฒน์")+COUNTIF($E$167,"จีรวัฒน์")+COUNTIF($E$170,"จีรวัฒน์")+COUNTIF($E$173,"จีรวัฒน์")+COUNTIF($E$176,"จีรวัฒน์")+COUNTIF($E$185,"จีรวัฒน์")+COUNTIF($E$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J128">
+        <f>COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$144,"จีรวัฒน์")+COUNTIF($E$147,"จีรวัฒน์")+COUNTIF($E$150,"จีรวัฒน์")+COUNTIF($E$153,"จีรวัฒน์")+COUNTIF($E$156,"จีรวัฒน์")+COUNTIF($E$165,"จีรวัฒน์")+COUNTIF($E$168,"จีรวัฒน์")+COUNTIF($E$171,"จีรวัฒน์")+COUNTIF($E$174,"จีรวัฒน์")+COUNTIF($E$177,"จีรวัฒน์")+COUNTIF($E$186,"จีรวัฒน์")+COUNTIF($E$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K128">
+        <f>SUM(H128:J128)</f>
+        <v/>
+      </c>
+      <c r="M128" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N128">
+        <f>COUNTIF($E$97,"จีรวัฒน์")+COUNTIF($E$115,"จีรวัฒน์")+COUNTIF($E$118,"จีรวัฒน์")+COUNTIF($E$136,"จีรวัฒน์")+COUNTIF($E$139,"จีรวัฒน์")+COUNTIF($E$157,"จีรวัฒน์")+COUNTIF($E$160,"จีรวัฒน์")+COUNTIF($E$178,"จีรวัฒน์")+COUNTIF($E$181,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O128">
+        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($E$158,"จีรวัฒน์")+COUNTIF($E$161,"จีรวัฒน์")+COUNTIF($E$179,"จีรวัฒน์")+COUNTIF($E$182,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P128">
+        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($E$159,"จีรวัฒน์")+COUNTIF($E$162,"จีรวัฒน์")+COUNTIF($E$180,"จีรวัฒน์")+COUNTIF($E$183,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q128">
+        <f>SUM(N128:P128)</f>
+        <v/>
+      </c>
+      <c r="S128" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T128">
+        <f>SUM(H128,N128)</f>
+        <v/>
+      </c>
+      <c r="U128">
+        <f>SUM(I128,O128)</f>
+        <v/>
+      </c>
+      <c r="V128">
+        <f>SUM(J128,P128)</f>
+        <v/>
+      </c>
+      <c r="W128">
+        <f>SUM(K128,Q128)</f>
+        <v/>
       </c>
     </row>
     <row r="129">
@@ -5758,35 +6607,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C129" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D129" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C129" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D129" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="M129" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="S129" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G129" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129">
+        <f>COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$143,"สุเมธร์")+COUNTIF($E$146,"สุเมธร์")+COUNTIF($E$149,"สุเมธร์")+COUNTIF($E$152,"สุเมธร์")+COUNTIF($E$155,"สุเมธร์")+COUNTIF($E$164,"สุเมธร์")+COUNTIF($E$167,"สุเมธร์")+COUNTIF($E$170,"สุเมธร์")+COUNTIF($E$173,"สุเมธร์")+COUNTIF($E$176,"สุเมธร์")+COUNTIF($E$185,"สุเมธร์")+COUNTIF($E$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J129">
+        <f>COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$144,"สุเมธร์")+COUNTIF($E$147,"สุเมธร์")+COUNTIF($E$150,"สุเมธร์")+COUNTIF($E$153,"สุเมธร์")+COUNTIF($E$156,"สุเมธร์")+COUNTIF($E$165,"สุเมธร์")+COUNTIF($E$168,"สุเมธร์")+COUNTIF($E$171,"สุเมธร์")+COUNTIF($E$174,"สุเมธร์")+COUNTIF($E$177,"สุเมธร์")+COUNTIF($E$186,"สุเมธร์")+COUNTIF($E$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K129">
+        <f>SUM(H129:J129)</f>
+        <v/>
+      </c>
+      <c r="M129" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N129">
+        <f>COUNTIF($E$97,"สุเมธร์")+COUNTIF($E$115,"สุเมธร์")+COUNTIF($E$118,"สุเมธร์")+COUNTIF($E$136,"สุเมธร์")+COUNTIF($E$139,"สุเมธร์")+COUNTIF($E$157,"สุเมธร์")+COUNTIF($E$160,"สุเมธร์")+COUNTIF($E$178,"สุเมธร์")+COUNTIF($E$181,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O129">
+        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($E$158,"สุเมธร์")+COUNTIF($E$161,"สุเมธร์")+COUNTIF($E$179,"สุเมธร์")+COUNTIF($E$182,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P129">
+        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($E$159,"สุเมธร์")+COUNTIF($E$162,"สุเมธร์")+COUNTIF($E$180,"สุเมธร์")+COUNTIF($E$183,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q129">
+        <f>SUM(N129:P129)</f>
+        <v/>
+      </c>
+      <c r="S129" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T129">
+        <f>SUM(H129,N129)</f>
+        <v/>
+      </c>
+      <c r="U129">
+        <f>SUM(I129,O129)</f>
+        <v/>
+      </c>
+      <c r="V129">
+        <f>SUM(J129,P129)</f>
+        <v/>
+      </c>
+      <c r="W129">
+        <f>SUM(K129,Q129)</f>
+        <v/>
       </c>
     </row>
     <row r="130">
@@ -5800,20 +6694,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="M130" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="S130" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
+      <c r="G130" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130">
+        <f>COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$143,"นที")+COUNTIF($E$146,"นที")+COUNTIF($E$149,"นที")+COUNTIF($E$152,"นที")+COUNTIF($E$155,"นที")+COUNTIF($E$164,"นที")+COUNTIF($E$167,"นที")+COUNTIF($E$170,"นที")+COUNTIF($E$173,"นที")+COUNTIF($E$176,"นที")+COUNTIF($E$185,"นที")+COUNTIF($E$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="J130">
+        <f>COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$144,"นที")+COUNTIF($E$147,"นที")+COUNTIF($E$150,"นที")+COUNTIF($E$153,"นที")+COUNTIF($E$156,"นที")+COUNTIF($E$165,"นที")+COUNTIF($E$168,"นที")+COUNTIF($E$171,"นที")+COUNTIF($E$174,"นที")+COUNTIF($E$177,"นที")+COUNTIF($E$186,"นที")+COUNTIF($E$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="K130">
+        <f>SUM(H130:J130)</f>
+        <v/>
+      </c>
+      <c r="M130" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N130">
+        <f>COUNTIF($E$97,"นที")+COUNTIF($E$115,"นที")+COUNTIF($E$118,"นที")+COUNTIF($E$136,"นที")+COUNTIF($E$139,"นที")+COUNTIF($E$157,"นที")+COUNTIF($E$160,"นที")+COUNTIF($E$178,"นที")+COUNTIF($E$181,"นที")</f>
+        <v/>
+      </c>
+      <c r="O130">
+        <f>COUNTIF($E$98,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($E$158,"นที")+COUNTIF($E$161,"นที")+COUNTIF($E$179,"นที")+COUNTIF($E$182,"นที")</f>
+        <v/>
+      </c>
+      <c r="P130">
+        <f>COUNTIF($E$99,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($E$159,"นที")+COUNTIF($E$162,"นที")+COUNTIF($E$180,"นที")+COUNTIF($E$183,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q130">
+        <f>SUM(N130:P130)</f>
+        <v/>
+      </c>
+      <c r="S130" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T130">
+        <f>SUM(H130,N130)</f>
+        <v/>
+      </c>
+      <c r="U130">
+        <f>SUM(I130,O130)</f>
+        <v/>
+      </c>
+      <c r="V130">
+        <f>SUM(J130,P130)</f>
+        <v/>
+      </c>
+      <c r="W130">
+        <f>SUM(K130,Q130)</f>
+        <v/>
       </c>
     </row>
     <row r="131">
@@ -5822,34 +6761,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="11" t="inlineStr">
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D131" s="8" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="M131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="S131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -5859,34 +6783,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C132" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C132" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D132" s="8" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E132" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="M132" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="S132" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -5901,6 +6810,11 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>สรุป</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -5908,24 +6822,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C134" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
+      <c r="C134" s="9" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="D134" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E134" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>สรุป</t>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -5935,40 +6864,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C135" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D135" s="10" t="inlineStr">
+      <c r="C135" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D135" s="16" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E135" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>วันหยุดชดเชย</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>วันหยุด</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>วันทำการ</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="E135" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I135">
+        <f>SUM(Q100,Q117)</f>
+        <v/>
+      </c>
+      <c r="J135">
+        <f>SUM(K100,K117)</f>
+        <v/>
+      </c>
+      <c r="K135">
+        <f>SUM(J135,I135)</f>
+        <v/>
       </c>
     </row>
     <row r="136">
@@ -5982,25 +6908,37 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C136" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D136" s="7" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D136" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E136" s="11" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G136" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I136">
+        <f>SUM(Q101,Q118)</f>
+        <v/>
+      </c>
+      <c r="J136">
+        <f>SUM(K101,K118)</f>
+        <v/>
+      </c>
+      <c r="K136">
+        <f>SUM(J136,I136)</f>
+        <v/>
       </c>
     </row>
     <row r="137">
@@ -6009,25 +6947,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C137" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D137" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E137" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G137" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
+      <c r="C137" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E137" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I137">
+        <f>SUM(Q102,Q119)</f>
+        <v/>
+      </c>
+      <c r="J137">
+        <f>SUM(K102,K119)</f>
+        <v/>
+      </c>
+      <c r="K137">
+        <f>SUM(J137,I137)</f>
+        <v/>
       </c>
     </row>
     <row r="138">
@@ -6036,25 +6986,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C138" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D138" s="14" t="inlineStr">
+      <c r="C138" s="17" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="E138" s="6" t="inlineStr">
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E138" s="14" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="G138" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I138">
+        <f>SUM(Q103,Q120)</f>
+        <v/>
+      </c>
+      <c r="J138">
+        <f>SUM(K103,K120)</f>
+        <v/>
+      </c>
+      <c r="K138">
+        <f>SUM(J138,I138)</f>
+        <v/>
       </c>
     </row>
     <row r="139">
@@ -6068,25 +7030,37 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C139" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="D139" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E139" s="6" t="inlineStr">
+      <c r="C139" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D139" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="G139" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
+      <c r="I139">
+        <f>SUM(Q104,Q121)</f>
+        <v/>
+      </c>
+      <c r="J139">
+        <f>SUM(K104,K121)</f>
+        <v/>
+      </c>
+      <c r="K139">
+        <f>SUM(J139,I139)</f>
+        <v/>
       </c>
     </row>
     <row r="140">
@@ -6095,25 +7069,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D140" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="G140" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D140" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E140" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I140">
+        <f>SUM(Q105,Q122)</f>
+        <v/>
+      </c>
+      <c r="J140">
+        <f>SUM(K105,K122)</f>
+        <v/>
+      </c>
+      <c r="K140">
+        <f>SUM(J140,I140)</f>
+        <v/>
       </c>
     </row>
     <row r="141">
@@ -6122,25 +7108,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D141" s="16" t="inlineStr">
+      <c r="C141" s="4" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
+      <c r="D141" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
       <c r="E141" s="15" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G141" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I141">
+        <f>SUM(Q106,Q123)</f>
+        <v/>
+      </c>
+      <c r="J141">
+        <f>SUM(K106,K123)</f>
+        <v/>
+      </c>
+      <c r="K141">
+        <f>SUM(J141,I141)</f>
+        <v/>
       </c>
     </row>
     <row r="142">
@@ -6154,10 +7152,22 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G142" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I142">
+        <f>SUM(Q107,Q124)</f>
+        <v/>
+      </c>
+      <c r="J142">
+        <f>SUM(K107,K124)</f>
+        <v/>
+      </c>
+      <c r="K142">
+        <f>SUM(J142,I142)</f>
+        <v/>
       </c>
     </row>
     <row r="143">
@@ -6166,25 +7176,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C143" s="9" t="inlineStr">
+      <c r="C143" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D143" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E143" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G143" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I143">
+        <f>SUM(Q108,Q125)</f>
+        <v/>
+      </c>
+      <c r="J143">
+        <f>SUM(K108,K125)</f>
+        <v/>
+      </c>
+      <c r="K143">
+        <f>SUM(J143,I143)</f>
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -6193,25 +7215,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="C144" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D144" s="5" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E144" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G144" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="I144">
+        <f>SUM(Q109,Q126)</f>
+        <v/>
+      </c>
+      <c r="J144">
+        <f>SUM(K109,K126)</f>
+        <v/>
+      </c>
+      <c r="K144">
+        <f>SUM(J144,I144)</f>
+        <v/>
       </c>
     </row>
     <row r="145">
@@ -6225,10 +7259,22 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
+      <c r="G145" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="I145">
+        <f>SUM(Q110,Q127)</f>
+        <v/>
+      </c>
+      <c r="J145">
+        <f>SUM(K110,K127)</f>
+        <v/>
+      </c>
+      <c r="K145">
+        <f>SUM(J145,I145)</f>
+        <v/>
       </c>
     </row>
     <row r="146">
@@ -6237,25 +7283,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C146" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D146" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E146" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D146" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G146" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I146">
+        <f>SUM(Q111,Q128)</f>
+        <v/>
+      </c>
+      <c r="J146">
+        <f>SUM(K111,K128)</f>
+        <v/>
+      </c>
+      <c r="K146">
+        <f>SUM(J146,I146)</f>
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -6264,25 +7322,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C147" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D147" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E147" s="15" t="inlineStr">
+      <c r="C147" s="6" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G147" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
+      <c r="D147" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="I147">
+        <f>SUM(Q112,Q129)</f>
+        <v/>
+      </c>
+      <c r="J147">
+        <f>SUM(K112,K129)</f>
+        <v/>
+      </c>
+      <c r="K147">
+        <f>SUM(J147,I147)</f>
+        <v/>
       </c>
     </row>
     <row r="148">
@@ -6296,10 +7366,22 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
+      <c r="G148" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="I148">
+        <f>SUM(Q113,Q130)</f>
+        <v/>
+      </c>
+      <c r="J148">
+        <f>SUM(K113,K130)</f>
+        <v/>
+      </c>
+      <c r="K148">
+        <f>SUM(J148,I148)</f>
+        <v/>
       </c>
     </row>
     <row r="149">
@@ -6308,24 +7390,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C149" s="6" t="inlineStr">
+      <c r="C149" s="14" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D149" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E149" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="D149" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E149" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -6335,19 +7412,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D150" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E150" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C150" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D150" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E150" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -6369,19 +7446,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C152" s="13" t="inlineStr">
+      <c r="C152" s="7" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D152" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E152" s="5" t="inlineStr">
+      <c r="D152" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E152" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -6391,19 +7468,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C153" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C153" s="7" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D153" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E153" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -6425,19 +7502,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C155" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D155" s="7" t="inlineStr">
+      <c r="C155" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D155" s="11" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E155" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6447,19 +7524,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C156" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D156" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E156" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C156" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D156" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E156" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6474,17 +7551,17 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr">
+      <c r="C157" s="14" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D157" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E157" s="13" t="inlineStr">
+      <c r="D157" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -6496,19 +7573,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C158" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D158" s="9" t="inlineStr">
+      <c r="C158" s="9" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="E158" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="D158" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -6518,19 +7595,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C159" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D159" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E159" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D159" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E159" s="5" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -6545,19 +7622,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C160" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D160" s="11" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E160" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E160" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6567,17 +7644,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C161" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D161" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E161" s="4" t="inlineStr">
+      <c r="C161" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D161" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E161" s="13" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -6589,19 +7666,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C162" s="12" t="inlineStr">
+      <c r="C162" s="10" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="D162" s="15" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E162" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E162" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -6623,19 +7700,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C164" s="15" t="inlineStr">
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D164" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E164" s="6" t="inlineStr">
         <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D164" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E164" s="8" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -6645,19 +7722,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C165" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E165" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D165" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -6679,19 +7756,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C167" s="14" t="inlineStr">
+      <c r="C167" s="17" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E167" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="D167" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E167" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -6701,19 +7778,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C168" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D168" s="4" t="inlineStr">
+      <c r="C168" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D168" s="13" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E168" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E168" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -6735,19 +7812,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C170" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D170" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E170" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C170" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D170" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E170" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -6757,19 +7834,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C171" s="16" t="inlineStr">
+      <c r="C171" s="4" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D171" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="D171" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E171" s="10" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -6791,19 +7868,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C173" s="15" t="inlineStr">
+      <c r="C173" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D173" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E173" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E173" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -6813,19 +7890,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C174" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D174" s="5" t="inlineStr">
+      <c r="C174" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E174" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E174" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -6847,19 +7924,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D176" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E176" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D176" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E176" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -6869,19 +7946,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C177" s="6" t="inlineStr">
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D177" s="14" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D177" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E177" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E177" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -6896,19 +7973,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C178" s="13" t="inlineStr">
+      <c r="C178" s="7" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D178" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E178" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="D178" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -6918,19 +7995,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C179" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E179" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D179" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E179" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -6940,19 +8017,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C180" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C180" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D180" s="16" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E180" s="10" t="inlineStr">
-        <is>
           <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -6967,19 +8044,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C181" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="D181" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E181" s="14" t="inlineStr">
+      <c r="C181" s="17" t="inlineStr">
         <is>
           <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D181" s="13" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E181" s="4" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -6989,19 +8066,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C182" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D182" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E182" s="9" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C182" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D182" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E182" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -7011,19 +8088,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C183" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E183" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C183" s="14" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D183" s="11" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E183" s="10" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -7045,19 +8122,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C185" s="6" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E185" s="11" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C185" s="17" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D185" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E185" s="6" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -7067,19 +8144,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C186" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D186" s="5" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E186" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E186" s="8" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -7101,19 +8178,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C188" s="14" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C188" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D188" s="11" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E188" s="7" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -7123,19 +8200,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C189" s="13" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D189" s="6" t="inlineStr">
+      <c r="C189" s="14" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="E189" s="12" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="D189" s="12" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E189" s="16" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -47,8 +47,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC000"/>
-        <bgColor rgb="00FFC000"/>
+        <fgColor rgb="00CC26A7"/>
+        <bgColor rgb="00CC26A7"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,14 +59,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D99594"/>
-        <bgColor rgb="00D99594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="0000B050"/>
+        <bgColor rgb="0000B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,50 +71,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000B050"/>
-        <bgColor rgb="0000B050"/>
+        <fgColor rgb="00FF7C80"/>
+        <bgColor rgb="00FF7C80"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007030A0"/>
-        <bgColor rgb="007030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2D69B"/>
-        <bgColor rgb="00C2D69B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00938953"/>
-        <bgColor rgb="00938953"/>
+        <fgColor rgb="00D99594"/>
+        <bgColor rgb="00D99594"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
         <bgColor rgb="00C00000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC26A7"/>
-        <bgColor rgb="00CC26A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7C80"/>
-        <bgColor rgb="00FF7C80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -133,6 +97,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="00548DD4"/>
         <bgColor rgb="00548DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007030A0"/>
+        <bgColor rgb="007030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00938953"/>
+        <bgColor rgb="00938953"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2D69B"/>
+        <bgColor rgb="00C2D69B"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,15 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -561,17 +561,17 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F1" s="4" t="inlineStr">
@@ -602,39 +602,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -707,37 +707,37 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
@@ -780,22 +780,42 @@
         </is>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -812,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -832,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
@@ -846,24 +866,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>5</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -873,7 +894,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -888,12 +909,12 @@
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -905,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -919,16 +940,16 @@
         </is>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="inlineStr">
         <is>
@@ -936,7 +957,7 @@
         </is>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>5</v>
@@ -945,18 +966,19 @@
         <v>4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -966,7 +988,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -979,14 +1001,14 @@
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1012,7 +1034,7 @@
         </is>
       </c>
       <c r="S6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>1</v>
@@ -1021,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1051,7 @@
         </is>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="4" t="n">
         <v>4</v>
@@ -1038,13 +1060,33 @@
         <v>4</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1105,19 +1147,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1132,17 +1175,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1168,16 +1211,16 @@
         </is>
       </c>
       <c r="S8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
@@ -1185,57 +1228,58 @@
         </is>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1250,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1261,16 +1305,16 @@
         </is>
       </c>
       <c r="S9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
@@ -1278,7 +1322,7 @@
         </is>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="4" t="n">
         <v>4</v>
@@ -1287,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1313,41 +1357,41 @@
         <v>3</v>
       </c>
       <c r="O10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="X10" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="Y10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Z10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="4" t="n">
         <v>4</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>5</v>
       </c>
       <c r="AB10" s="4" t="n">
         <v>10</v>
@@ -1359,21 +1403,21 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
@@ -1381,17 +1425,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -1403,47 +1447,47 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="X11" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AB11" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1452,21 +1496,21 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
@@ -1474,17 +1518,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -1510,13 +1554,13 @@
         </is>
       </c>
       <c r="S12" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="4" t="n">
         <v>2</v>
       </c>
       <c r="U12" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="4" t="n">
         <v>5</v>
@@ -1527,13 +1571,13 @@
         </is>
       </c>
       <c r="Y12" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="4" t="n">
         <v>5</v>
       </c>
       <c r="AA12" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="4" t="n">
         <v>11</v>
@@ -1562,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
@@ -1573,16 +1617,16 @@
         </is>
       </c>
       <c r="S13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X13" s="3" t="inlineStr">
         <is>
@@ -1590,10 +1634,10 @@
         </is>
       </c>
       <c r="Y13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="4" t="n">
         <v>4</v>
@@ -1610,7 +1654,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1618,9 +1662,9 @@
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
@@ -1630,17 +1674,17 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
@@ -1666,13 +1710,13 @@
         </is>
       </c>
       <c r="S14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="4" t="n">
         <v>2</v>
       </c>
       <c r="U14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="4" t="n">
         <v>5</v>
@@ -1683,13 +1727,13 @@
         </is>
       </c>
       <c r="Y14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="4" t="n">
         <v>5</v>
       </c>
       <c r="AA14" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="4" t="n">
         <v>11</v>
@@ -1701,19 +1745,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
@@ -1723,17 +1767,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1759,13 +1803,13 @@
         </is>
       </c>
       <c r="S15" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" s="4" t="n">
         <v>2</v>
       </c>
       <c r="U15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" s="4" t="n">
         <v>5</v>
@@ -1776,13 +1820,13 @@
         </is>
       </c>
       <c r="Y15" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="4" t="n">
         <v>5</v>
       </c>
       <c r="AA15" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="4" t="n">
         <v>11</v>
@@ -1806,17 +1850,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1842,13 +1886,13 @@
         </is>
       </c>
       <c r="S16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="4" t="n">
         <v>4</v>
@@ -1859,13 +1903,13 @@
         </is>
       </c>
       <c r="Y16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AA16" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="4" t="n">
         <v>10</v>
@@ -1879,17 +1923,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F17" s="5" t="n"/>
@@ -1900,17 +1944,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
@@ -1922,17 +1966,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F18" s="5" t="n"/>
@@ -1943,17 +1987,17 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr">
@@ -1985,42 +2029,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>22*</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>22*</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -2091,19 +2135,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F20" s="5" t="n"/>
@@ -2114,17 +2158,17 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2136,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -2150,11 +2194,11 @@
         </is>
       </c>
       <c r="S20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="T20" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="U20" s="4" t="n">
         <v>1</v>
       </c>
@@ -2167,16 +2211,16 @@
         </is>
       </c>
       <c r="Y20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AB20" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2188,17 +2232,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
           <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F21" s="5" t="n"/>
@@ -2209,17 +2253,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2234,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -2268,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="AA21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2290,14 +2334,14 @@
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>นที</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -2317,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -2331,27 +2375,27 @@
         <v>1</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="V22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="X22" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="Y22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="AB22" s="4" t="n">
         <v>5</v>
@@ -2366,17 +2410,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -2386,17 +2430,17 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2408,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
@@ -2425,13 +2469,13 @@
         <v>1</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="V23" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X23" s="2" t="inlineStr">
         <is>
@@ -2460,17 +2504,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -2480,12 +2524,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -2502,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2516,16 +2560,16 @@
         </is>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V24" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
@@ -2533,13 +2577,13 @@
         </is>
       </c>
       <c r="Y24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AA24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="4" t="n">
         <v>4</v>
@@ -2565,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2599,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="Z25" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AB25" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2616,17 +2660,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -2636,17 +2680,17 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2658,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2672,7 +2716,7 @@
         </is>
       </c>
       <c r="S26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="4" t="n">
         <v>1</v>
@@ -2681,18 +2725,18 @@
         <v>1</v>
       </c>
       <c r="V26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="X26" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="Y26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="4" t="n">
-        <v>2</v>
       </c>
       <c r="AA26" s="4" t="n">
         <v>2</v>
@@ -2709,17 +2753,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -2729,17 +2773,17 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -2814,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>3</v>
@@ -2828,7 +2872,7 @@
         </is>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="4" t="n">
         <v>1</v>
@@ -2837,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28" s="3" t="inlineStr">
         <is>
@@ -2845,16 +2889,16 @@
         </is>
       </c>
       <c r="Y28" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA28" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2863,19 +2907,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -2885,17 +2929,17 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
@@ -2910,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" s="3" t="inlineStr">
         <is>
@@ -2921,27 +2965,27 @@
         </is>
       </c>
       <c r="S29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="Y29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="U29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="Y29" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="Z29" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="4" t="n">
         <v>2</v>
@@ -2956,39 +3000,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
@@ -3014,14 +3058,14 @@
         </is>
       </c>
       <c r="S30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="T30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="V30" s="4" t="n">
         <v>2</v>
       </c>
@@ -3031,13 +3075,13 @@
         </is>
       </c>
       <c r="Y30" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AA30" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="4" t="n">
         <v>6</v>
@@ -3063,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>3</v>
@@ -3083,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
@@ -3097,13 +3141,13 @@
         <v>1</v>
       </c>
       <c r="Z31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AB31" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -3112,39 +3156,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
@@ -3170,33 +3214,33 @@
         </is>
       </c>
       <c r="S32" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="Y32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="U32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="Y32" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="Z32" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA32" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -3205,39 +3249,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
@@ -3249,41 +3293,41 @@
         <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="R33" s="3" t="inlineStr">
+      <c r="X33" s="3" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X33" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
       <c r="Y33" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="4" t="n">
         <v>2</v>
@@ -3310,39 +3354,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3352,39 +3396,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G36" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="O36" s="4" t="inlineStr">
@@ -3409,9 +3453,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr">
@@ -3421,7 +3465,7 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
@@ -3453,17 +3497,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F38" s="5" t="n"/>
@@ -3474,17 +3518,17 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -3496,13 +3540,13 @@
         <v>2</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3516,14 +3560,14 @@
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F39" s="5" t="n"/>
@@ -3534,35 +3578,35 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
       <c r="M39" s="4" t="n">
         <v>2</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3576,62 +3620,62 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>29*</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>29*</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="M40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3643,17 +3687,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F41" s="5" t="n"/>
@@ -3664,17 +3708,17 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
@@ -3683,16 +3727,16 @@
         </is>
       </c>
       <c r="M41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3704,17 +3748,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F42" s="5" t="n"/>
@@ -3730,12 +3774,12 @@
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -3744,13 +3788,13 @@
         </is>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>15</v>
@@ -3769,17 +3813,17 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -3793,16 +3837,16 @@
         </is>
       </c>
       <c r="M43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3817,52 +3861,52 @@
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
       <c r="M44" s="4" t="n">
         <v>2</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3872,54 +3916,54 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="M45" s="4" t="n">
         <v>2</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>15</v>
@@ -3937,13 +3981,13 @@
         </is>
       </c>
       <c r="M46" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>15</v>
@@ -3957,17 +4001,17 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L47" s="3" t="inlineStr">
@@ -3979,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>16</v>
@@ -3996,19 +4040,19 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
       <c r="L48" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
@@ -4018,10 +4062,10 @@
         <v>2</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>16</v>
@@ -4034,16 +4078,16 @@
         </is>
       </c>
       <c r="M49" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O49" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4056,13 +4100,13 @@
         <v>2</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" s="4" t="n">
         <v>9</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4075,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>15</v>
@@ -4142,17 +4186,17 @@
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D97" s="7" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E97" s="8" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
@@ -4168,19 +4212,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D98" s="10" t="inlineStr">
+      <c r="C98" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E98" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E98" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G98" s="4" t="inlineStr">
@@ -4188,19 +4232,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H98" s="6" t="inlineStr">
+      <c r="H98" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="I98" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J98" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="I98" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J98" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="O98" s="4" t="inlineStr">
@@ -4226,489 +4270,532 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C99" s="9" t="inlineStr">
+      <c r="C99" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D99" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E99" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H99" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J99" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="N99" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="O99" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="P99" s="4" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="S99" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="T99" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="U99" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="V99" s="4" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="Y99" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="Z99" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="AA99" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="AB99" s="4" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C100" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D100" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E100" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L100" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="M100" s="11" t="inlineStr"/>
+      <c r="N100" s="11">
+        <f>COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100" s="11">
+        <f>COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100" s="11">
+        <f>SUM(M100:O100)</f>
+        <v/>
+      </c>
+      <c r="R100" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="S100" s="11">
+        <f>COUNTIF($C$97:$D$97,"ภูวเนตร")+COUNTIF($C$100:$D$100,"ภูวเนตร")+COUNTIF($C$103:$D$103,"ภูวเนตร")+COUNTIF($C$115:$D$115,"ภูวเนตร")+COUNTIF($C$118:$D$118,"ภูวเนตร")+COUNTIF($C$136:$D$136,"ภูวเนตร")+COUNTIF($C$139:$D$139,"ภูวเนตร")+COUNTIF($H$112:$I$112,"ภูวเนตร")+COUNTIF($H$115:$I$115,"ภูวเนตร")+COUNTIF($H$133:$I$133,"ภูวเนตร")+COUNTIF($H$136:$I$136,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="T100" s="11">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="U100" s="11">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="V100" s="11">
+        <f>SUM(S100:U100)</f>
+        <v/>
+      </c>
+      <c r="X100" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="Y100" s="11">
+        <f>SUM(M100,S100)</f>
+        <v/>
+      </c>
+      <c r="Z100" s="11">
+        <f>SUM(N100,T100)</f>
+        <v/>
+      </c>
+      <c r="AA100" s="11">
+        <f>SUM(O100,U100)</f>
+        <v/>
+      </c>
+      <c r="AB100" s="11">
+        <f>SUM(P100,V100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C101" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D101" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E101" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H101" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I101" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J101" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="L101" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="M101" s="12" t="inlineStr"/>
+      <c r="N101" s="12">
+        <f>COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($H$98:$I$98,"ราเชนทร์")+COUNTIF($H$101:$I$101,"ราเชนทร์")+COUNTIF($H$104:$I$104,"ราเชนทร์")+COUNTIF($H$107:$I$107,"ราเชนทร์")+COUNTIF($H$110:$I$110,"ราเชนทร์")+COUNTIF($H$119:$I$119,"ราเชนทร์")+COUNTIF($H$122:$I$122,"ราเชนทร์")+COUNTIF($H$125:$I$125,"ราเชนทร์")+COUNTIF($H$128:$I$128,"ราเชนทร์")+COUNTIF($H$131:$I$131,"ราเชนทร์")+COUNTIF($H$140:$I$140,"ราเชนทร์")+COUNTIF($H$143:$I$143,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O101" s="12">
+        <f>COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($H$99:$I$99,"ราเชนทร์")+COUNTIF($H$102:$I$102,"ราเชนทร์")+COUNTIF($H$105:$I$105,"ราเชนทร์")+COUNTIF($H$108:$I$108,"ราเชนทร์")+COUNTIF($H$111:$I$111,"ราเชนทร์")+COUNTIF($H$120:$I$120,"ราเชนทร์")+COUNTIF($H$123:$I$123,"ราเชนทร์")+COUNTIF($H$126:$I$126,"ราเชนทร์")+COUNTIF($H$129:$I$129,"ราเชนทร์")+COUNTIF($H$132:$I$132,"ราเชนทร์")+COUNTIF($H$141:$I$141,"ราเชนทร์")+COUNTIF($H$144:$I$144,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P101" s="12">
+        <f>SUM(M101:O101)</f>
+        <v/>
+      </c>
+      <c r="R101" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="S101" s="12">
+        <f>COUNTIF($C$97:$D$97,"ราเชนทร์")+COUNTIF($C$100:$D$100,"ราเชนทร์")+COUNTIF($C$103:$D$103,"ราเชนทร์")+COUNTIF($C$115:$D$115,"ราเชนทร์")+COUNTIF($C$118:$D$118,"ราเชนทร์")+COUNTIF($C$136:$D$136,"ราเชนทร์")+COUNTIF($C$139:$D$139,"ราเชนทร์")+COUNTIF($H$112:$I$112,"ราเชนทร์")+COUNTIF($H$115:$I$115,"ราเชนทร์")+COUNTIF($H$133:$I$133,"ราเชนทร์")+COUNTIF($H$136:$I$136,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="T101" s="12">
+        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($H$113:$I$113,"ราเชนทร์")+COUNTIF($H$116:$I$116,"ราเชนทร์")+COUNTIF($H$134:$I$134,"ราเชนทร์")+COUNTIF($H$137:$I$137,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="U101" s="12">
+        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($H$114:$I$114,"ราเชนทร์")+COUNTIF($H$117:$I$117,"ราเชนทร์")+COUNTIF($H$135:$I$135,"ราเชนทร์")+COUNTIF($H$138:$I$138,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="V101" s="12">
+        <f>SUM(S101:U101)</f>
+        <v/>
+      </c>
+      <c r="X101" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="Y101" s="12">
+        <f>SUM(M101,S101)</f>
+        <v/>
+      </c>
+      <c r="Z101" s="12">
+        <f>SUM(N101,T101)</f>
+        <v/>
+      </c>
+      <c r="AA101" s="12">
+        <f>SUM(O101,U101)</f>
+        <v/>
+      </c>
+      <c r="AB101" s="12">
+        <f>SUM(P101,V101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="C102" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D102" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E102" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H102" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I102" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="J102" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="L102" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="M102" s="15" t="inlineStr"/>
+      <c r="N102" s="15">
+        <f>COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102" s="15">
+        <f>COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102" s="15">
+        <f>SUM(M102:O102)</f>
+        <v/>
+      </c>
+      <c r="R102" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="S102" s="15">
+        <f>COUNTIF($C$97:$D$97,"พลกฤต")+COUNTIF($C$100:$D$100,"พลกฤต")+COUNTIF($C$103:$D$103,"พลกฤต")+COUNTIF($C$115:$D$115,"พลกฤต")+COUNTIF($C$118:$D$118,"พลกฤต")+COUNTIF($C$136:$D$136,"พลกฤต")+COUNTIF($C$139:$D$139,"พลกฤต")+COUNTIF($H$112:$I$112,"พลกฤต")+COUNTIF($H$115:$I$115,"พลกฤต")+COUNTIF($H$133:$I$133,"พลกฤต")+COUNTIF($H$136:$I$136,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="T102" s="15">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="U102" s="15">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="V102" s="15">
+        <f>SUM(S102:U102)</f>
+        <v/>
+      </c>
+      <c r="X102" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="Y102" s="15">
+        <f>SUM(M102,S102)</f>
+        <v/>
+      </c>
+      <c r="Z102" s="15">
+        <f>SUM(N102,T102)</f>
+        <v/>
+      </c>
+      <c r="AA102" s="15">
+        <f>SUM(O102,U102)</f>
+        <v/>
+      </c>
+      <c r="AB102" s="15">
+        <f>SUM(P102,V102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D103" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E103" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L103" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="M103" s="6" t="inlineStr"/>
+      <c r="N103" s="6">
+        <f>COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($H$98:$I$98,"ชานนท์")+COUNTIF($H$101:$I$101,"ชานนท์")+COUNTIF($H$104:$I$104,"ชานนท์")+COUNTIF($H$107:$I$107,"ชานนท์")+COUNTIF($H$110:$I$110,"ชานนท์")+COUNTIF($H$119:$I$119,"ชานนท์")+COUNTIF($H$122:$I$122,"ชานนท์")+COUNTIF($H$125:$I$125,"ชานนท์")+COUNTIF($H$128:$I$128,"ชานนท์")+COUNTIF($H$131:$I$131,"ชานนท์")+COUNTIF($H$140:$I$140,"ชานนท์")+COUNTIF($H$143:$I$143,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O103" s="6">
+        <f>COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($H$99:$I$99,"ชานนท์")+COUNTIF($H$102:$I$102,"ชานนท์")+COUNTIF($H$105:$I$105,"ชานนท์")+COUNTIF($H$108:$I$108,"ชานนท์")+COUNTIF($H$111:$I$111,"ชานนท์")+COUNTIF($H$120:$I$120,"ชานนท์")+COUNTIF($H$123:$I$123,"ชานนท์")+COUNTIF($H$126:$I$126,"ชานนท์")+COUNTIF($H$129:$I$129,"ชานนท์")+COUNTIF($H$132:$I$132,"ชานนท์")+COUNTIF($H$141:$I$141,"ชานนท์")+COUNTIF($H$144:$I$144,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P103" s="6">
+        <f>SUM(M103:O103)</f>
+        <v/>
+      </c>
+      <c r="R103" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="S103" s="6">
+        <f>COUNTIF($C$97:$D$97,"ชานนท์")+COUNTIF($C$100:$D$100,"ชานนท์")+COUNTIF($C$103:$D$103,"ชานนท์")+COUNTIF($C$115:$D$115,"ชานนท์")+COUNTIF($C$118:$D$118,"ชานนท์")+COUNTIF($C$136:$D$136,"ชานนท์")+COUNTIF($C$139:$D$139,"ชานนท์")+COUNTIF($H$112:$I$112,"ชานนท์")+COUNTIF($H$115:$I$115,"ชานนท์")+COUNTIF($H$133:$I$133,"ชานนท์")+COUNTIF($H$136:$I$136,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="T103" s="6">
+        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($H$113:$I$113,"ชานนท์")+COUNTIF($H$116:$I$116,"ชานนท์")+COUNTIF($H$134:$I$134,"ชานนท์")+COUNTIF($H$137:$I$137,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="U103" s="6">
+        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($H$114:$I$114,"ชานนท์")+COUNTIF($H$117:$I$117,"ชานนท์")+COUNTIF($H$135:$I$135,"ชานนท์")+COUNTIF($H$138:$I$138,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="V103" s="6">
+        <f>SUM(S103:U103)</f>
+        <v/>
+      </c>
+      <c r="X103" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="Y103" s="6">
+        <f>SUM(M103,S103)</f>
+        <v/>
+      </c>
+      <c r="Z103" s="6">
+        <f>SUM(N103,T103)</f>
+        <v/>
+      </c>
+      <c r="AA103" s="6">
+        <f>SUM(O103,U103)</f>
+        <v/>
+      </c>
+      <c r="AB103" s="6">
+        <f>SUM(P103,V103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C104" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D99" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E99" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G99" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H99" s="6" t="inlineStr">
+      <c r="D104" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E104" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H104" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I104" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="I99" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J99" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="M99" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="N99" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="O99" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="P99" s="4" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="S99" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="T99" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="U99" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="V99" s="4" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="Y99" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="Z99" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="AA99" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="AB99" s="4" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="M100" s="6" t="inlineStr"/>
-      <c r="N100" s="6">
-        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="O100" s="6">
-        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="P100" s="6">
-        <f>SUM(M100:O100)</f>
-        <v/>
-      </c>
-      <c r="R100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="S100" s="6">
-        <f>COUNTIF($C$97:$D$97,"ภูวเนตร")+COUNTIF($C$115:$D$115,"ภูวเนตร")+COUNTIF($C$118:$D$118,"ภูวเนตร")+COUNTIF($C$136:$D$136,"ภูวเนตร")+COUNTIF($C$139:$D$139,"ภูวเนตร")+COUNTIF($H$112:$I$112,"ภูวเนตร")+COUNTIF($H$115:$I$115,"ภูวเนตร")+COUNTIF($H$133:$I$133,"ภูวเนตร")+COUNTIF($H$136:$I$136,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="T100" s="6">
-        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="U100" s="6">
-        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="V100" s="6">
-        <f>SUM(S100:U100)</f>
-        <v/>
-      </c>
-      <c r="X100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="Y100" s="6">
-        <f>SUM(M100,S100)</f>
-        <v/>
-      </c>
-      <c r="Z100" s="6">
-        <f>SUM(N100,T100)</f>
-        <v/>
-      </c>
-      <c r="AA100" s="6">
-        <f>SUM(O100,U100)</f>
-        <v/>
-      </c>
-      <c r="AB100" s="6">
-        <f>SUM(P100,V100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="C101" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D101" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E101" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G101" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H101" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I101" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J101" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L101" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="M101" s="14" t="inlineStr"/>
-      <c r="N101" s="14">
-        <f>COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($H$98:$I$98,"ราเชนทร์")+COUNTIF($H$101:$I$101,"ราเชนทร์")+COUNTIF($H$104:$I$104,"ราเชนทร์")+COUNTIF($H$107:$I$107,"ราเชนทร์")+COUNTIF($H$110:$I$110,"ราเชนทร์")+COUNTIF($H$119:$I$119,"ราเชนทร์")+COUNTIF($H$122:$I$122,"ราเชนทร์")+COUNTIF($H$125:$I$125,"ราเชนทร์")+COUNTIF($H$128:$I$128,"ราเชนทร์")+COUNTIF($H$131:$I$131,"ราเชนทร์")+COUNTIF($H$140:$I$140,"ราเชนทร์")+COUNTIF($H$143:$I$143,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="O101" s="14">
-        <f>COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($H$99:$I$99,"ราเชนทร์")+COUNTIF($H$102:$I$102,"ราเชนทร์")+COUNTIF($H$105:$I$105,"ราเชนทร์")+COUNTIF($H$108:$I$108,"ราเชนทร์")+COUNTIF($H$111:$I$111,"ราเชนทร์")+COUNTIF($H$120:$I$120,"ราเชนทร์")+COUNTIF($H$123:$I$123,"ราเชนทร์")+COUNTIF($H$126:$I$126,"ราเชนทร์")+COUNTIF($H$129:$I$129,"ราเชนทร์")+COUNTIF($H$132:$I$132,"ราเชนทร์")+COUNTIF($H$141:$I$141,"ราเชนทร์")+COUNTIF($H$144:$I$144,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="P101" s="14">
-        <f>SUM(M101:O101)</f>
-        <v/>
-      </c>
-      <c r="R101" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="S101" s="14">
-        <f>COUNTIF($C$97:$D$97,"ราเชนทร์")+COUNTIF($C$115:$D$115,"ราเชนทร์")+COUNTIF($C$118:$D$118,"ราเชนทร์")+COUNTIF($C$136:$D$136,"ราเชนทร์")+COUNTIF($C$139:$D$139,"ราเชนทร์")+COUNTIF($H$112:$I$112,"ราเชนทร์")+COUNTIF($H$115:$I$115,"ราเชนทร์")+COUNTIF($H$133:$I$133,"ราเชนทร์")+COUNTIF($H$136:$I$136,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="T101" s="14">
-        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($H$113:$I$113,"ราเชนทร์")+COUNTIF($H$116:$I$116,"ราเชนทร์")+COUNTIF($H$134:$I$134,"ราเชนทร์")+COUNTIF($H$137:$I$137,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="U101" s="14">
-        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($H$114:$I$114,"ราเชนทร์")+COUNTIF($H$117:$I$117,"ราเชนทร์")+COUNTIF($H$135:$I$135,"ราเชนทร์")+COUNTIF($H$138:$I$138,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="V101" s="14">
-        <f>SUM(S101:U101)</f>
-        <v/>
-      </c>
-      <c r="X101" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="Y101" s="14">
-        <f>SUM(M101,S101)</f>
-        <v/>
-      </c>
-      <c r="Z101" s="14">
-        <f>SUM(N101,T101)</f>
-        <v/>
-      </c>
-      <c r="AA101" s="14">
-        <f>SUM(O101,U101)</f>
-        <v/>
-      </c>
-      <c r="AB101" s="14">
-        <f>SUM(P101,V101)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="C102" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D102" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E102" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G102" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H102" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I102" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J102" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L102" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="M102" s="13" t="inlineStr"/>
-      <c r="N102" s="13">
-        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="O102" s="13">
-        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="P102" s="13">
-        <f>SUM(M102:O102)</f>
-        <v/>
-      </c>
-      <c r="R102" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="S102" s="13">
-        <f>COUNTIF($C$97:$D$97,"พลกฤต")+COUNTIF($C$115:$D$115,"พลกฤต")+COUNTIF($C$118:$D$118,"พลกฤต")+COUNTIF($C$136:$D$136,"พลกฤต")+COUNTIF($C$139:$D$139,"พลกฤต")+COUNTIF($H$112:$I$112,"พลกฤต")+COUNTIF($H$115:$I$115,"พลกฤต")+COUNTIF($H$133:$I$133,"พลกฤต")+COUNTIF($H$136:$I$136,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="T102" s="13">
-        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="U102" s="13">
-        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="V102" s="13">
-        <f>SUM(S102:U102)</f>
-        <v/>
-      </c>
-      <c r="X102" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="Y102" s="13">
-        <f>SUM(M102,S102)</f>
-        <v/>
-      </c>
-      <c r="Z102" s="13">
-        <f>SUM(N102,T102)</f>
-        <v/>
-      </c>
-      <c r="AA102" s="13">
-        <f>SUM(O102,U102)</f>
-        <v/>
-      </c>
-      <c r="AB102" s="13">
-        <f>SUM(P102,V102)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L103" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="M103" s="17" t="inlineStr"/>
-      <c r="N103" s="17">
-        <f>COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($H$98:$I$98,"ชานนท์")+COUNTIF($H$101:$I$101,"ชานนท์")+COUNTIF($H$104:$I$104,"ชานนท์")+COUNTIF($H$107:$I$107,"ชานนท์")+COUNTIF($H$110:$I$110,"ชานนท์")+COUNTIF($H$119:$I$119,"ชานนท์")+COUNTIF($H$122:$I$122,"ชานนท์")+COUNTIF($H$125:$I$125,"ชานนท์")+COUNTIF($H$128:$I$128,"ชานนท์")+COUNTIF($H$131:$I$131,"ชานนท์")+COUNTIF($H$140:$I$140,"ชานนท์")+COUNTIF($H$143:$I$143,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="O103" s="17">
-        <f>COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($H$99:$I$99,"ชานนท์")+COUNTIF($H$102:$I$102,"ชานนท์")+COUNTIF($H$105:$I$105,"ชานนท์")+COUNTIF($H$108:$I$108,"ชานนท์")+COUNTIF($H$111:$I$111,"ชานนท์")+COUNTIF($H$120:$I$120,"ชานนท์")+COUNTIF($H$123:$I$123,"ชานนท์")+COUNTIF($H$126:$I$126,"ชานนท์")+COUNTIF($H$129:$I$129,"ชานนท์")+COUNTIF($H$132:$I$132,"ชานนท์")+COUNTIF($H$141:$I$141,"ชานนท์")+COUNTIF($H$144:$I$144,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="P103" s="17">
-        <f>SUM(M103:O103)</f>
-        <v/>
-      </c>
-      <c r="R103" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="S103" s="17">
-        <f>COUNTIF($C$97:$D$97,"ชานนท์")+COUNTIF($C$115:$D$115,"ชานนท์")+COUNTIF($C$118:$D$118,"ชานนท์")+COUNTIF($C$136:$D$136,"ชานนท์")+COUNTIF($C$139:$D$139,"ชานนท์")+COUNTIF($H$112:$I$112,"ชานนท์")+COUNTIF($H$115:$I$115,"ชานนท์")+COUNTIF($H$133:$I$133,"ชานนท์")+COUNTIF($H$136:$I$136,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="T103" s="17">
-        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($H$113:$I$113,"ชานนท์")+COUNTIF($H$116:$I$116,"ชานนท์")+COUNTIF($H$134:$I$134,"ชานนท์")+COUNTIF($H$137:$I$137,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="U103" s="17">
-        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($H$114:$I$114,"ชานนท์")+COUNTIF($H$117:$I$117,"ชานนท์")+COUNTIF($H$135:$I$135,"ชานนท์")+COUNTIF($H$138:$I$138,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="V103" s="17">
-        <f>SUM(S103:U103)</f>
-        <v/>
-      </c>
-      <c r="X103" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="Y103" s="17">
-        <f>SUM(M103,S103)</f>
-        <v/>
-      </c>
-      <c r="Z103" s="17">
-        <f>SUM(N103,T103)</f>
-        <v/>
-      </c>
-      <c r="AA103" s="17">
-        <f>SUM(O103,U103)</f>
-        <v/>
-      </c>
-      <c r="AB103" s="17">
-        <f>SUM(P103,V103)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="C104" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D104" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E104" s="19" t="inlineStr">
+      <c r="J104" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G104" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H104" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I104" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J104" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
         </is>
       </c>
       <c r="L104" s="19" t="inlineStr">
@@ -4718,11 +4805,11 @@
       </c>
       <c r="M104" s="19" t="inlineStr"/>
       <c r="N104" s="19">
-        <f>COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($H$98:$I$98,"ปรมะ")+COUNTIF($H$101:$I$101,"ปรมะ")+COUNTIF($H$104:$I$104,"ปรมะ")+COUNTIF($H$107:$I$107,"ปรมะ")+COUNTIF($H$110:$I$110,"ปรมะ")+COUNTIF($H$119:$I$119,"ปรมะ")+COUNTIF($H$122:$I$122,"ปรมะ")+COUNTIF($H$125:$I$125,"ปรมะ")+COUNTIF($H$128:$I$128,"ปรมะ")+COUNTIF($H$131:$I$131,"ปรมะ")+COUNTIF($H$140:$I$140,"ปรมะ")+COUNTIF($H$143:$I$143,"ปรมะ")</f>
+        <f>COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($H$98:$I$98,"ปรมะ")+COUNTIF($H$101:$I$101,"ปรมะ")+COUNTIF($H$104:$I$104,"ปรมะ")+COUNTIF($H$107:$I$107,"ปรมะ")+COUNTIF($H$110:$I$110,"ปรมะ")+COUNTIF($H$119:$I$119,"ปรมะ")+COUNTIF($H$122:$I$122,"ปรมะ")+COUNTIF($H$125:$I$125,"ปรมะ")+COUNTIF($H$128:$I$128,"ปรมะ")+COUNTIF($H$131:$I$131,"ปรมะ")+COUNTIF($H$140:$I$140,"ปรมะ")+COUNTIF($H$143:$I$143,"ปรมะ")</f>
         <v/>
       </c>
       <c r="O104" s="19">
-        <f>COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($H$99:$I$99,"ปรมะ")+COUNTIF($H$102:$I$102,"ปรมะ")+COUNTIF($H$105:$I$105,"ปรมะ")+COUNTIF($H$108:$I$108,"ปรมะ")+COUNTIF($H$111:$I$111,"ปรมะ")+COUNTIF($H$120:$I$120,"ปรมะ")+COUNTIF($H$123:$I$123,"ปรมะ")+COUNTIF($H$126:$I$126,"ปรมะ")+COUNTIF($H$129:$I$129,"ปรมะ")+COUNTIF($H$132:$I$132,"ปรมะ")+COUNTIF($H$141:$I$141,"ปรมะ")+COUNTIF($H$144:$I$144,"ปรมะ")</f>
+        <f>COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($H$99:$I$99,"ปรมะ")+COUNTIF($H$102:$I$102,"ปรมะ")+COUNTIF($H$105:$I$105,"ปรมะ")+COUNTIF($H$108:$I$108,"ปรมะ")+COUNTIF($H$111:$I$111,"ปรมะ")+COUNTIF($H$120:$I$120,"ปรมะ")+COUNTIF($H$123:$I$123,"ปรมะ")+COUNTIF($H$126:$I$126,"ปรมะ")+COUNTIF($H$129:$I$129,"ปรมะ")+COUNTIF($H$132:$I$132,"ปรมะ")+COUNTIF($H$141:$I$141,"ปรมะ")+COUNTIF($H$144:$I$144,"ปรมะ")</f>
         <v/>
       </c>
       <c r="P104" s="19">
@@ -4735,15 +4822,15 @@
         </is>
       </c>
       <c r="S104" s="19">
-        <f>COUNTIF($C$97:$D$97,"ปรมะ")+COUNTIF($C$115:$D$115,"ปรมะ")+COUNTIF($C$118:$D$118,"ปรมะ")+COUNTIF($C$136:$D$136,"ปรมะ")+COUNTIF($C$139:$D$139,"ปรมะ")+COUNTIF($H$112:$I$112,"ปรมะ")+COUNTIF($H$115:$I$115,"ปรมะ")+COUNTIF($H$133:$I$133,"ปรมะ")+COUNTIF($H$136:$I$136,"ปรมะ")</f>
+        <f>COUNTIF($C$97:$D$97,"ปรมะ")+COUNTIF($C$100:$D$100,"ปรมะ")+COUNTIF($C$103:$D$103,"ปรมะ")+COUNTIF($C$115:$D$115,"ปรมะ")+COUNTIF($C$118:$D$118,"ปรมะ")+COUNTIF($C$136:$D$136,"ปรมะ")+COUNTIF($C$139:$D$139,"ปรมะ")+COUNTIF($H$112:$I$112,"ปรมะ")+COUNTIF($H$115:$I$115,"ปรมะ")+COUNTIF($H$133:$I$133,"ปรมะ")+COUNTIF($H$136:$I$136,"ปรมะ")</f>
         <v/>
       </c>
       <c r="T104" s="19">
-        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($H$113:$I$113,"ปรมะ")+COUNTIF($H$116:$I$116,"ปรมะ")+COUNTIF($H$134:$I$134,"ปรมะ")+COUNTIF($H$137:$I$137,"ปรมะ")</f>
+        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($H$113:$I$113,"ปรมะ")+COUNTIF($H$116:$I$116,"ปรมะ")+COUNTIF($H$134:$I$134,"ปรมะ")+COUNTIF($H$137:$I$137,"ปรมะ")</f>
         <v/>
       </c>
       <c r="U104" s="19">
-        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($H$114:$I$114,"ปรมะ")+COUNTIF($H$117:$I$117,"ปรมะ")+COUNTIF($H$135:$I$135,"ปรมะ")+COUNTIF($H$138:$I$138,"ปรมะ")</f>
+        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($H$114:$I$114,"ปรมะ")+COUNTIF($H$117:$I$117,"ปรมะ")+COUNTIF($H$135:$I$135,"ปรมะ")+COUNTIF($H$138:$I$138,"ปรมะ")</f>
         <v/>
       </c>
       <c r="V104" s="19">
@@ -4773,103 +4860,104 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="4" t="inlineStr">
+      <c r="A105" s="5" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C105" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D105" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E105" s="19" t="inlineStr">
+      <c r="C105" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E105" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H105" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I105" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J105" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="G105" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H105" s="16" t="inlineStr">
+      <c r="L105" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="I105" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J105" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L105" s="16" t="inlineStr">
+      <c r="M105" s="13" t="inlineStr"/>
+      <c r="N105" s="13">
+        <f>COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105" s="13">
+        <f>COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105" s="13">
+        <f>SUM(M105:O105)</f>
+        <v/>
+      </c>
+      <c r="R105" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M105" s="16" t="inlineStr"/>
-      <c r="N105" s="16">
-        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O105" s="16">
-        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P105" s="16">
-        <f>SUM(M105:O105)</f>
-        <v/>
-      </c>
-      <c r="R105" s="16" t="inlineStr">
+      <c r="S105" s="13">
+        <f>COUNTIF($C$97:$D$97,"สัญญา")+COUNTIF($C$100:$D$100,"สัญญา")+COUNTIF($C$103:$D$103,"สัญญา")+COUNTIF($C$115:$D$115,"สัญญา")+COUNTIF($C$118:$D$118,"สัญญา")+COUNTIF($C$136:$D$136,"สัญญา")+COUNTIF($C$139:$D$139,"สัญญา")+COUNTIF($H$112:$I$112,"สัญญา")+COUNTIF($H$115:$I$115,"สัญญา")+COUNTIF($H$133:$I$133,"สัญญา")+COUNTIF($H$136:$I$136,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T105" s="13">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U105" s="13">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V105" s="13">
+        <f>SUM(S105:U105)</f>
+        <v/>
+      </c>
+      <c r="X105" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S105" s="16">
-        <f>COUNTIF($C$97:$D$97,"สัญญา")+COUNTIF($C$115:$D$115,"สัญญา")+COUNTIF($C$118:$D$118,"สัญญา")+COUNTIF($C$136:$D$136,"สัญญา")+COUNTIF($C$139:$D$139,"สัญญา")+COUNTIF($H$112:$I$112,"สัญญา")+COUNTIF($H$115:$I$115,"สัญญา")+COUNTIF($H$133:$I$133,"สัญญา")+COUNTIF($H$136:$I$136,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T105" s="16">
-        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U105" s="16">
-        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V105" s="16">
-        <f>SUM(S105:U105)</f>
-        <v/>
-      </c>
-      <c r="X105" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="Y105" s="16">
+      <c r="Y105" s="13">
         <f>SUM(M105,S105)</f>
         <v/>
       </c>
-      <c r="Z105" s="16">
+      <c r="Z105" s="13">
         <f>SUM(N105,T105)</f>
         <v/>
       </c>
-      <c r="AA105" s="16">
+      <c r="AA105" s="13">
         <f>SUM(O105,U105)</f>
         <v/>
       </c>
-      <c r="AB105" s="16">
+      <c r="AB105" s="13">
         <f>SUM(P105,V105)</f>
         <v/>
       </c>
@@ -4885,63 +4973,63 @@
           <t>19</t>
         </is>
       </c>
-      <c r="L106" s="8" t="inlineStr">
+      <c r="L106" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M106" s="8" t="inlineStr"/>
-      <c r="N106" s="8">
-        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="O106" s="8">
-        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="P106" s="8">
+      <c r="M106" s="18" t="inlineStr"/>
+      <c r="N106" s="18">
+        <f>COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106" s="18">
+        <f>COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106" s="18">
         <f>SUM(M106:O106)</f>
         <v/>
       </c>
-      <c r="R106" s="8" t="inlineStr">
+      <c r="R106" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S106" s="8">
-        <f>COUNTIF($C$97:$D$97,"วินัย")+COUNTIF($C$115:$D$115,"วินัย")+COUNTIF($C$118:$D$118,"วินัย")+COUNTIF($C$136:$D$136,"วินัย")+COUNTIF($C$139:$D$139,"วินัย")+COUNTIF($H$112:$I$112,"วินัย")+COUNTIF($H$115:$I$115,"วินัย")+COUNTIF($H$133:$I$133,"วินัย")+COUNTIF($H$136:$I$136,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="T106" s="8">
-        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="U106" s="8">
-        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="V106" s="8">
+      <c r="S106" s="18">
+        <f>COUNTIF($C$97:$D$97,"วินัย")+COUNTIF($C$100:$D$100,"วินัย")+COUNTIF($C$103:$D$103,"วินัย")+COUNTIF($C$115:$D$115,"วินัย")+COUNTIF($C$118:$D$118,"วินัย")+COUNTIF($C$136:$D$136,"วินัย")+COUNTIF($C$139:$D$139,"วินัย")+COUNTIF($H$112:$I$112,"วินัย")+COUNTIF($H$115:$I$115,"วินัย")+COUNTIF($H$133:$I$133,"วินัย")+COUNTIF($H$136:$I$136,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="T106" s="18">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="U106" s="18">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="V106" s="18">
         <f>SUM(S106:U106)</f>
         <v/>
       </c>
-      <c r="X106" s="8" t="inlineStr">
+      <c r="X106" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="Y106" s="8">
+      <c r="Y106" s="18">
         <f>SUM(M106,S106)</f>
         <v/>
       </c>
-      <c r="Z106" s="8">
+      <c r="Z106" s="18">
         <f>SUM(N106,T106)</f>
         <v/>
       </c>
-      <c r="AA106" s="8">
+      <c r="AA106" s="18">
         <f>SUM(O106,U106)</f>
         <v/>
       </c>
-      <c r="AB106" s="8">
+      <c r="AB106" s="18">
         <f>SUM(P106,V106)</f>
         <v/>
       </c>
@@ -4952,98 +5040,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C107" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D107" s="11" t="inlineStr">
+      <c r="C107" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D107" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E107" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E107" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G107" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H107" s="9" t="inlineStr">
+      <c r="H107" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I107" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="J107" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="L107" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="I107" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J107" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="L107" s="9" t="inlineStr">
+      <c r="M107" s="8" t="inlineStr"/>
+      <c r="N107" s="8">
+        <f>COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($H$98:$I$98,"รณยุทธ")+COUNTIF($H$101:$I$101,"รณยุทธ")+COUNTIF($H$104:$I$104,"รณยุทธ")+COUNTIF($H$107:$I$107,"รณยุทธ")+COUNTIF($H$110:$I$110,"รณยุทธ")+COUNTIF($H$119:$I$119,"รณยุทธ")+COUNTIF($H$122:$I$122,"รณยุทธ")+COUNTIF($H$125:$I$125,"รณยุทธ")+COUNTIF($H$128:$I$128,"รณยุทธ")+COUNTIF($H$131:$I$131,"รณยุทธ")+COUNTIF($H$140:$I$140,"รณยุทธ")+COUNTIF($H$143:$I$143,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O107" s="8">
+        <f>COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($H$99:$I$99,"รณยุทธ")+COUNTIF($H$102:$I$102,"รณยุทธ")+COUNTIF($H$105:$I$105,"รณยุทธ")+COUNTIF($H$108:$I$108,"รณยุทธ")+COUNTIF($H$111:$I$111,"รณยุทธ")+COUNTIF($H$120:$I$120,"รณยุทธ")+COUNTIF($H$123:$I$123,"รณยุทธ")+COUNTIF($H$126:$I$126,"รณยุทธ")+COUNTIF($H$129:$I$129,"รณยุทธ")+COUNTIF($H$132:$I$132,"รณยุทธ")+COUNTIF($H$141:$I$141,"รณยุทธ")+COUNTIF($H$144:$I$144,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P107" s="8">
+        <f>SUM(M107:O107)</f>
+        <v/>
+      </c>
+      <c r="R107" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M107" s="9" t="inlineStr"/>
-      <c r="N107" s="9">
-        <f>COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($H$98:$I$98,"รณยุทธ")+COUNTIF($H$101:$I$101,"รณยุทธ")+COUNTIF($H$104:$I$104,"รณยุทธ")+COUNTIF($H$107:$I$107,"รณยุทธ")+COUNTIF($H$110:$I$110,"รณยุทธ")+COUNTIF($H$119:$I$119,"รณยุทธ")+COUNTIF($H$122:$I$122,"รณยุทธ")+COUNTIF($H$125:$I$125,"รณยุทธ")+COUNTIF($H$128:$I$128,"รณยุทธ")+COUNTIF($H$131:$I$131,"รณยุทธ")+COUNTIF($H$140:$I$140,"รณยุทธ")+COUNTIF($H$143:$I$143,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="O107" s="9">
-        <f>COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($H$99:$I$99,"รณยุทธ")+COUNTIF($H$102:$I$102,"รณยุทธ")+COUNTIF($H$105:$I$105,"รณยุทธ")+COUNTIF($H$108:$I$108,"รณยุทธ")+COUNTIF($H$111:$I$111,"รณยุทธ")+COUNTIF($H$120:$I$120,"รณยุทธ")+COUNTIF($H$123:$I$123,"รณยุทธ")+COUNTIF($H$126:$I$126,"รณยุทธ")+COUNTIF($H$129:$I$129,"รณยุทธ")+COUNTIF($H$132:$I$132,"รณยุทธ")+COUNTIF($H$141:$I$141,"รณยุทธ")+COUNTIF($H$144:$I$144,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="P107" s="9">
-        <f>SUM(M107:O107)</f>
-        <v/>
-      </c>
-      <c r="R107" s="9" t="inlineStr">
+      <c r="S107" s="8">
+        <f>COUNTIF($C$97:$D$97,"รณยุทธ")+COUNTIF($C$100:$D$100,"รณยุทธ")+COUNTIF($C$103:$D$103,"รณยุทธ")+COUNTIF($C$115:$D$115,"รณยุทธ")+COUNTIF($C$118:$D$118,"รณยุทธ")+COUNTIF($C$136:$D$136,"รณยุทธ")+COUNTIF($C$139:$D$139,"รณยุทธ")+COUNTIF($H$112:$I$112,"รณยุทธ")+COUNTIF($H$115:$I$115,"รณยุทธ")+COUNTIF($H$133:$I$133,"รณยุทธ")+COUNTIF($H$136:$I$136,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="T107" s="8">
+        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($H$113:$I$113,"รณยุทธ")+COUNTIF($H$116:$I$116,"รณยุทธ")+COUNTIF($H$134:$I$134,"รณยุทธ")+COUNTIF($H$137:$I$137,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="U107" s="8">
+        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($H$114:$I$114,"รณยุทธ")+COUNTIF($H$117:$I$117,"รณยุทธ")+COUNTIF($H$135:$I$135,"รณยุทธ")+COUNTIF($H$138:$I$138,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="V107" s="8">
+        <f>SUM(S107:U107)</f>
+        <v/>
+      </c>
+      <c r="X107" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="S107" s="9">
-        <f>COUNTIF($C$97:$D$97,"รณยุทธ")+COUNTIF($C$115:$D$115,"รณยุทธ")+COUNTIF($C$118:$D$118,"รณยุทธ")+COUNTIF($C$136:$D$136,"รณยุทธ")+COUNTIF($C$139:$D$139,"รณยุทธ")+COUNTIF($H$112:$I$112,"รณยุทธ")+COUNTIF($H$115:$I$115,"รณยุทธ")+COUNTIF($H$133:$I$133,"รณยุทธ")+COUNTIF($H$136:$I$136,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="T107" s="9">
-        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($H$113:$I$113,"รณยุทธ")+COUNTIF($H$116:$I$116,"รณยุทธ")+COUNTIF($H$134:$I$134,"รณยุทธ")+COUNTIF($H$137:$I$137,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="U107" s="9">
-        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($H$114:$I$114,"รณยุทธ")+COUNTIF($H$117:$I$117,"รณยุทธ")+COUNTIF($H$135:$I$135,"รณยุทธ")+COUNTIF($H$138:$I$138,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="V107" s="9">
-        <f>SUM(S107:U107)</f>
-        <v/>
-      </c>
-      <c r="X107" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="Y107" s="9">
+      <c r="Y107" s="8">
         <f>SUM(M107,S107)</f>
         <v/>
       </c>
-      <c r="Z107" s="9">
+      <c r="Z107" s="8">
         <f>SUM(N107,T107)</f>
         <v/>
       </c>
-      <c r="AA107" s="9">
+      <c r="AA107" s="8">
         <f>SUM(O107,U107)</f>
         <v/>
       </c>
-      <c r="AB107" s="9">
+      <c r="AB107" s="8">
         <f>SUM(P107,V107)</f>
         <v/>
       </c>
@@ -5054,98 +5142,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C108" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D108" s="11" t="inlineStr">
+      <c r="C108" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D108" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E108" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E108" s="7" t="inlineStr">
+      <c r="G108" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H108" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I108" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="J108" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="L108" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="G108" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H108" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I108" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J108" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="L108" s="7" t="inlineStr">
+      <c r="M108" s="10" t="inlineStr"/>
+      <c r="N108" s="10">
+        <f>COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($H$98:$I$98,"วัฒพงษ์")+COUNTIF($H$101:$I$101,"วัฒพงษ์")+COUNTIF($H$104:$I$104,"วัฒพงษ์")+COUNTIF($H$107:$I$107,"วัฒพงษ์")+COUNTIF($H$110:$I$110,"วัฒพงษ์")+COUNTIF($H$119:$I$119,"วัฒพงษ์")+COUNTIF($H$122:$I$122,"วัฒพงษ์")+COUNTIF($H$125:$I$125,"วัฒพงษ์")+COUNTIF($H$128:$I$128,"วัฒพงษ์")+COUNTIF($H$131:$I$131,"วัฒพงษ์")+COUNTIF($H$140:$I$140,"วัฒพงษ์")+COUNTIF($H$143:$I$143,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O108" s="10">
+        <f>COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($H$99:$I$99,"วัฒพงษ์")+COUNTIF($H$102:$I$102,"วัฒพงษ์")+COUNTIF($H$105:$I$105,"วัฒพงษ์")+COUNTIF($H$108:$I$108,"วัฒพงษ์")+COUNTIF($H$111:$I$111,"วัฒพงษ์")+COUNTIF($H$120:$I$120,"วัฒพงษ์")+COUNTIF($H$123:$I$123,"วัฒพงษ์")+COUNTIF($H$126:$I$126,"วัฒพงษ์")+COUNTIF($H$129:$I$129,"วัฒพงษ์")+COUNTIF($H$132:$I$132,"วัฒพงษ์")+COUNTIF($H$141:$I$141,"วัฒพงษ์")+COUNTIF($H$144:$I$144,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P108" s="10">
+        <f>SUM(M108:O108)</f>
+        <v/>
+      </c>
+      <c r="R108" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M108" s="7" t="inlineStr"/>
-      <c r="N108" s="7">
-        <f>COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($H$98:$I$98,"วัฒพงษ์")+COUNTIF($H$101:$I$101,"วัฒพงษ์")+COUNTIF($H$104:$I$104,"วัฒพงษ์")+COUNTIF($H$107:$I$107,"วัฒพงษ์")+COUNTIF($H$110:$I$110,"วัฒพงษ์")+COUNTIF($H$119:$I$119,"วัฒพงษ์")+COUNTIF($H$122:$I$122,"วัฒพงษ์")+COUNTIF($H$125:$I$125,"วัฒพงษ์")+COUNTIF($H$128:$I$128,"วัฒพงษ์")+COUNTIF($H$131:$I$131,"วัฒพงษ์")+COUNTIF($H$140:$I$140,"วัฒพงษ์")+COUNTIF($H$143:$I$143,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="O108" s="7">
-        <f>COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($H$99:$I$99,"วัฒพงษ์")+COUNTIF($H$102:$I$102,"วัฒพงษ์")+COUNTIF($H$105:$I$105,"วัฒพงษ์")+COUNTIF($H$108:$I$108,"วัฒพงษ์")+COUNTIF($H$111:$I$111,"วัฒพงษ์")+COUNTIF($H$120:$I$120,"วัฒพงษ์")+COUNTIF($H$123:$I$123,"วัฒพงษ์")+COUNTIF($H$126:$I$126,"วัฒพงษ์")+COUNTIF($H$129:$I$129,"วัฒพงษ์")+COUNTIF($H$132:$I$132,"วัฒพงษ์")+COUNTIF($H$141:$I$141,"วัฒพงษ์")+COUNTIF($H$144:$I$144,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="P108" s="7">
-        <f>SUM(M108:O108)</f>
-        <v/>
-      </c>
-      <c r="R108" s="7" t="inlineStr">
+      <c r="S108" s="10">
+        <f>COUNTIF($C$97:$D$97,"วัฒพงษ์")+COUNTIF($C$100:$D$100,"วัฒพงษ์")+COUNTIF($C$103:$D$103,"วัฒพงษ์")+COUNTIF($C$115:$D$115,"วัฒพงษ์")+COUNTIF($C$118:$D$118,"วัฒพงษ์")+COUNTIF($C$136:$D$136,"วัฒพงษ์")+COUNTIF($C$139:$D$139,"วัฒพงษ์")+COUNTIF($H$112:$I$112,"วัฒพงษ์")+COUNTIF($H$115:$I$115,"วัฒพงษ์")+COUNTIF($H$133:$I$133,"วัฒพงษ์")+COUNTIF($H$136:$I$136,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="T108" s="10">
+        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($H$113:$I$113,"วัฒพงษ์")+COUNTIF($H$116:$I$116,"วัฒพงษ์")+COUNTIF($H$134:$I$134,"วัฒพงษ์")+COUNTIF($H$137:$I$137,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="U108" s="10">
+        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($H$114:$I$114,"วัฒพงษ์")+COUNTIF($H$117:$I$117,"วัฒพงษ์")+COUNTIF($H$135:$I$135,"วัฒพงษ์")+COUNTIF($H$138:$I$138,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="V108" s="10">
+        <f>SUM(S108:U108)</f>
+        <v/>
+      </c>
+      <c r="X108" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S108" s="7">
-        <f>COUNTIF($C$97:$D$97,"วัฒพงษ์")+COUNTIF($C$115:$D$115,"วัฒพงษ์")+COUNTIF($C$118:$D$118,"วัฒพงษ์")+COUNTIF($C$136:$D$136,"วัฒพงษ์")+COUNTIF($C$139:$D$139,"วัฒพงษ์")+COUNTIF($H$112:$I$112,"วัฒพงษ์")+COUNTIF($H$115:$I$115,"วัฒพงษ์")+COUNTIF($H$133:$I$133,"วัฒพงษ์")+COUNTIF($H$136:$I$136,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="T108" s="7">
-        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($H$113:$I$113,"วัฒพงษ์")+COUNTIF($H$116:$I$116,"วัฒพงษ์")+COUNTIF($H$134:$I$134,"วัฒพงษ์")+COUNTIF($H$137:$I$137,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="U108" s="7">
-        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($H$114:$I$114,"วัฒพงษ์")+COUNTIF($H$117:$I$117,"วัฒพงษ์")+COUNTIF($H$135:$I$135,"วัฒพงษ์")+COUNTIF($H$138:$I$138,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="V108" s="7">
-        <f>SUM(S108:U108)</f>
-        <v/>
-      </c>
-      <c r="X108" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="Y108" s="7">
+      <c r="Y108" s="10">
         <f>SUM(M108,S108)</f>
         <v/>
       </c>
-      <c r="Z108" s="7">
+      <c r="Z108" s="10">
         <f>SUM(N108,T108)</f>
         <v/>
       </c>
-      <c r="AA108" s="7">
+      <c r="AA108" s="10">
         <f>SUM(O108,U108)</f>
         <v/>
       </c>
-      <c r="AB108" s="7">
+      <c r="AB108" s="10">
         <f>SUM(P108,V108)</f>
         <v/>
       </c>
@@ -5161,63 +5249,63 @@
           <t>20</t>
         </is>
       </c>
-      <c r="L109" s="15" t="inlineStr">
+      <c r="L109" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M109" s="15" t="inlineStr"/>
-      <c r="N109" s="15">
-        <f>COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($H$98:$I$98,"ราเชน")+COUNTIF($H$101:$I$101,"ราเชน")+COUNTIF($H$104:$I$104,"ราเชน")+COUNTIF($H$107:$I$107,"ราเชน")+COUNTIF($H$110:$I$110,"ราเชน")+COUNTIF($H$119:$I$119,"ราเชน")+COUNTIF($H$122:$I$122,"ราเชน")+COUNTIF($H$125:$I$125,"ราเชน")+COUNTIF($H$128:$I$128,"ราเชน")+COUNTIF($H$131:$I$131,"ราเชน")+COUNTIF($H$140:$I$140,"ราเชน")+COUNTIF($H$143:$I$143,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="O109" s="15">
-        <f>COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($H$99:$I$99,"ราเชน")+COUNTIF($H$102:$I$102,"ราเชน")+COUNTIF($H$105:$I$105,"ราเชน")+COUNTIF($H$108:$I$108,"ราเชน")+COUNTIF($H$111:$I$111,"ราเชน")+COUNTIF($H$120:$I$120,"ราเชน")+COUNTIF($H$123:$I$123,"ราเชน")+COUNTIF($H$126:$I$126,"ราเชน")+COUNTIF($H$129:$I$129,"ราเชน")+COUNTIF($H$132:$I$132,"ราเชน")+COUNTIF($H$141:$I$141,"ราเชน")+COUNTIF($H$144:$I$144,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="P109" s="15">
+      <c r="M109" s="17" t="inlineStr"/>
+      <c r="N109" s="17">
+        <f>COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($H$98:$I$98,"ราเชน")+COUNTIF($H$101:$I$101,"ราเชน")+COUNTIF($H$104:$I$104,"ราเชน")+COUNTIF($H$107:$I$107,"ราเชน")+COUNTIF($H$110:$I$110,"ราเชน")+COUNTIF($H$119:$I$119,"ราเชน")+COUNTIF($H$122:$I$122,"ราเชน")+COUNTIF($H$125:$I$125,"ราเชน")+COUNTIF($H$128:$I$128,"ราเชน")+COUNTIF($H$131:$I$131,"ราเชน")+COUNTIF($H$140:$I$140,"ราเชน")+COUNTIF($H$143:$I$143,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O109" s="17">
+        <f>COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($H$99:$I$99,"ราเชน")+COUNTIF($H$102:$I$102,"ราเชน")+COUNTIF($H$105:$I$105,"ราเชน")+COUNTIF($H$108:$I$108,"ราเชน")+COUNTIF($H$111:$I$111,"ราเชน")+COUNTIF($H$120:$I$120,"ราเชน")+COUNTIF($H$123:$I$123,"ราเชน")+COUNTIF($H$126:$I$126,"ราเชน")+COUNTIF($H$129:$I$129,"ราเชน")+COUNTIF($H$132:$I$132,"ราเชน")+COUNTIF($H$141:$I$141,"ราเชน")+COUNTIF($H$144:$I$144,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P109" s="17">
         <f>SUM(M109:O109)</f>
         <v/>
       </c>
-      <c r="R109" s="15" t="inlineStr">
+      <c r="R109" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S109" s="15">
-        <f>COUNTIF($C$97:$D$97,"ราเชน")+COUNTIF($C$115:$D$115,"ราเชน")+COUNTIF($C$118:$D$118,"ราเชน")+COUNTIF($C$136:$D$136,"ราเชน")+COUNTIF($C$139:$D$139,"ราเชน")+COUNTIF($H$112:$I$112,"ราเชน")+COUNTIF($H$115:$I$115,"ราเชน")+COUNTIF($H$133:$I$133,"ราเชน")+COUNTIF($H$136:$I$136,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="T109" s="15">
-        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($H$113:$I$113,"ราเชน")+COUNTIF($H$116:$I$116,"ราเชน")+COUNTIF($H$134:$I$134,"ราเชน")+COUNTIF($H$137:$I$137,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="U109" s="15">
-        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($H$114:$I$114,"ราเชน")+COUNTIF($H$117:$I$117,"ราเชน")+COUNTIF($H$135:$I$135,"ราเชน")+COUNTIF($H$138:$I$138,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="V109" s="15">
+      <c r="S109" s="17">
+        <f>COUNTIF($C$97:$D$97,"ราเชน")+COUNTIF($C$100:$D$100,"ราเชน")+COUNTIF($C$103:$D$103,"ราเชน")+COUNTIF($C$115:$D$115,"ราเชน")+COUNTIF($C$118:$D$118,"ราเชน")+COUNTIF($C$136:$D$136,"ราเชน")+COUNTIF($C$139:$D$139,"ราเชน")+COUNTIF($H$112:$I$112,"ราเชน")+COUNTIF($H$115:$I$115,"ราเชน")+COUNTIF($H$133:$I$133,"ราเชน")+COUNTIF($H$136:$I$136,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="T109" s="17">
+        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($H$113:$I$113,"ราเชน")+COUNTIF($H$116:$I$116,"ราเชน")+COUNTIF($H$134:$I$134,"ราเชน")+COUNTIF($H$137:$I$137,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="U109" s="17">
+        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($H$114:$I$114,"ราเชน")+COUNTIF($H$117:$I$117,"ราเชน")+COUNTIF($H$135:$I$135,"ราเชน")+COUNTIF($H$138:$I$138,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="V109" s="17">
         <f>SUM(S109:U109)</f>
         <v/>
       </c>
-      <c r="X109" s="15" t="inlineStr">
+      <c r="X109" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y109" s="15">
+      <c r="Y109" s="17">
         <f>SUM(M109,S109)</f>
         <v/>
       </c>
-      <c r="Z109" s="15">
+      <c r="Z109" s="17">
         <f>SUM(N109,T109)</f>
         <v/>
       </c>
-      <c r="AA109" s="15">
+      <c r="AA109" s="17">
         <f>SUM(O109,U109)</f>
         <v/>
       </c>
-      <c r="AB109" s="15">
+      <c r="AB109" s="17">
         <f>SUM(P109,V109)</f>
         <v/>
       </c>
@@ -5228,19 +5316,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D110" s="18" t="inlineStr">
+      <c r="C110" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E110" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E110" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G110" s="4" t="inlineStr">
@@ -5248,78 +5336,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H110" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="H110" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I110" s="7" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J110" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L110" s="11" t="inlineStr">
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J110" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="L110" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M110" s="11" t="inlineStr"/>
-      <c r="N110" s="11">
-        <f>COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($H$98:$I$98,"นฤชิต")+COUNTIF($H$101:$I$101,"นฤชิต")+COUNTIF($H$104:$I$104,"นฤชิต")+COUNTIF($H$107:$I$107,"นฤชิต")+COUNTIF($H$110:$I$110,"นฤชิต")+COUNTIF($H$119:$I$119,"นฤชิต")+COUNTIF($H$122:$I$122,"นฤชิต")+COUNTIF($H$125:$I$125,"นฤชิต")+COUNTIF($H$128:$I$128,"นฤชิต")+COUNTIF($H$131:$I$131,"นฤชิต")+COUNTIF($H$140:$I$140,"นฤชิต")+COUNTIF($H$143:$I$143,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="O110" s="11">
-        <f>COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($H$99:$I$99,"นฤชิต")+COUNTIF($H$102:$I$102,"นฤชิต")+COUNTIF($H$105:$I$105,"นฤชิต")+COUNTIF($H$108:$I$108,"นฤชิต")+COUNTIF($H$111:$I$111,"นฤชิต")+COUNTIF($H$120:$I$120,"นฤชิต")+COUNTIF($H$123:$I$123,"นฤชิต")+COUNTIF($H$126:$I$126,"นฤชิต")+COUNTIF($H$129:$I$129,"นฤชิต")+COUNTIF($H$132:$I$132,"นฤชิต")+COUNTIF($H$141:$I$141,"นฤชิต")+COUNTIF($H$144:$I$144,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="P110" s="11">
+      <c r="M110" s="16" t="inlineStr"/>
+      <c r="N110" s="16">
+        <f>COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($H$98:$I$98,"นฤชิต")+COUNTIF($H$101:$I$101,"นฤชิต")+COUNTIF($H$104:$I$104,"นฤชิต")+COUNTIF($H$107:$I$107,"นฤชิต")+COUNTIF($H$110:$I$110,"นฤชิต")+COUNTIF($H$119:$I$119,"นฤชิต")+COUNTIF($H$122:$I$122,"นฤชิต")+COUNTIF($H$125:$I$125,"นฤชิต")+COUNTIF($H$128:$I$128,"นฤชิต")+COUNTIF($H$131:$I$131,"นฤชิต")+COUNTIF($H$140:$I$140,"นฤชิต")+COUNTIF($H$143:$I$143,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O110" s="16">
+        <f>COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($H$99:$I$99,"นฤชิต")+COUNTIF($H$102:$I$102,"นฤชิต")+COUNTIF($H$105:$I$105,"นฤชิต")+COUNTIF($H$108:$I$108,"นฤชิต")+COUNTIF($H$111:$I$111,"นฤชิต")+COUNTIF($H$120:$I$120,"นฤชิต")+COUNTIF($H$123:$I$123,"นฤชิต")+COUNTIF($H$126:$I$126,"นฤชิต")+COUNTIF($H$129:$I$129,"นฤชิต")+COUNTIF($H$132:$I$132,"นฤชิต")+COUNTIF($H$141:$I$141,"นฤชิต")+COUNTIF($H$144:$I$144,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P110" s="16">
         <f>SUM(M110:O110)</f>
         <v/>
       </c>
-      <c r="R110" s="11" t="inlineStr">
+      <c r="R110" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S110" s="11">
-        <f>COUNTIF($C$97:$D$97,"นฤชิต")+COUNTIF($C$115:$D$115,"นฤชิต")+COUNTIF($C$118:$D$118,"นฤชิต")+COUNTIF($C$136:$D$136,"นฤชิต")+COUNTIF($C$139:$D$139,"นฤชิต")+COUNTIF($H$112:$I$112,"นฤชิต")+COUNTIF($H$115:$I$115,"นฤชิต")+COUNTIF($H$133:$I$133,"นฤชิต")+COUNTIF($H$136:$I$136,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="T110" s="11">
-        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($H$113:$I$113,"นฤชิต")+COUNTIF($H$116:$I$116,"นฤชิต")+COUNTIF($H$134:$I$134,"นฤชิต")+COUNTIF($H$137:$I$137,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="U110" s="11">
-        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($H$114:$I$114,"นฤชิต")+COUNTIF($H$117:$I$117,"นฤชิต")+COUNTIF($H$135:$I$135,"นฤชิต")+COUNTIF($H$138:$I$138,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="V110" s="11">
+      <c r="S110" s="16">
+        <f>COUNTIF($C$97:$D$97,"นฤชิต")+COUNTIF($C$100:$D$100,"นฤชิต")+COUNTIF($C$103:$D$103,"นฤชิต")+COUNTIF($C$115:$D$115,"นฤชิต")+COUNTIF($C$118:$D$118,"นฤชิต")+COUNTIF($C$136:$D$136,"นฤชิต")+COUNTIF($C$139:$D$139,"นฤชิต")+COUNTIF($H$112:$I$112,"นฤชิต")+COUNTIF($H$115:$I$115,"นฤชิต")+COUNTIF($H$133:$I$133,"นฤชิต")+COUNTIF($H$136:$I$136,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="T110" s="16">
+        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($H$113:$I$113,"นฤชิต")+COUNTIF($H$116:$I$116,"นฤชิต")+COUNTIF($H$134:$I$134,"นฤชิต")+COUNTIF($H$137:$I$137,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="U110" s="16">
+        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($H$114:$I$114,"นฤชิต")+COUNTIF($H$117:$I$117,"นฤชิต")+COUNTIF($H$135:$I$135,"นฤชิต")+COUNTIF($H$138:$I$138,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="V110" s="16">
         <f>SUM(S110:U110)</f>
         <v/>
       </c>
-      <c r="X110" s="11" t="inlineStr">
+      <c r="X110" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="Y110" s="11">
+      <c r="Y110" s="16">
         <f>SUM(M110,S110)</f>
         <v/>
       </c>
-      <c r="Z110" s="11">
+      <c r="Z110" s="16">
         <f>SUM(N110,T110)</f>
         <v/>
       </c>
-      <c r="AA110" s="11">
+      <c r="AA110" s="16">
         <f>SUM(O110,U110)</f>
         <v/>
       </c>
-      <c r="AB110" s="11">
+      <c r="AB110" s="16">
         <f>SUM(P110,V110)</f>
         <v/>
       </c>
@@ -5330,19 +5418,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C111" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D111" s="18" t="inlineStr">
+      <c r="C111" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E111" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="D111" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E111" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G111" s="4" t="inlineStr">
@@ -5350,78 +5438,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H111" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="H111" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I111" s="7" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J111" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L111" s="18" t="inlineStr">
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J111" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="L111" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M111" s="18" t="inlineStr"/>
-      <c r="N111" s="18">
-        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="O111" s="18">
-        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="P111" s="18">
+      <c r="M111" s="9" t="inlineStr"/>
+      <c r="N111" s="9">
+        <f>COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111" s="9">
+        <f>COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111" s="9">
         <f>SUM(M111:O111)</f>
         <v/>
       </c>
-      <c r="R111" s="18" t="inlineStr">
+      <c r="R111" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S111" s="18">
-        <f>COUNTIF($C$97:$D$97,"จีรวัฒน์")+COUNTIF($C$115:$D$115,"จีรวัฒน์")+COUNTIF($C$118:$D$118,"จีรวัฒน์")+COUNTIF($C$136:$D$136,"จีรวัฒน์")+COUNTIF($C$139:$D$139,"จีรวัฒน์")+COUNTIF($H$112:$I$112,"จีรวัฒน์")+COUNTIF($H$115:$I$115,"จีรวัฒน์")+COUNTIF($H$133:$I$133,"จีรวัฒน์")+COUNTIF($H$136:$I$136,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="T111" s="18">
-        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="U111" s="18">
-        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="V111" s="18">
+      <c r="S111" s="9">
+        <f>COUNTIF($C$97:$D$97,"จีรวัฒน์")+COUNTIF($C$100:$D$100,"จีรวัฒน์")+COUNTIF($C$103:$D$103,"จีรวัฒน์")+COUNTIF($C$115:$D$115,"จีรวัฒน์")+COUNTIF($C$118:$D$118,"จีรวัฒน์")+COUNTIF($C$136:$D$136,"จีรวัฒน์")+COUNTIF($C$139:$D$139,"จีรวัฒน์")+COUNTIF($H$112:$I$112,"จีรวัฒน์")+COUNTIF($H$115:$I$115,"จีรวัฒน์")+COUNTIF($H$133:$I$133,"จีรวัฒน์")+COUNTIF($H$136:$I$136,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="T111" s="9">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="U111" s="9">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="V111" s="9">
         <f>SUM(S111:U111)</f>
         <v/>
       </c>
-      <c r="X111" s="18" t="inlineStr">
+      <c r="X111" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="Y111" s="18">
+      <c r="Y111" s="9">
         <f>SUM(M111,S111)</f>
         <v/>
       </c>
-      <c r="Z111" s="18">
+      <c r="Z111" s="9">
         <f>SUM(N111,T111)</f>
         <v/>
       </c>
-      <c r="AA111" s="18">
+      <c r="AA111" s="9">
         <f>SUM(O111,U111)</f>
         <v/>
       </c>
-      <c r="AB111" s="18">
+      <c r="AB111" s="9">
         <f>SUM(P111,V111)</f>
         <v/>
       </c>
@@ -5442,78 +5530,78 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H112" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J112" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="L112" s="10" t="inlineStr">
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I112" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J112" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="L112" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M112" s="10" t="inlineStr"/>
-      <c r="N112" s="10">
-        <f>COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($H$98:$I$98,"สุเมธร์")+COUNTIF($H$101:$I$101,"สุเมธร์")+COUNTIF($H$104:$I$104,"สุเมธร์")+COUNTIF($H$107:$I$107,"สุเมธร์")+COUNTIF($H$110:$I$110,"สุเมธร์")+COUNTIF($H$119:$I$119,"สุเมธร์")+COUNTIF($H$122:$I$122,"สุเมธร์")+COUNTIF($H$125:$I$125,"สุเมธร์")+COUNTIF($H$128:$I$128,"สุเมธร์")+COUNTIF($H$131:$I$131,"สุเมธร์")+COUNTIF($H$140:$I$140,"สุเมธร์")+COUNTIF($H$143:$I$143,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="O112" s="10">
-        <f>COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($H$99:$I$99,"สุเมธร์")+COUNTIF($H$102:$I$102,"สุเมธร์")+COUNTIF($H$105:$I$105,"สุเมธร์")+COUNTIF($H$108:$I$108,"สุเมธร์")+COUNTIF($H$111:$I$111,"สุเมธร์")+COUNTIF($H$120:$I$120,"สุเมธร์")+COUNTIF($H$123:$I$123,"สุเมธร์")+COUNTIF($H$126:$I$126,"สุเมธร์")+COUNTIF($H$129:$I$129,"สุเมธร์")+COUNTIF($H$132:$I$132,"สุเมธร์")+COUNTIF($H$141:$I$141,"สุเมธร์")+COUNTIF($H$144:$I$144,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="P112" s="10">
+      <c r="M112" s="7" t="inlineStr"/>
+      <c r="N112" s="7">
+        <f>COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($H$98:$I$98,"สุเมธร์")+COUNTIF($H$101:$I$101,"สุเมธร์")+COUNTIF($H$104:$I$104,"สุเมธร์")+COUNTIF($H$107:$I$107,"สุเมธร์")+COUNTIF($H$110:$I$110,"สุเมธร์")+COUNTIF($H$119:$I$119,"สุเมธร์")+COUNTIF($H$122:$I$122,"สุเมธร์")+COUNTIF($H$125:$I$125,"สุเมธร์")+COUNTIF($H$128:$I$128,"สุเมธร์")+COUNTIF($H$131:$I$131,"สุเมธร์")+COUNTIF($H$140:$I$140,"สุเมธร์")+COUNTIF($H$143:$I$143,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O112" s="7">
+        <f>COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($H$99:$I$99,"สุเมธร์")+COUNTIF($H$102:$I$102,"สุเมธร์")+COUNTIF($H$105:$I$105,"สุเมธร์")+COUNTIF($H$108:$I$108,"สุเมธร์")+COUNTIF($H$111:$I$111,"สุเมธร์")+COUNTIF($H$120:$I$120,"สุเมธร์")+COUNTIF($H$123:$I$123,"สุเมธร์")+COUNTIF($H$126:$I$126,"สุเมธร์")+COUNTIF($H$129:$I$129,"สุเมธร์")+COUNTIF($H$132:$I$132,"สุเมธร์")+COUNTIF($H$141:$I$141,"สุเมธร์")+COUNTIF($H$144:$I$144,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P112" s="7">
         <f>SUM(M112:O112)</f>
         <v/>
       </c>
-      <c r="R112" s="10" t="inlineStr">
+      <c r="R112" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S112" s="10">
-        <f>COUNTIF($C$97:$D$97,"สุเมธร์")+COUNTIF($C$115:$D$115,"สุเมธร์")+COUNTIF($C$118:$D$118,"สุเมธร์")+COUNTIF($C$136:$D$136,"สุเมธร์")+COUNTIF($C$139:$D$139,"สุเมธร์")+COUNTIF($H$112:$I$112,"สุเมธร์")+COUNTIF($H$115:$I$115,"สุเมธร์")+COUNTIF($H$133:$I$133,"สุเมธร์")+COUNTIF($H$136:$I$136,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="T112" s="10">
-        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($H$113:$I$113,"สุเมธร์")+COUNTIF($H$116:$I$116,"สุเมธร์")+COUNTIF($H$134:$I$134,"สุเมธร์")+COUNTIF($H$137:$I$137,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="U112" s="10">
-        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($H$114:$I$114,"สุเมธร์")+COUNTIF($H$117:$I$117,"สุเมธร์")+COUNTIF($H$135:$I$135,"สุเมธร์")+COUNTIF($H$138:$I$138,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="V112" s="10">
+      <c r="S112" s="7">
+        <f>COUNTIF($C$97:$D$97,"สุเมธร์")+COUNTIF($C$100:$D$100,"สุเมธร์")+COUNTIF($C$103:$D$103,"สุเมธร์")+COUNTIF($C$115:$D$115,"สุเมธร์")+COUNTIF($C$118:$D$118,"สุเมธร์")+COUNTIF($C$136:$D$136,"สุเมธร์")+COUNTIF($C$139:$D$139,"สุเมธร์")+COUNTIF($H$112:$I$112,"สุเมธร์")+COUNTIF($H$115:$I$115,"สุเมธร์")+COUNTIF($H$133:$I$133,"สุเมธร์")+COUNTIF($H$136:$I$136,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="T112" s="7">
+        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($H$113:$I$113,"สุเมธร์")+COUNTIF($H$116:$I$116,"สุเมธร์")+COUNTIF($H$134:$I$134,"สุเมธร์")+COUNTIF($H$137:$I$137,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="U112" s="7">
+        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($H$114:$I$114,"สุเมธร์")+COUNTIF($H$117:$I$117,"สุเมธร์")+COUNTIF($H$135:$I$135,"สุเมธร์")+COUNTIF($H$138:$I$138,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="V112" s="7">
         <f>SUM(S112:U112)</f>
         <v/>
       </c>
-      <c r="X112" s="10" t="inlineStr">
+      <c r="X112" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="Y112" s="10">
+      <c r="Y112" s="7">
         <f>SUM(M112,S112)</f>
         <v/>
       </c>
-      <c r="Z112" s="10">
+      <c r="Z112" s="7">
         <f>SUM(N112,T112)</f>
         <v/>
       </c>
-      <c r="AA112" s="10">
+      <c r="AA112" s="7">
         <f>SUM(O112,U112)</f>
         <v/>
       </c>
-      <c r="AB112" s="10">
+      <c r="AB112" s="7">
         <f>SUM(P112,V112)</f>
         <v/>
       </c>
@@ -5526,17 +5614,17 @@
       </c>
       <c r="C113" s="8" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D113" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D113" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E113" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F113" s="5" t="n"/>
@@ -5545,78 +5633,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H113" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I113" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J113" s="12" t="inlineStr">
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I113" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="J113" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L113" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="L113" s="12" t="inlineStr">
+      <c r="M113" s="14" t="inlineStr"/>
+      <c r="N113" s="14">
+        <f>COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($H$98:$I$98,"นที")+COUNTIF($H$101:$I$101,"นที")+COUNTIF($H$104:$I$104,"นที")+COUNTIF($H$107:$I$107,"นที")+COUNTIF($H$110:$I$110,"นที")+COUNTIF($H$119:$I$119,"นที")+COUNTIF($H$122:$I$122,"นที")+COUNTIF($H$125:$I$125,"นที")+COUNTIF($H$128:$I$128,"นที")+COUNTIF($H$131:$I$131,"นที")+COUNTIF($H$140:$I$140,"นที")+COUNTIF($H$143:$I$143,"นที")</f>
+        <v/>
+      </c>
+      <c r="O113" s="14">
+        <f>COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($H$99:$I$99,"นที")+COUNTIF($H$102:$I$102,"นที")+COUNTIF($H$105:$I$105,"นที")+COUNTIF($H$108:$I$108,"นที")+COUNTIF($H$111:$I$111,"นที")+COUNTIF($H$120:$I$120,"นที")+COUNTIF($H$123:$I$123,"นที")+COUNTIF($H$126:$I$126,"นที")+COUNTIF($H$129:$I$129,"นที")+COUNTIF($H$132:$I$132,"นที")+COUNTIF($H$141:$I$141,"นที")+COUNTIF($H$144:$I$144,"นที")</f>
+        <v/>
+      </c>
+      <c r="P113" s="14">
+        <f>SUM(M113:O113)</f>
+        <v/>
+      </c>
+      <c r="R113" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M113" s="12" t="inlineStr"/>
-      <c r="N113" s="12">
-        <f>COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($H$98:$I$98,"นที")+COUNTIF($H$101:$I$101,"นที")+COUNTIF($H$104:$I$104,"นที")+COUNTIF($H$107:$I$107,"นที")+COUNTIF($H$110:$I$110,"นที")+COUNTIF($H$119:$I$119,"นที")+COUNTIF($H$122:$I$122,"นที")+COUNTIF($H$125:$I$125,"นที")+COUNTIF($H$128:$I$128,"นที")+COUNTIF($H$131:$I$131,"นที")+COUNTIF($H$140:$I$140,"นที")+COUNTIF($H$143:$I$143,"นที")</f>
-        <v/>
-      </c>
-      <c r="O113" s="12">
-        <f>COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($H$99:$I$99,"นที")+COUNTIF($H$102:$I$102,"นที")+COUNTIF($H$105:$I$105,"นที")+COUNTIF($H$108:$I$108,"นที")+COUNTIF($H$111:$I$111,"นที")+COUNTIF($H$120:$I$120,"นที")+COUNTIF($H$123:$I$123,"นที")+COUNTIF($H$126:$I$126,"นที")+COUNTIF($H$129:$I$129,"นที")+COUNTIF($H$132:$I$132,"นที")+COUNTIF($H$141:$I$141,"นที")+COUNTIF($H$144:$I$144,"นที")</f>
-        <v/>
-      </c>
-      <c r="P113" s="12">
-        <f>SUM(M113:O113)</f>
-        <v/>
-      </c>
-      <c r="R113" s="12" t="inlineStr">
+      <c r="S113" s="14">
+        <f>COUNTIF($C$97:$D$97,"นที")+COUNTIF($C$100:$D$100,"นที")+COUNTIF($C$103:$D$103,"นที")+COUNTIF($C$115:$D$115,"นที")+COUNTIF($C$118:$D$118,"นที")+COUNTIF($C$136:$D$136,"นที")+COUNTIF($C$139:$D$139,"นที")+COUNTIF($H$112:$I$112,"นที")+COUNTIF($H$115:$I$115,"นที")+COUNTIF($H$133:$I$133,"นที")+COUNTIF($H$136:$I$136,"นที")</f>
+        <v/>
+      </c>
+      <c r="T113" s="14">
+        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($H$113:$I$113,"นที")+COUNTIF($H$116:$I$116,"นที")+COUNTIF($H$134:$I$134,"นที")+COUNTIF($H$137:$I$137,"นที")</f>
+        <v/>
+      </c>
+      <c r="U113" s="14">
+        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($H$114:$I$114,"นที")+COUNTIF($H$117:$I$117,"นที")+COUNTIF($H$135:$I$135,"นที")+COUNTIF($H$138:$I$138,"นที")</f>
+        <v/>
+      </c>
+      <c r="V113" s="14">
+        <f>SUM(S113:U113)</f>
+        <v/>
+      </c>
+      <c r="X113" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S113" s="12">
-        <f>COUNTIF($C$97:$D$97,"นที")+COUNTIF($C$115:$D$115,"นที")+COUNTIF($C$118:$D$118,"นที")+COUNTIF($C$136:$D$136,"นที")+COUNTIF($C$139:$D$139,"นที")+COUNTIF($H$112:$I$112,"นที")+COUNTIF($H$115:$I$115,"นที")+COUNTIF($H$133:$I$133,"นที")+COUNTIF($H$136:$I$136,"นที")</f>
-        <v/>
-      </c>
-      <c r="T113" s="12">
-        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($H$113:$I$113,"นที")+COUNTIF($H$116:$I$116,"นที")+COUNTIF($H$134:$I$134,"นที")+COUNTIF($H$137:$I$137,"นที")</f>
-        <v/>
-      </c>
-      <c r="U113" s="12">
-        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($H$114:$I$114,"นที")+COUNTIF($H$117:$I$117,"นที")+COUNTIF($H$135:$I$135,"นที")+COUNTIF($H$138:$I$138,"นที")</f>
-        <v/>
-      </c>
-      <c r="V113" s="12">
-        <f>SUM(S113:U113)</f>
-        <v/>
-      </c>
-      <c r="X113" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="Y113" s="12">
+      <c r="Y113" s="14">
         <f>SUM(M113,S113)</f>
         <v/>
       </c>
-      <c r="Z113" s="12">
+      <c r="Z113" s="14">
         <f>SUM(N113,T113)</f>
         <v/>
       </c>
-      <c r="AA113" s="12">
+      <c r="AA113" s="14">
         <f>SUM(O113,U113)</f>
         <v/>
       </c>
-      <c r="AB113" s="12">
+      <c r="AB113" s="14">
         <f>SUM(P113,V113)</f>
         <v/>
       </c>
@@ -5629,17 +5717,17 @@
       </c>
       <c r="C114" s="8" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D114" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D114" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E114" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F114" s="5" t="n"/>
@@ -5648,19 +5736,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H114" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I114" s="18" t="inlineStr">
+      <c r="H114" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I114" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J114" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J114" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
     </row>
@@ -5675,44 +5763,44 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C115" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D115" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E115" s="16" t="inlineStr">
         <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
+        <is>
+          <t>22*</t>
+        </is>
+      </c>
+      <c r="G115" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H115" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I115" s="13" t="inlineStr">
+        <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="F115" s="1" t="inlineStr">
-        <is>
-          <t>22*</t>
-        </is>
-      </c>
-      <c r="G115" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H115" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I115" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J115" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="J115" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="O115" s="4" t="inlineStr">
@@ -5738,19 +5826,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D116" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E116" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F116" s="5" t="n"/>
@@ -5759,19 +5847,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H116" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I116" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J116" s="6" t="inlineStr">
+      <c r="H116" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I116" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J116" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="M116" s="4" t="inlineStr">
@@ -5842,19 +5930,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C117" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D117" s="15" t="inlineStr">
+      <c r="C117" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D117" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E117" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F117" s="5" t="n"/>
@@ -5863,78 +5951,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H117" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I117" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J117" s="6" t="inlineStr">
+      <c r="H117" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="L117" s="6" t="inlineStr">
+      <c r="I117" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J117" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="L117" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M117" s="6" t="inlineStr"/>
-      <c r="N117" s="6">
-        <f>COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($J$98,"ภูวเนตร")+COUNTIF($J$101,"ภูวเนตร")+COUNTIF($J$104,"ภูวเนตร")+COUNTIF($J$107,"ภูวเนตร")+COUNTIF($J$110,"ภูวเนตร")+COUNTIF($J$119,"ภูวเนตร")+COUNTIF($J$122,"ภูวเนตร")+COUNTIF($J$125,"ภูวเนตร")+COUNTIF($J$128,"ภูวเนตร")+COUNTIF($J$131,"ภูวเนตร")+COUNTIF($J$140,"ภูวเนตร")+COUNTIF($J$143,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="O117" s="6">
-        <f>COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($J$99,"ภูวเนตร")+COUNTIF($J$102,"ภูวเนตร")+COUNTIF($J$105,"ภูวเนตร")+COUNTIF($J$108,"ภูวเนตร")+COUNTIF($J$111,"ภูวเนตร")+COUNTIF($J$120,"ภูวเนตร")+COUNTIF($J$123,"ภูวเนตร")+COUNTIF($J$126,"ภูวเนตร")+COUNTIF($J$129,"ภูวเนตร")+COUNTIF($J$132,"ภูวเนตร")+COUNTIF($J$141,"ภูวเนตร")+COUNTIF($J$144,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="P117" s="6">
+      <c r="M117" s="11" t="inlineStr"/>
+      <c r="N117" s="11">
+        <f>COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($J$98,"ภูวเนตร")+COUNTIF($J$101,"ภูวเนตร")+COUNTIF($J$104,"ภูวเนตร")+COUNTIF($J$107,"ภูวเนตร")+COUNTIF($J$110,"ภูวเนตร")+COUNTIF($J$119,"ภูวเนตร")+COUNTIF($J$122,"ภูวเนตร")+COUNTIF($J$125,"ภูวเนตร")+COUNTIF($J$128,"ภูวเนตร")+COUNTIF($J$131,"ภูวเนตร")+COUNTIF($J$140,"ภูวเนตร")+COUNTIF($J$143,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O117" s="11">
+        <f>COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($J$99,"ภูวเนตร")+COUNTIF($J$102,"ภูวเนตร")+COUNTIF($J$105,"ภูวเนตร")+COUNTIF($J$108,"ภูวเนตร")+COUNTIF($J$111,"ภูวเนตร")+COUNTIF($J$120,"ภูวเนตร")+COUNTIF($J$123,"ภูวเนตร")+COUNTIF($J$126,"ภูวเนตร")+COUNTIF($J$129,"ภูวเนตร")+COUNTIF($J$132,"ภูวเนตร")+COUNTIF($J$141,"ภูวเนตร")+COUNTIF($J$144,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P117" s="11">
         <f>SUM(M117:O117)</f>
         <v/>
       </c>
-      <c r="R117" s="6" t="inlineStr">
+      <c r="R117" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="S117" s="6">
-        <f>COUNTIF($E$97,"ภูวเนตร")+COUNTIF($E$115,"ภูวเนตร")+COUNTIF($E$118,"ภูวเนตร")+COUNTIF($E$136,"ภูวเนตร")+COUNTIF($E$139,"ภูวเนตร")+COUNTIF($J$112,"ภูวเนตร")+COUNTIF($J$115,"ภูวเนตร")+COUNTIF($J$133,"ภูวเนตร")+COUNTIF($J$136,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="T117" s="6">
-        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($J$113,"ภูวเนตร")+COUNTIF($J$116,"ภูวเนตร")+COUNTIF($J$134,"ภูวเนตร")+COUNTIF($J$137,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="U117" s="6">
-        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($J$114,"ภูวเนตร")+COUNTIF($J$117,"ภูวเนตร")+COUNTIF($J$135,"ภูวเนตร")+COUNTIF($J$138,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="V117" s="6">
+      <c r="S117" s="11">
+        <f>COUNTIF($E$97,"ภูวเนตร")+COUNTIF($E$100,"ภูวเนตร")+COUNTIF($E$103,"ภูวเนตร")+COUNTIF($E$115,"ภูวเนตร")+COUNTIF($E$118,"ภูวเนตร")+COUNTIF($E$136,"ภูวเนตร")+COUNTIF($E$139,"ภูวเนตร")+COUNTIF($J$112,"ภูวเนตร")+COUNTIF($J$115,"ภูวเนตร")+COUNTIF($J$133,"ภูวเนตร")+COUNTIF($J$136,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="T117" s="11">
+        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($J$113,"ภูวเนตร")+COUNTIF($J$116,"ภูวเนตร")+COUNTIF($J$134,"ภูวเนตร")+COUNTIF($J$137,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="U117" s="11">
+        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($J$114,"ภูวเนตร")+COUNTIF($J$117,"ภูวเนตร")+COUNTIF($J$135,"ภูวเนตร")+COUNTIF($J$138,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="V117" s="11">
         <f>SUM(S117:U117)</f>
         <v/>
       </c>
-      <c r="X117" s="6" t="inlineStr">
+      <c r="X117" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="Y117" s="6">
+      <c r="Y117" s="11">
         <f>SUM(M117,S117)</f>
         <v/>
       </c>
-      <c r="Z117" s="6">
+      <c r="Z117" s="11">
         <f>SUM(N117,T117)</f>
         <v/>
       </c>
-      <c r="AA117" s="6">
+      <c r="AA117" s="11">
         <f>SUM(O117,U117)</f>
         <v/>
       </c>
-      <c r="AB117" s="6">
+      <c r="AB117" s="11">
         <f>SUM(P117,V117)</f>
         <v/>
       </c>
@@ -5950,83 +6038,83 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C118" s="13" t="inlineStr">
+      <c r="C118" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D118" s="12" t="inlineStr">
+      <c r="D118" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E118" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E118" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="L118" s="14" t="inlineStr">
+      <c r="L118" s="12" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="M118" s="14" t="inlineStr"/>
-      <c r="N118" s="14">
-        <f>COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($J$98,"ราเชนทร์")+COUNTIF($J$101,"ราเชนทร์")+COUNTIF($J$104,"ราเชนทร์")+COUNTIF($J$107,"ราเชนทร์")+COUNTIF($J$110,"ราเชนทร์")+COUNTIF($J$119,"ราเชนทร์")+COUNTIF($J$122,"ราเชนทร์")+COUNTIF($J$125,"ราเชนทร์")+COUNTIF($J$128,"ราเชนทร์")+COUNTIF($J$131,"ราเชนทร์")+COUNTIF($J$140,"ราเชนทร์")+COUNTIF($J$143,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="O118" s="14">
-        <f>COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($J$99,"ราเชนทร์")+COUNTIF($J$102,"ราเชนทร์")+COUNTIF($J$105,"ราเชนทร์")+COUNTIF($J$108,"ราเชนทร์")+COUNTIF($J$111,"ราเชนทร์")+COUNTIF($J$120,"ราเชนทร์")+COUNTIF($J$123,"ราเชนทร์")+COUNTIF($J$126,"ราเชนทร์")+COUNTIF($J$129,"ราเชนทร์")+COUNTIF($J$132,"ราเชนทร์")+COUNTIF($J$141,"ราเชนทร์")+COUNTIF($J$144,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="P118" s="14">
+      <c r="M118" s="12" t="inlineStr"/>
+      <c r="N118" s="12">
+        <f>COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($J$98,"ราเชนทร์")+COUNTIF($J$101,"ราเชนทร์")+COUNTIF($J$104,"ราเชนทร์")+COUNTIF($J$107,"ราเชนทร์")+COUNTIF($J$110,"ราเชนทร์")+COUNTIF($J$119,"ราเชนทร์")+COUNTIF($J$122,"ราเชนทร์")+COUNTIF($J$125,"ราเชนทร์")+COUNTIF($J$128,"ราเชนทร์")+COUNTIF($J$131,"ราเชนทร์")+COUNTIF($J$140,"ราเชนทร์")+COUNTIF($J$143,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O118" s="12">
+        <f>COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($J$99,"ราเชนทร์")+COUNTIF($J$102,"ราเชนทร์")+COUNTIF($J$105,"ราเชนทร์")+COUNTIF($J$108,"ราเชนทร์")+COUNTIF($J$111,"ราเชนทร์")+COUNTIF($J$120,"ราเชนทร์")+COUNTIF($J$123,"ราเชนทร์")+COUNTIF($J$126,"ราเชนทร์")+COUNTIF($J$129,"ราเชนทร์")+COUNTIF($J$132,"ราเชนทร์")+COUNTIF($J$141,"ราเชนทร์")+COUNTIF($J$144,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P118" s="12">
         <f>SUM(M118:O118)</f>
         <v/>
       </c>
-      <c r="R118" s="14" t="inlineStr">
+      <c r="R118" s="12" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="S118" s="14">
-        <f>COUNTIF($E$97,"ราเชนทร์")+COUNTIF($E$115,"ราเชนทร์")+COUNTIF($E$118,"ราเชนทร์")+COUNTIF($E$136,"ราเชนทร์")+COUNTIF($E$139,"ราเชนทร์")+COUNTIF($J$112,"ราเชนทร์")+COUNTIF($J$115,"ราเชนทร์")+COUNTIF($J$133,"ราเชนทร์")+COUNTIF($J$136,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="T118" s="14">
-        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($J$113,"ราเชนทร์")+COUNTIF($J$116,"ราเชนทร์")+COUNTIF($J$134,"ราเชนทร์")+COUNTIF($J$137,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="U118" s="14">
-        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($J$114,"ราเชนทร์")+COUNTIF($J$117,"ราเชนทร์")+COUNTIF($J$135,"ราเชนทร์")+COUNTIF($J$138,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="V118" s="14">
+      <c r="S118" s="12">
+        <f>COUNTIF($E$97,"ราเชนทร์")+COUNTIF($E$100,"ราเชนทร์")+COUNTIF($E$103,"ราเชนทร์")+COUNTIF($E$115,"ราเชนทร์")+COUNTIF($E$118,"ราเชนทร์")+COUNTIF($E$136,"ราเชนทร์")+COUNTIF($E$139,"ราเชนทร์")+COUNTIF($J$112,"ราเชนทร์")+COUNTIF($J$115,"ราเชนทร์")+COUNTIF($J$133,"ราเชนทร์")+COUNTIF($J$136,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="T118" s="12">
+        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($J$113,"ราเชนทร์")+COUNTIF($J$116,"ราเชนทร์")+COUNTIF($J$134,"ราเชนทร์")+COUNTIF($J$137,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="U118" s="12">
+        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($J$114,"ราเชนทร์")+COUNTIF($J$117,"ราเชนทร์")+COUNTIF($J$135,"ราเชนทร์")+COUNTIF($J$138,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="V118" s="12">
         <f>SUM(S118:U118)</f>
         <v/>
       </c>
-      <c r="X118" s="14" t="inlineStr">
+      <c r="X118" s="12" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="Y118" s="14">
+      <c r="Y118" s="12">
         <f>SUM(M118,S118)</f>
         <v/>
       </c>
-      <c r="Z118" s="14">
+      <c r="Z118" s="12">
         <f>SUM(N118,T118)</f>
         <v/>
       </c>
-      <c r="AA118" s="14">
+      <c r="AA118" s="12">
         <f>SUM(O118,U118)</f>
         <v/>
       </c>
-      <c r="AB118" s="14">
+      <c r="AB118" s="12">
         <f>SUM(P118,V118)</f>
         <v/>
       </c>
@@ -6038,19 +6126,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C119" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D119" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E119" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C119" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D119" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G119" s="4" t="inlineStr">
@@ -6058,78 +6146,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H119" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I119" s="15" t="inlineStr">
+      <c r="H119" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I119" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J119" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="J119" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L119" s="13" t="inlineStr">
+      <c r="L119" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M119" s="13" t="inlineStr"/>
-      <c r="N119" s="13">
-        <f>COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($J$98,"พลกฤต")+COUNTIF($J$101,"พลกฤต")+COUNTIF($J$104,"พลกฤต")+COUNTIF($J$107,"พลกฤต")+COUNTIF($J$110,"พลกฤต")+COUNTIF($J$119,"พลกฤต")+COUNTIF($J$122,"พลกฤต")+COUNTIF($J$125,"พลกฤต")+COUNTIF($J$128,"พลกฤต")+COUNTIF($J$131,"พลกฤต")+COUNTIF($J$140,"พลกฤต")+COUNTIF($J$143,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="O119" s="13">
-        <f>COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($J$99,"พลกฤต")+COUNTIF($J$102,"พลกฤต")+COUNTIF($J$105,"พลกฤต")+COUNTIF($J$108,"พลกฤต")+COUNTIF($J$111,"พลกฤต")+COUNTIF($J$120,"พลกฤต")+COUNTIF($J$123,"พลกฤต")+COUNTIF($J$126,"พลกฤต")+COUNTIF($J$129,"พลกฤต")+COUNTIF($J$132,"พลกฤต")+COUNTIF($J$141,"พลกฤต")+COUNTIF($J$144,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="P119" s="13">
+      <c r="M119" s="15" t="inlineStr"/>
+      <c r="N119" s="15">
+        <f>COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($J$98,"พลกฤต")+COUNTIF($J$101,"พลกฤต")+COUNTIF($J$104,"พลกฤต")+COUNTIF($J$107,"พลกฤต")+COUNTIF($J$110,"พลกฤต")+COUNTIF($J$119,"พลกฤต")+COUNTIF($J$122,"พลกฤต")+COUNTIF($J$125,"พลกฤต")+COUNTIF($J$128,"พลกฤต")+COUNTIF($J$131,"พลกฤต")+COUNTIF($J$140,"พลกฤต")+COUNTIF($J$143,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O119" s="15">
+        <f>COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($J$99,"พลกฤต")+COUNTIF($J$102,"พลกฤต")+COUNTIF($J$105,"พลกฤต")+COUNTIF($J$108,"พลกฤต")+COUNTIF($J$111,"พลกฤต")+COUNTIF($J$120,"พลกฤต")+COUNTIF($J$123,"พลกฤต")+COUNTIF($J$126,"พลกฤต")+COUNTIF($J$129,"พลกฤต")+COUNTIF($J$132,"พลกฤต")+COUNTIF($J$141,"พลกฤต")+COUNTIF($J$144,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P119" s="15">
         <f>SUM(M119:O119)</f>
         <v/>
       </c>
-      <c r="R119" s="13" t="inlineStr">
+      <c r="R119" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="S119" s="13">
-        <f>COUNTIF($E$97,"พลกฤต")+COUNTIF($E$115,"พลกฤต")+COUNTIF($E$118,"พลกฤต")+COUNTIF($E$136,"พลกฤต")+COUNTIF($E$139,"พลกฤต")+COUNTIF($J$112,"พลกฤต")+COUNTIF($J$115,"พลกฤต")+COUNTIF($J$133,"พลกฤต")+COUNTIF($J$136,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="T119" s="13">
-        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($J$113,"พลกฤต")+COUNTIF($J$116,"พลกฤต")+COUNTIF($J$134,"พลกฤต")+COUNTIF($J$137,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="U119" s="13">
-        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($J$114,"พลกฤต")+COUNTIF($J$117,"พลกฤต")+COUNTIF($J$135,"พลกฤต")+COUNTIF($J$138,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="V119" s="13">
+      <c r="S119" s="15">
+        <f>COUNTIF($E$97,"พลกฤต")+COUNTIF($E$100,"พลกฤต")+COUNTIF($E$103,"พลกฤต")+COUNTIF($E$115,"พลกฤต")+COUNTIF($E$118,"พลกฤต")+COUNTIF($E$136,"พลกฤต")+COUNTIF($E$139,"พลกฤต")+COUNTIF($J$112,"พลกฤต")+COUNTIF($J$115,"พลกฤต")+COUNTIF($J$133,"พลกฤต")+COUNTIF($J$136,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="T119" s="15">
+        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($J$113,"พลกฤต")+COUNTIF($J$116,"พลกฤต")+COUNTIF($J$134,"พลกฤต")+COUNTIF($J$137,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="U119" s="15">
+        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($J$114,"พลกฤต")+COUNTIF($J$117,"พลกฤต")+COUNTIF($J$135,"พลกฤต")+COUNTIF($J$138,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="V119" s="15">
         <f>SUM(S119:U119)</f>
         <v/>
       </c>
-      <c r="X119" s="13" t="inlineStr">
+      <c r="X119" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="Y119" s="13">
+      <c r="Y119" s="15">
         <f>SUM(M119,S119)</f>
         <v/>
       </c>
-      <c r="Z119" s="13">
+      <c r="Z119" s="15">
         <f>SUM(N119,T119)</f>
         <v/>
       </c>
-      <c r="AA119" s="13">
+      <c r="AA119" s="15">
         <f>SUM(O119,U119)</f>
         <v/>
       </c>
-      <c r="AB119" s="13">
+      <c r="AB119" s="15">
         <f>SUM(P119,V119)</f>
         <v/>
       </c>
@@ -6141,19 +6229,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C120" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D120" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E120" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C120" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D120" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G120" s="4" t="inlineStr">
@@ -6161,78 +6249,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H120" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J120" s="17" t="inlineStr">
+      <c r="H120" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I120" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J120" s="6" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="L120" s="17" t="inlineStr">
+      <c r="L120" s="6" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M120" s="17" t="inlineStr"/>
-      <c r="N120" s="17">
-        <f>COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($J$98,"ชานนท์")+COUNTIF($J$101,"ชานนท์")+COUNTIF($J$104,"ชานนท์")+COUNTIF($J$107,"ชานนท์")+COUNTIF($J$110,"ชานนท์")+COUNTIF($J$119,"ชานนท์")+COUNTIF($J$122,"ชานนท์")+COUNTIF($J$125,"ชานนท์")+COUNTIF($J$128,"ชานนท์")+COUNTIF($J$131,"ชานนท์")+COUNTIF($J$140,"ชานนท์")+COUNTIF($J$143,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="O120" s="17">
-        <f>COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($J$99,"ชานนท์")+COUNTIF($J$102,"ชานนท์")+COUNTIF($J$105,"ชานนท์")+COUNTIF($J$108,"ชานนท์")+COUNTIF($J$111,"ชานนท์")+COUNTIF($J$120,"ชานนท์")+COUNTIF($J$123,"ชานนท์")+COUNTIF($J$126,"ชานนท์")+COUNTIF($J$129,"ชานนท์")+COUNTIF($J$132,"ชานนท์")+COUNTIF($J$141,"ชานนท์")+COUNTIF($J$144,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="P120" s="17">
+      <c r="M120" s="6" t="inlineStr"/>
+      <c r="N120" s="6">
+        <f>COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($J$98,"ชานนท์")+COUNTIF($J$101,"ชานนท์")+COUNTIF($J$104,"ชานนท์")+COUNTIF($J$107,"ชานนท์")+COUNTIF($J$110,"ชานนท์")+COUNTIF($J$119,"ชานนท์")+COUNTIF($J$122,"ชานนท์")+COUNTIF($J$125,"ชานนท์")+COUNTIF($J$128,"ชานนท์")+COUNTIF($J$131,"ชานนท์")+COUNTIF($J$140,"ชานนท์")+COUNTIF($J$143,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O120" s="6">
+        <f>COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($J$99,"ชานนท์")+COUNTIF($J$102,"ชานนท์")+COUNTIF($J$105,"ชานนท์")+COUNTIF($J$108,"ชานนท์")+COUNTIF($J$111,"ชานนท์")+COUNTIF($J$120,"ชานนท์")+COUNTIF($J$123,"ชานนท์")+COUNTIF($J$126,"ชานนท์")+COUNTIF($J$129,"ชานนท์")+COUNTIF($J$132,"ชานนท์")+COUNTIF($J$141,"ชานนท์")+COUNTIF($J$144,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P120" s="6">
         <f>SUM(M120:O120)</f>
         <v/>
       </c>
-      <c r="R120" s="17" t="inlineStr">
+      <c r="R120" s="6" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="S120" s="17">
-        <f>COUNTIF($E$97,"ชานนท์")+COUNTIF($E$115,"ชานนท์")+COUNTIF($E$118,"ชานนท์")+COUNTIF($E$136,"ชานนท์")+COUNTIF($E$139,"ชานนท์")+COUNTIF($J$112,"ชานนท์")+COUNTIF($J$115,"ชานนท์")+COUNTIF($J$133,"ชานนท์")+COUNTIF($J$136,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="T120" s="17">
-        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($J$113,"ชานนท์")+COUNTIF($J$116,"ชานนท์")+COUNTIF($J$134,"ชานนท์")+COUNTIF($J$137,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="U120" s="17">
-        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($J$114,"ชานนท์")+COUNTIF($J$117,"ชานนท์")+COUNTIF($J$135,"ชานนท์")+COUNTIF($J$138,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="V120" s="17">
+      <c r="S120" s="6">
+        <f>COUNTIF($E$97,"ชานนท์")+COUNTIF($E$100,"ชานนท์")+COUNTIF($E$103,"ชานนท์")+COUNTIF($E$115,"ชานนท์")+COUNTIF($E$118,"ชานนท์")+COUNTIF($E$136,"ชานนท์")+COUNTIF($E$139,"ชานนท์")+COUNTIF($J$112,"ชานนท์")+COUNTIF($J$115,"ชานนท์")+COUNTIF($J$133,"ชานนท์")+COUNTIF($J$136,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="T120" s="6">
+        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($J$113,"ชานนท์")+COUNTIF($J$116,"ชานนท์")+COUNTIF($J$134,"ชานนท์")+COUNTIF($J$137,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="U120" s="6">
+        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($J$114,"ชานนท์")+COUNTIF($J$117,"ชานนท์")+COUNTIF($J$135,"ชานนท์")+COUNTIF($J$138,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="V120" s="6">
         <f>SUM(S120:U120)</f>
         <v/>
       </c>
-      <c r="X120" s="17" t="inlineStr">
+      <c r="X120" s="6" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="Y120" s="17">
+      <c r="Y120" s="6">
         <f>SUM(M120,S120)</f>
         <v/>
       </c>
-      <c r="Z120" s="17">
+      <c r="Z120" s="6">
         <f>SUM(N120,T120)</f>
         <v/>
       </c>
-      <c r="AA120" s="17">
+      <c r="AA120" s="6">
         <f>SUM(O120,U120)</f>
         <v/>
       </c>
-      <c r="AB120" s="17">
+      <c r="AB120" s="6">
         <f>SUM(P120,V120)</f>
         <v/>
       </c>
@@ -6255,11 +6343,11 @@
       </c>
       <c r="M121" s="19" t="inlineStr"/>
       <c r="N121" s="19">
-        <f>COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($J$98,"ปรมะ")+COUNTIF($J$101,"ปรมะ")+COUNTIF($J$104,"ปรมะ")+COUNTIF($J$107,"ปรมะ")+COUNTIF($J$110,"ปรมะ")+COUNTIF($J$119,"ปรมะ")+COUNTIF($J$122,"ปรมะ")+COUNTIF($J$125,"ปรมะ")+COUNTIF($J$128,"ปรมะ")+COUNTIF($J$131,"ปรมะ")+COUNTIF($J$140,"ปรมะ")+COUNTIF($J$143,"ปรมะ")</f>
+        <f>COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($J$98,"ปรมะ")+COUNTIF($J$101,"ปรมะ")+COUNTIF($J$104,"ปรมะ")+COUNTIF($J$107,"ปรมะ")+COUNTIF($J$110,"ปรมะ")+COUNTIF($J$119,"ปรมะ")+COUNTIF($J$122,"ปรมะ")+COUNTIF($J$125,"ปรมะ")+COUNTIF($J$128,"ปรมะ")+COUNTIF($J$131,"ปรมะ")+COUNTIF($J$140,"ปรมะ")+COUNTIF($J$143,"ปรมะ")</f>
         <v/>
       </c>
       <c r="O121" s="19">
-        <f>COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($J$99,"ปรมะ")+COUNTIF($J$102,"ปรมะ")+COUNTIF($J$105,"ปรมะ")+COUNTIF($J$108,"ปรมะ")+COUNTIF($J$111,"ปรมะ")+COUNTIF($J$120,"ปรมะ")+COUNTIF($J$123,"ปรมะ")+COUNTIF($J$126,"ปรมะ")+COUNTIF($J$129,"ปรมะ")+COUNTIF($J$132,"ปรมะ")+COUNTIF($J$141,"ปรมะ")+COUNTIF($J$144,"ปรมะ")</f>
+        <f>COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($J$99,"ปรมะ")+COUNTIF($J$102,"ปรมะ")+COUNTIF($J$105,"ปรมะ")+COUNTIF($J$108,"ปรมะ")+COUNTIF($J$111,"ปรมะ")+COUNTIF($J$120,"ปรมะ")+COUNTIF($J$123,"ปรมะ")+COUNTIF($J$126,"ปรมะ")+COUNTIF($J$129,"ปรมะ")+COUNTIF($J$132,"ปรมะ")+COUNTIF($J$141,"ปรมะ")+COUNTIF($J$144,"ปรมะ")</f>
         <v/>
       </c>
       <c r="P121" s="19">
@@ -6272,15 +6360,15 @@
         </is>
       </c>
       <c r="S121" s="19">
-        <f>COUNTIF($E$97,"ปรมะ")+COUNTIF($E$115,"ปรมะ")+COUNTIF($E$118,"ปรมะ")+COUNTIF($E$136,"ปรมะ")+COUNTIF($E$139,"ปรมะ")+COUNTIF($J$112,"ปรมะ")+COUNTIF($J$115,"ปรมะ")+COUNTIF($J$133,"ปรมะ")+COUNTIF($J$136,"ปรมะ")</f>
+        <f>COUNTIF($E$97,"ปรมะ")+COUNTIF($E$100,"ปรมะ")+COUNTIF($E$103,"ปรมะ")+COUNTIF($E$115,"ปรมะ")+COUNTIF($E$118,"ปรมะ")+COUNTIF($E$136,"ปรมะ")+COUNTIF($E$139,"ปรมะ")+COUNTIF($J$112,"ปรมะ")+COUNTIF($J$115,"ปรมะ")+COUNTIF($J$133,"ปรมะ")+COUNTIF($J$136,"ปรมะ")</f>
         <v/>
       </c>
       <c r="T121" s="19">
-        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($J$113,"ปรมะ")+COUNTIF($J$116,"ปรมะ")+COUNTIF($J$134,"ปรมะ")+COUNTIF($J$137,"ปรมะ")</f>
+        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($J$113,"ปรมะ")+COUNTIF($J$116,"ปรมะ")+COUNTIF($J$134,"ปรมะ")+COUNTIF($J$137,"ปรมะ")</f>
         <v/>
       </c>
       <c r="U121" s="19">
-        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($J$114,"ปรมะ")+COUNTIF($J$117,"ปรมะ")+COUNTIF($J$135,"ปรมะ")+COUNTIF($J$138,"ปรมะ")</f>
+        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($J$114,"ปรมะ")+COUNTIF($J$117,"ปรมะ")+COUNTIF($J$135,"ปรมะ")+COUNTIF($J$138,"ปรมะ")</f>
         <v/>
       </c>
       <c r="V121" s="19">
@@ -6315,98 +6403,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D122" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E122" s="11" t="inlineStr">
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D122" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
+      <c r="E122" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
       <c r="G122" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H122" s="13" t="inlineStr">
+      <c r="H122" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I122" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="J122" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="I122" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J122" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L122" s="16" t="inlineStr">
+      <c r="L122" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M122" s="16" t="inlineStr"/>
-      <c r="N122" s="16">
-        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O122" s="16">
-        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P122" s="16">
+      <c r="M122" s="13" t="inlineStr"/>
+      <c r="N122" s="13">
+        <f>COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122" s="13">
+        <f>COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122" s="13">
         <f>SUM(M122:O122)</f>
         <v/>
       </c>
-      <c r="R122" s="16" t="inlineStr">
+      <c r="R122" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S122" s="16">
-        <f>COUNTIF($E$97,"สัญญา")+COUNTIF($E$115,"สัญญา")+COUNTIF($E$118,"สัญญา")+COUNTIF($E$136,"สัญญา")+COUNTIF($E$139,"สัญญา")+COUNTIF($J$112,"สัญญา")+COUNTIF($J$115,"สัญญา")+COUNTIF($J$133,"สัญญา")+COUNTIF($J$136,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T122" s="16">
-        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U122" s="16">
-        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V122" s="16">
+      <c r="S122" s="13">
+        <f>COUNTIF($E$97,"สัญญา")+COUNTIF($E$100,"สัญญา")+COUNTIF($E$103,"สัญญา")+COUNTIF($E$115,"สัญญา")+COUNTIF($E$118,"สัญญา")+COUNTIF($E$136,"สัญญา")+COUNTIF($E$139,"สัญญา")+COUNTIF($J$112,"สัญญา")+COUNTIF($J$115,"สัญญา")+COUNTIF($J$133,"สัญญา")+COUNTIF($J$136,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T122" s="13">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U122" s="13">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V122" s="13">
         <f>SUM(S122:U122)</f>
         <v/>
       </c>
-      <c r="X122" s="16" t="inlineStr">
+      <c r="X122" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="Y122" s="16">
+      <c r="Y122" s="13">
         <f>SUM(M122,S122)</f>
         <v/>
       </c>
-      <c r="Z122" s="16">
+      <c r="Z122" s="13">
         <f>SUM(N122,T122)</f>
         <v/>
       </c>
-      <c r="AA122" s="16">
+      <c r="AA122" s="13">
         <f>SUM(O122,U122)</f>
         <v/>
       </c>
-      <c r="AB122" s="16">
+      <c r="AB122" s="13">
         <f>SUM(P122,V122)</f>
         <v/>
       </c>
@@ -6417,98 +6505,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C123" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D123" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E123" s="11" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D123" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
+      <c r="E123" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
       <c r="G123" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H123" s="13" t="inlineStr">
+      <c r="H123" s="18" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I123" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="J123" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="I123" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J123" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L123" s="8" t="inlineStr">
+      <c r="L123" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M123" s="8" t="inlineStr"/>
-      <c r="N123" s="8">
-        <f>COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($J$98,"วินัย")+COUNTIF($J$101,"วินัย")+COUNTIF($J$104,"วินัย")+COUNTIF($J$107,"วินัย")+COUNTIF($J$110,"วินัย")+COUNTIF($J$119,"วินัย")+COUNTIF($J$122,"วินัย")+COUNTIF($J$125,"วินัย")+COUNTIF($J$128,"วินัย")+COUNTIF($J$131,"วินัย")+COUNTIF($J$140,"วินัย")+COUNTIF($J$143,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="O123" s="8">
-        <f>COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($J$99,"วินัย")+COUNTIF($J$102,"วินัย")+COUNTIF($J$105,"วินัย")+COUNTIF($J$108,"วินัย")+COUNTIF($J$111,"วินัย")+COUNTIF($J$120,"วินัย")+COUNTIF($J$123,"วินัย")+COUNTIF($J$126,"วินัย")+COUNTIF($J$129,"วินัย")+COUNTIF($J$132,"วินัย")+COUNTIF($J$141,"วินัย")+COUNTIF($J$144,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="P123" s="8">
+      <c r="M123" s="18" t="inlineStr"/>
+      <c r="N123" s="18">
+        <f>COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($J$98,"วินัย")+COUNTIF($J$101,"วินัย")+COUNTIF($J$104,"วินัย")+COUNTIF($J$107,"วินัย")+COUNTIF($J$110,"วินัย")+COUNTIF($J$119,"วินัย")+COUNTIF($J$122,"วินัย")+COUNTIF($J$125,"วินัย")+COUNTIF($J$128,"วินัย")+COUNTIF($J$131,"วินัย")+COUNTIF($J$140,"วินัย")+COUNTIF($J$143,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O123" s="18">
+        <f>COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($J$99,"วินัย")+COUNTIF($J$102,"วินัย")+COUNTIF($J$105,"วินัย")+COUNTIF($J$108,"วินัย")+COUNTIF($J$111,"วินัย")+COUNTIF($J$120,"วินัย")+COUNTIF($J$123,"วินัย")+COUNTIF($J$126,"วินัย")+COUNTIF($J$129,"วินัย")+COUNTIF($J$132,"วินัย")+COUNTIF($J$141,"วินัย")+COUNTIF($J$144,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P123" s="18">
         <f>SUM(M123:O123)</f>
         <v/>
       </c>
-      <c r="R123" s="8" t="inlineStr">
+      <c r="R123" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S123" s="8">
-        <f>COUNTIF($E$97,"วินัย")+COUNTIF($E$115,"วินัย")+COUNTIF($E$118,"วินัย")+COUNTIF($E$136,"วินัย")+COUNTIF($E$139,"วินัย")+COUNTIF($J$112,"วินัย")+COUNTIF($J$115,"วินัย")+COUNTIF($J$133,"วินัย")+COUNTIF($J$136,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="T123" s="8">
-        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($J$113,"วินัย")+COUNTIF($J$116,"วินัย")+COUNTIF($J$134,"วินัย")+COUNTIF($J$137,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="U123" s="8">
-        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($J$114,"วินัย")+COUNTIF($J$117,"วินัย")+COUNTIF($J$135,"วินัย")+COUNTIF($J$138,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="V123" s="8">
+      <c r="S123" s="18">
+        <f>COUNTIF($E$97,"วินัย")+COUNTIF($E$100,"วินัย")+COUNTIF($E$103,"วินัย")+COUNTIF($E$115,"วินัย")+COUNTIF($E$118,"วินัย")+COUNTIF($E$136,"วินัย")+COUNTIF($E$139,"วินัย")+COUNTIF($J$112,"วินัย")+COUNTIF($J$115,"วินัย")+COUNTIF($J$133,"วินัย")+COUNTIF($J$136,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="T123" s="18">
+        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($J$113,"วินัย")+COUNTIF($J$116,"วินัย")+COUNTIF($J$134,"วินัย")+COUNTIF($J$137,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="U123" s="18">
+        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($J$114,"วินัย")+COUNTIF($J$117,"วินัย")+COUNTIF($J$135,"วินัย")+COUNTIF($J$138,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="V123" s="18">
         <f>SUM(S123:U123)</f>
         <v/>
       </c>
-      <c r="X123" s="8" t="inlineStr">
+      <c r="X123" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="Y123" s="8">
+      <c r="Y123" s="18">
         <f>SUM(M123,S123)</f>
         <v/>
       </c>
-      <c r="Z123" s="8">
+      <c r="Z123" s="18">
         <f>SUM(N123,T123)</f>
         <v/>
       </c>
-      <c r="AA123" s="8">
+      <c r="AA123" s="18">
         <f>SUM(O123,U123)</f>
         <v/>
       </c>
-      <c r="AB123" s="8">
+      <c r="AB123" s="18">
         <f>SUM(P123,V123)</f>
         <v/>
       </c>
@@ -6524,63 +6612,63 @@
           <t>25</t>
         </is>
       </c>
-      <c r="L124" s="9" t="inlineStr">
+      <c r="L124" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M124" s="9" t="inlineStr"/>
-      <c r="N124" s="9">
-        <f>COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($J$98,"รณยุทธ")+COUNTIF($J$101,"รณยุทธ")+COUNTIF($J$104,"รณยุทธ")+COUNTIF($J$107,"รณยุทธ")+COUNTIF($J$110,"รณยุทธ")+COUNTIF($J$119,"รณยุทธ")+COUNTIF($J$122,"รณยุทธ")+COUNTIF($J$125,"รณยุทธ")+COUNTIF($J$128,"รณยุทธ")+COUNTIF($J$131,"รณยุทธ")+COUNTIF($J$140,"รณยุทธ")+COUNTIF($J$143,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="O124" s="9">
-        <f>COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($J$99,"รณยุทธ")+COUNTIF($J$102,"รณยุทธ")+COUNTIF($J$105,"รณยุทธ")+COUNTIF($J$108,"รณยุทธ")+COUNTIF($J$111,"รณยุทธ")+COUNTIF($J$120,"รณยุทธ")+COUNTIF($J$123,"รณยุทธ")+COUNTIF($J$126,"รณยุทธ")+COUNTIF($J$129,"รณยุทธ")+COUNTIF($J$132,"รณยุทธ")+COUNTIF($J$141,"รณยุทธ")+COUNTIF($J$144,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="P124" s="9">
+      <c r="M124" s="8" t="inlineStr"/>
+      <c r="N124" s="8">
+        <f>COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($J$98,"รณยุทธ")+COUNTIF($J$101,"รณยุทธ")+COUNTIF($J$104,"รณยุทธ")+COUNTIF($J$107,"รณยุทธ")+COUNTIF($J$110,"รณยุทธ")+COUNTIF($J$119,"รณยุทธ")+COUNTIF($J$122,"รณยุทธ")+COUNTIF($J$125,"รณยุทธ")+COUNTIF($J$128,"รณยุทธ")+COUNTIF($J$131,"รณยุทธ")+COUNTIF($J$140,"รณยุทธ")+COUNTIF($J$143,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O124" s="8">
+        <f>COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($J$99,"รณยุทธ")+COUNTIF($J$102,"รณยุทธ")+COUNTIF($J$105,"รณยุทธ")+COUNTIF($J$108,"รณยุทธ")+COUNTIF($J$111,"รณยุทธ")+COUNTIF($J$120,"รณยุทธ")+COUNTIF($J$123,"รณยุทธ")+COUNTIF($J$126,"รณยุทธ")+COUNTIF($J$129,"รณยุทธ")+COUNTIF($J$132,"รณยุทธ")+COUNTIF($J$141,"รณยุทธ")+COUNTIF($J$144,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P124" s="8">
         <f>SUM(M124:O124)</f>
         <v/>
       </c>
-      <c r="R124" s="9" t="inlineStr">
+      <c r="R124" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="S124" s="9">
-        <f>COUNTIF($E$97,"รณยุทธ")+COUNTIF($E$115,"รณยุทธ")+COUNTIF($E$118,"รณยุทธ")+COUNTIF($E$136,"รณยุทธ")+COUNTIF($E$139,"รณยุทธ")+COUNTIF($J$112,"รณยุทธ")+COUNTIF($J$115,"รณยุทธ")+COUNTIF($J$133,"รณยุทธ")+COUNTIF($J$136,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="T124" s="9">
-        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($J$113,"รณยุทธ")+COUNTIF($J$116,"รณยุทธ")+COUNTIF($J$134,"รณยุทธ")+COUNTIF($J$137,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="U124" s="9">
-        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($J$114,"รณยุทธ")+COUNTIF($J$117,"รณยุทธ")+COUNTIF($J$135,"รณยุทธ")+COUNTIF($J$138,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="V124" s="9">
+      <c r="S124" s="8">
+        <f>COUNTIF($E$97,"รณยุทธ")+COUNTIF($E$100,"รณยุทธ")+COUNTIF($E$103,"รณยุทธ")+COUNTIF($E$115,"รณยุทธ")+COUNTIF($E$118,"รณยุทธ")+COUNTIF($E$136,"รณยุทธ")+COUNTIF($E$139,"รณยุทธ")+COUNTIF($J$112,"รณยุทธ")+COUNTIF($J$115,"รณยุทธ")+COUNTIF($J$133,"รณยุทธ")+COUNTIF($J$136,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="T124" s="8">
+        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($J$113,"รณยุทธ")+COUNTIF($J$116,"รณยุทธ")+COUNTIF($J$134,"รณยุทธ")+COUNTIF($J$137,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="U124" s="8">
+        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($J$114,"รณยุทธ")+COUNTIF($J$117,"รณยุทธ")+COUNTIF($J$135,"รณยุทธ")+COUNTIF($J$138,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="V124" s="8">
         <f>SUM(S124:U124)</f>
         <v/>
       </c>
-      <c r="X124" s="9" t="inlineStr">
+      <c r="X124" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="Y124" s="9">
+      <c r="Y124" s="8">
         <f>SUM(M124,S124)</f>
         <v/>
       </c>
-      <c r="Z124" s="9">
+      <c r="Z124" s="8">
         <f>SUM(N124,T124)</f>
         <v/>
       </c>
-      <c r="AA124" s="9">
+      <c r="AA124" s="8">
         <f>SUM(O124,U124)</f>
         <v/>
       </c>
-      <c r="AB124" s="9">
+      <c r="AB124" s="8">
         <f>SUM(P124,V124)</f>
         <v/>
       </c>
@@ -6591,19 +6679,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C125" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E125" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C125" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D125" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G125" s="4" t="inlineStr">
@@ -6611,78 +6699,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H125" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I125" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J125" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L125" s="7" t="inlineStr">
+      <c r="H125" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I125" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J125" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M125" s="7" t="inlineStr"/>
-      <c r="N125" s="7">
-        <f>COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($J$98,"วัฒพงษ์")+COUNTIF($J$101,"วัฒพงษ์")+COUNTIF($J$104,"วัฒพงษ์")+COUNTIF($J$107,"วัฒพงษ์")+COUNTIF($J$110,"วัฒพงษ์")+COUNTIF($J$119,"วัฒพงษ์")+COUNTIF($J$122,"วัฒพงษ์")+COUNTIF($J$125,"วัฒพงษ์")+COUNTIF($J$128,"วัฒพงษ์")+COUNTIF($J$131,"วัฒพงษ์")+COUNTIF($J$140,"วัฒพงษ์")+COUNTIF($J$143,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="O125" s="7">
-        <f>COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($J$99,"วัฒพงษ์")+COUNTIF($J$102,"วัฒพงษ์")+COUNTIF($J$105,"วัฒพงษ์")+COUNTIF($J$108,"วัฒพงษ์")+COUNTIF($J$111,"วัฒพงษ์")+COUNTIF($J$120,"วัฒพงษ์")+COUNTIF($J$123,"วัฒพงษ์")+COUNTIF($J$126,"วัฒพงษ์")+COUNTIF($J$129,"วัฒพงษ์")+COUNTIF($J$132,"วัฒพงษ์")+COUNTIF($J$141,"วัฒพงษ์")+COUNTIF($J$144,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="P125" s="7">
+      <c r="L125" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="M125" s="10" t="inlineStr"/>
+      <c r="N125" s="10">
+        <f>COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($J$98,"วัฒพงษ์")+COUNTIF($J$101,"วัฒพงษ์")+COUNTIF($J$104,"วัฒพงษ์")+COUNTIF($J$107,"วัฒพงษ์")+COUNTIF($J$110,"วัฒพงษ์")+COUNTIF($J$119,"วัฒพงษ์")+COUNTIF($J$122,"วัฒพงษ์")+COUNTIF($J$125,"วัฒพงษ์")+COUNTIF($J$128,"วัฒพงษ์")+COUNTIF($J$131,"วัฒพงษ์")+COUNTIF($J$140,"วัฒพงษ์")+COUNTIF($J$143,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O125" s="10">
+        <f>COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($J$99,"วัฒพงษ์")+COUNTIF($J$102,"วัฒพงษ์")+COUNTIF($J$105,"วัฒพงษ์")+COUNTIF($J$108,"วัฒพงษ์")+COUNTIF($J$111,"วัฒพงษ์")+COUNTIF($J$120,"วัฒพงษ์")+COUNTIF($J$123,"วัฒพงษ์")+COUNTIF($J$126,"วัฒพงษ์")+COUNTIF($J$129,"วัฒพงษ์")+COUNTIF($J$132,"วัฒพงษ์")+COUNTIF($J$141,"วัฒพงษ์")+COUNTIF($J$144,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P125" s="10">
         <f>SUM(M125:O125)</f>
         <v/>
       </c>
-      <c r="R125" s="7" t="inlineStr">
+      <c r="R125" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S125" s="7">
-        <f>COUNTIF($E$97,"วัฒพงษ์")+COUNTIF($E$115,"วัฒพงษ์")+COUNTIF($E$118,"วัฒพงษ์")+COUNTIF($E$136,"วัฒพงษ์")+COUNTIF($E$139,"วัฒพงษ์")+COUNTIF($J$112,"วัฒพงษ์")+COUNTIF($J$115,"วัฒพงษ์")+COUNTIF($J$133,"วัฒพงษ์")+COUNTIF($J$136,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="T125" s="7">
-        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($J$113,"วัฒพงษ์")+COUNTIF($J$116,"วัฒพงษ์")+COUNTIF($J$134,"วัฒพงษ์")+COUNTIF($J$137,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="U125" s="7">
-        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($J$114,"วัฒพงษ์")+COUNTIF($J$117,"วัฒพงษ์")+COUNTIF($J$135,"วัฒพงษ์")+COUNTIF($J$138,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="V125" s="7">
+      <c r="S125" s="10">
+        <f>COUNTIF($E$97,"วัฒพงษ์")+COUNTIF($E$100,"วัฒพงษ์")+COUNTIF($E$103,"วัฒพงษ์")+COUNTIF($E$115,"วัฒพงษ์")+COUNTIF($E$118,"วัฒพงษ์")+COUNTIF($E$136,"วัฒพงษ์")+COUNTIF($E$139,"วัฒพงษ์")+COUNTIF($J$112,"วัฒพงษ์")+COUNTIF($J$115,"วัฒพงษ์")+COUNTIF($J$133,"วัฒพงษ์")+COUNTIF($J$136,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="T125" s="10">
+        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($J$113,"วัฒพงษ์")+COUNTIF($J$116,"วัฒพงษ์")+COUNTIF($J$134,"วัฒพงษ์")+COUNTIF($J$137,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="U125" s="10">
+        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($J$114,"วัฒพงษ์")+COUNTIF($J$117,"วัฒพงษ์")+COUNTIF($J$135,"วัฒพงษ์")+COUNTIF($J$138,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="V125" s="10">
         <f>SUM(S125:U125)</f>
         <v/>
       </c>
-      <c r="X125" s="7" t="inlineStr">
+      <c r="X125" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="Y125" s="7">
+      <c r="Y125" s="10">
         <f>SUM(M125,S125)</f>
         <v/>
       </c>
-      <c r="Z125" s="7">
+      <c r="Z125" s="10">
         <f>SUM(N125,T125)</f>
         <v/>
       </c>
-      <c r="AA125" s="7">
+      <c r="AA125" s="10">
         <f>SUM(O125,U125)</f>
         <v/>
       </c>
-      <c r="AB125" s="7">
+      <c r="AB125" s="10">
         <f>SUM(P125,V125)</f>
         <v/>
       </c>
@@ -6693,98 +6781,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C126" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D126" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E126" s="16" t="inlineStr">
+      <c r="C126" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D126" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H126" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G126" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H126" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I126" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J126" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L126" s="15" t="inlineStr">
+      <c r="I126" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J126" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="L126" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M126" s="15" t="inlineStr"/>
-      <c r="N126" s="15">
-        <f>COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($J$98,"ราเชน")+COUNTIF($J$101,"ราเชน")+COUNTIF($J$104,"ราเชน")+COUNTIF($J$107,"ราเชน")+COUNTIF($J$110,"ราเชน")+COUNTIF($J$119,"ราเชน")+COUNTIF($J$122,"ราเชน")+COUNTIF($J$125,"ราเชน")+COUNTIF($J$128,"ราเชน")+COUNTIF($J$131,"ราเชน")+COUNTIF($J$140,"ราเชน")+COUNTIF($J$143,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="O126" s="15">
-        <f>COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($J$99,"ราเชน")+COUNTIF($J$102,"ราเชน")+COUNTIF($J$105,"ราเชน")+COUNTIF($J$108,"ราเชน")+COUNTIF($J$111,"ราเชน")+COUNTIF($J$120,"ราเชน")+COUNTIF($J$123,"ราเชน")+COUNTIF($J$126,"ราเชน")+COUNTIF($J$129,"ราเชน")+COUNTIF($J$132,"ราเชน")+COUNTIF($J$141,"ราเชน")+COUNTIF($J$144,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="P126" s="15">
+      <c r="M126" s="17" t="inlineStr"/>
+      <c r="N126" s="17">
+        <f>COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($J$98,"ราเชน")+COUNTIF($J$101,"ราเชน")+COUNTIF($J$104,"ราเชน")+COUNTIF($J$107,"ราเชน")+COUNTIF($J$110,"ราเชน")+COUNTIF($J$119,"ราเชน")+COUNTIF($J$122,"ราเชน")+COUNTIF($J$125,"ราเชน")+COUNTIF($J$128,"ราเชน")+COUNTIF($J$131,"ราเชน")+COUNTIF($J$140,"ราเชน")+COUNTIF($J$143,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O126" s="17">
+        <f>COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($J$99,"ราเชน")+COUNTIF($J$102,"ราเชน")+COUNTIF($J$105,"ราเชน")+COUNTIF($J$108,"ราเชน")+COUNTIF($J$111,"ราเชน")+COUNTIF($J$120,"ราเชน")+COUNTIF($J$123,"ราเชน")+COUNTIF($J$126,"ราเชน")+COUNTIF($J$129,"ราเชน")+COUNTIF($J$132,"ราเชน")+COUNTIF($J$141,"ราเชน")+COUNTIF($J$144,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P126" s="17">
         <f>SUM(M126:O126)</f>
         <v/>
       </c>
-      <c r="R126" s="15" t="inlineStr">
+      <c r="R126" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S126" s="15">
-        <f>COUNTIF($E$97,"ราเชน")+COUNTIF($E$115,"ราเชน")+COUNTIF($E$118,"ราเชน")+COUNTIF($E$136,"ราเชน")+COUNTIF($E$139,"ราเชน")+COUNTIF($J$112,"ราเชน")+COUNTIF($J$115,"ราเชน")+COUNTIF($J$133,"ราเชน")+COUNTIF($J$136,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="T126" s="15">
-        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($J$113,"ราเชน")+COUNTIF($J$116,"ราเชน")+COUNTIF($J$134,"ราเชน")+COUNTIF($J$137,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="U126" s="15">
-        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($J$114,"ราเชน")+COUNTIF($J$117,"ราเชน")+COUNTIF($J$135,"ราเชน")+COUNTIF($J$138,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="V126" s="15">
+      <c r="S126" s="17">
+        <f>COUNTIF($E$97,"ราเชน")+COUNTIF($E$100,"ราเชน")+COUNTIF($E$103,"ราเชน")+COUNTIF($E$115,"ราเชน")+COUNTIF($E$118,"ราเชน")+COUNTIF($E$136,"ราเชน")+COUNTIF($E$139,"ราเชน")+COUNTIF($J$112,"ราเชน")+COUNTIF($J$115,"ราเชน")+COUNTIF($J$133,"ราเชน")+COUNTIF($J$136,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="T126" s="17">
+        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($J$113,"ราเชน")+COUNTIF($J$116,"ราเชน")+COUNTIF($J$134,"ราเชน")+COUNTIF($J$137,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="U126" s="17">
+        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($J$114,"ราเชน")+COUNTIF($J$117,"ราเชน")+COUNTIF($J$135,"ราเชน")+COUNTIF($J$138,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="V126" s="17">
         <f>SUM(S126:U126)</f>
         <v/>
       </c>
-      <c r="X126" s="15" t="inlineStr">
+      <c r="X126" s="17" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y126" s="15">
+      <c r="Y126" s="17">
         <f>SUM(M126,S126)</f>
         <v/>
       </c>
-      <c r="Z126" s="15">
+      <c r="Z126" s="17">
         <f>SUM(N126,T126)</f>
         <v/>
       </c>
-      <c r="AA126" s="15">
+      <c r="AA126" s="17">
         <f>SUM(O126,U126)</f>
         <v/>
       </c>
-      <c r="AB126" s="15">
+      <c r="AB126" s="17">
         <f>SUM(P126,V126)</f>
         <v/>
       </c>
@@ -6800,63 +6888,63 @@
           <t>26</t>
         </is>
       </c>
-      <c r="L127" s="11" t="inlineStr">
+      <c r="L127" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M127" s="11" t="inlineStr"/>
-      <c r="N127" s="11">
-        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="O127" s="11">
-        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="P127" s="11">
+      <c r="M127" s="16" t="inlineStr"/>
+      <c r="N127" s="16">
+        <f>COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127" s="16">
+        <f>COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127" s="16">
         <f>SUM(M127:O127)</f>
         <v/>
       </c>
-      <c r="R127" s="11" t="inlineStr">
+      <c r="R127" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S127" s="11">
-        <f>COUNTIF($E$97,"นฤชิต")+COUNTIF($E$115,"นฤชิต")+COUNTIF($E$118,"นฤชิต")+COUNTIF($E$136,"นฤชิต")+COUNTIF($E$139,"นฤชิต")+COUNTIF($J$112,"นฤชิต")+COUNTIF($J$115,"นฤชิต")+COUNTIF($J$133,"นฤชิต")+COUNTIF($J$136,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="T127" s="11">
-        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="U127" s="11">
-        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="V127" s="11">
+      <c r="S127" s="16">
+        <f>COUNTIF($E$97,"นฤชิต")+COUNTIF($E$100,"นฤชิต")+COUNTIF($E$103,"นฤชิต")+COUNTIF($E$115,"นฤชิต")+COUNTIF($E$118,"นฤชิต")+COUNTIF($E$136,"นฤชิต")+COUNTIF($E$139,"นฤชิต")+COUNTIF($J$112,"นฤชิต")+COUNTIF($J$115,"นฤชิต")+COUNTIF($J$133,"นฤชิต")+COUNTIF($J$136,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="T127" s="16">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="U127" s="16">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="V127" s="16">
         <f>SUM(S127:U127)</f>
         <v/>
       </c>
-      <c r="X127" s="11" t="inlineStr">
+      <c r="X127" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="Y127" s="11">
+      <c r="Y127" s="16">
         <f>SUM(M127,S127)</f>
         <v/>
       </c>
-      <c r="Z127" s="11">
+      <c r="Z127" s="16">
         <f>SUM(N127,T127)</f>
         <v/>
       </c>
-      <c r="AA127" s="11">
+      <c r="AA127" s="16">
         <f>SUM(O127,U127)</f>
         <v/>
       </c>
-      <c r="AB127" s="11">
+      <c r="AB127" s="16">
         <f>SUM(P127,V127)</f>
         <v/>
       </c>
@@ -6867,98 +6955,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="13" t="inlineStr">
+      <c r="C128" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D128" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H128" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I128" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D128" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E128" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G128" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H128" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I128" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
       <c r="J128" s="17" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L128" s="18" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L128" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M128" s="18" t="inlineStr"/>
-      <c r="N128" s="18">
-        <f>COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($J$98,"จีรวัฒน์")+COUNTIF($J$101,"จีรวัฒน์")+COUNTIF($J$104,"จีรวัฒน์")+COUNTIF($J$107,"จีรวัฒน์")+COUNTIF($J$110,"จีรวัฒน์")+COUNTIF($J$119,"จีรวัฒน์")+COUNTIF($J$122,"จีรวัฒน์")+COUNTIF($J$125,"จีรวัฒน์")+COUNTIF($J$128,"จีรวัฒน์")+COUNTIF($J$131,"จีรวัฒน์")+COUNTIF($J$140,"จีรวัฒน์")+COUNTIF($J$143,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="O128" s="18">
-        <f>COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($J$99,"จีรวัฒน์")+COUNTIF($J$102,"จีรวัฒน์")+COUNTIF($J$105,"จีรวัฒน์")+COUNTIF($J$108,"จีรวัฒน์")+COUNTIF($J$111,"จีรวัฒน์")+COUNTIF($J$120,"จีรวัฒน์")+COUNTIF($J$123,"จีรวัฒน์")+COUNTIF($J$126,"จีรวัฒน์")+COUNTIF($J$129,"จีรวัฒน์")+COUNTIF($J$132,"จีรวัฒน์")+COUNTIF($J$141,"จีรวัฒน์")+COUNTIF($J$144,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="P128" s="18">
+      <c r="M128" s="9" t="inlineStr"/>
+      <c r="N128" s="9">
+        <f>COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($J$98,"จีรวัฒน์")+COUNTIF($J$101,"จีรวัฒน์")+COUNTIF($J$104,"จีรวัฒน์")+COUNTIF($J$107,"จีรวัฒน์")+COUNTIF($J$110,"จีรวัฒน์")+COUNTIF($J$119,"จีรวัฒน์")+COUNTIF($J$122,"จีรวัฒน์")+COUNTIF($J$125,"จีรวัฒน์")+COUNTIF($J$128,"จีรวัฒน์")+COUNTIF($J$131,"จีรวัฒน์")+COUNTIF($J$140,"จีรวัฒน์")+COUNTIF($J$143,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O128" s="9">
+        <f>COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($J$99,"จีรวัฒน์")+COUNTIF($J$102,"จีรวัฒน์")+COUNTIF($J$105,"จีรวัฒน์")+COUNTIF($J$108,"จีรวัฒน์")+COUNTIF($J$111,"จีรวัฒน์")+COUNTIF($J$120,"จีรวัฒน์")+COUNTIF($J$123,"จีรวัฒน์")+COUNTIF($J$126,"จีรวัฒน์")+COUNTIF($J$129,"จีรวัฒน์")+COUNTIF($J$132,"จีรวัฒน์")+COUNTIF($J$141,"จีรวัฒน์")+COUNTIF($J$144,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P128" s="9">
         <f>SUM(M128:O128)</f>
         <v/>
       </c>
-      <c r="R128" s="18" t="inlineStr">
+      <c r="R128" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S128" s="18">
-        <f>COUNTIF($E$97,"จีรวัฒน์")+COUNTIF($E$115,"จีรวัฒน์")+COUNTIF($E$118,"จีรวัฒน์")+COUNTIF($E$136,"จีรวัฒน์")+COUNTIF($E$139,"จีรวัฒน์")+COUNTIF($J$112,"จีรวัฒน์")+COUNTIF($J$115,"จีรวัฒน์")+COUNTIF($J$133,"จีรวัฒน์")+COUNTIF($J$136,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="T128" s="18">
-        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($J$113,"จีรวัฒน์")+COUNTIF($J$116,"จีรวัฒน์")+COUNTIF($J$134,"จีรวัฒน์")+COUNTIF($J$137,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="U128" s="18">
-        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($J$114,"จีรวัฒน์")+COUNTIF($J$117,"จีรวัฒน์")+COUNTIF($J$135,"จีรวัฒน์")+COUNTIF($J$138,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="V128" s="18">
+      <c r="S128" s="9">
+        <f>COUNTIF($E$97,"จีรวัฒน์")+COUNTIF($E$100,"จีรวัฒน์")+COUNTIF($E$103,"จีรวัฒน์")+COUNTIF($E$115,"จีรวัฒน์")+COUNTIF($E$118,"จีรวัฒน์")+COUNTIF($E$136,"จีรวัฒน์")+COUNTIF($E$139,"จีรวัฒน์")+COUNTIF($J$112,"จีรวัฒน์")+COUNTIF($J$115,"จีรวัฒน์")+COUNTIF($J$133,"จีรวัฒน์")+COUNTIF($J$136,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="T128" s="9">
+        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($J$113,"จีรวัฒน์")+COUNTIF($J$116,"จีรวัฒน์")+COUNTIF($J$134,"จีรวัฒน์")+COUNTIF($J$137,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="U128" s="9">
+        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($J$114,"จีรวัฒน์")+COUNTIF($J$117,"จีรวัฒน์")+COUNTIF($J$135,"จีรวัฒน์")+COUNTIF($J$138,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="V128" s="9">
         <f>SUM(S128:U128)</f>
         <v/>
       </c>
-      <c r="X128" s="18" t="inlineStr">
+      <c r="X128" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="Y128" s="18">
+      <c r="Y128" s="9">
         <f>SUM(M128,S128)</f>
         <v/>
       </c>
-      <c r="Z128" s="18">
+      <c r="Z128" s="9">
         <f>SUM(N128,T128)</f>
         <v/>
       </c>
-      <c r="AA128" s="18">
+      <c r="AA128" s="9">
         <f>SUM(O128,U128)</f>
         <v/>
       </c>
-      <c r="AB128" s="18">
+      <c r="AB128" s="9">
         <f>SUM(P128,V128)</f>
         <v/>
       </c>
@@ -6969,98 +7057,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C129" s="13" t="inlineStr">
+      <c r="C129" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D129" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H129" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I129" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D129" s="10" t="inlineStr">
+      <c r="J129" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L129" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E129" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G129" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H129" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I129" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J129" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L129" s="10" t="inlineStr">
+      <c r="M129" s="7" t="inlineStr"/>
+      <c r="N129" s="7">
+        <f>COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($J$98,"สุเมธร์")+COUNTIF($J$101,"สุเมธร์")+COUNTIF($J$104,"สุเมธร์")+COUNTIF($J$107,"สุเมธร์")+COUNTIF($J$110,"สุเมธร์")+COUNTIF($J$119,"สุเมธร์")+COUNTIF($J$122,"สุเมธร์")+COUNTIF($J$125,"สุเมธร์")+COUNTIF($J$128,"สุเมธร์")+COUNTIF($J$131,"สุเมธร์")+COUNTIF($J$140,"สุเมธร์")+COUNTIF($J$143,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O129" s="7">
+        <f>COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($J$99,"สุเมธร์")+COUNTIF($J$102,"สุเมธร์")+COUNTIF($J$105,"สุเมธร์")+COUNTIF($J$108,"สุเมธร์")+COUNTIF($J$111,"สุเมธร์")+COUNTIF($J$120,"สุเมธร์")+COUNTIF($J$123,"สุเมธร์")+COUNTIF($J$126,"สุเมธร์")+COUNTIF($J$129,"สุเมธร์")+COUNTIF($J$132,"สุเมธร์")+COUNTIF($J$141,"สุเมธร์")+COUNTIF($J$144,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P129" s="7">
+        <f>SUM(M129:O129)</f>
+        <v/>
+      </c>
+      <c r="R129" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M129" s="10" t="inlineStr"/>
-      <c r="N129" s="10">
-        <f>COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($J$98,"สุเมธร์")+COUNTIF($J$101,"สุเมธร์")+COUNTIF($J$104,"สุเมธร์")+COUNTIF($J$107,"สุเมธร์")+COUNTIF($J$110,"สุเมธร์")+COUNTIF($J$119,"สุเมธร์")+COUNTIF($J$122,"สุเมธร์")+COUNTIF($J$125,"สุเมธร์")+COUNTIF($J$128,"สุเมธร์")+COUNTIF($J$131,"สุเมธร์")+COUNTIF($J$140,"สุเมธร์")+COUNTIF($J$143,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="O129" s="10">
-        <f>COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($J$99,"สุเมธร์")+COUNTIF($J$102,"สุเมธร์")+COUNTIF($J$105,"สุเมธร์")+COUNTIF($J$108,"สุเมธร์")+COUNTIF($J$111,"สุเมธร์")+COUNTIF($J$120,"สุเมธร์")+COUNTIF($J$123,"สุเมธร์")+COUNTIF($J$126,"สุเมธร์")+COUNTIF($J$129,"สุเมธร์")+COUNTIF($J$132,"สุเมธร์")+COUNTIF($J$141,"สุเมธร์")+COUNTIF($J$144,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="P129" s="10">
-        <f>SUM(M129:O129)</f>
-        <v/>
-      </c>
-      <c r="R129" s="10" t="inlineStr">
+      <c r="S129" s="7">
+        <f>COUNTIF($E$97,"สุเมธร์")+COUNTIF($E$100,"สุเมธร์")+COUNTIF($E$103,"สุเมธร์")+COUNTIF($E$115,"สุเมธร์")+COUNTIF($E$118,"สุเมธร์")+COUNTIF($E$136,"สุเมธร์")+COUNTIF($E$139,"สุเมธร์")+COUNTIF($J$112,"สุเมธร์")+COUNTIF($J$115,"สุเมธร์")+COUNTIF($J$133,"สุเมธร์")+COUNTIF($J$136,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="T129" s="7">
+        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($J$113,"สุเมธร์")+COUNTIF($J$116,"สุเมธร์")+COUNTIF($J$134,"สุเมธร์")+COUNTIF($J$137,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="U129" s="7">
+        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($J$114,"สุเมธร์")+COUNTIF($J$117,"สุเมธร์")+COUNTIF($J$135,"สุเมธร์")+COUNTIF($J$138,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="V129" s="7">
+        <f>SUM(S129:U129)</f>
+        <v/>
+      </c>
+      <c r="X129" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S129" s="10">
-        <f>COUNTIF($E$97,"สุเมธร์")+COUNTIF($E$115,"สุเมธร์")+COUNTIF($E$118,"สุเมธร์")+COUNTIF($E$136,"สุเมธร์")+COUNTIF($E$139,"สุเมธร์")+COUNTIF($J$112,"สุเมธร์")+COUNTIF($J$115,"สุเมธร์")+COUNTIF($J$133,"สุเมธร์")+COUNTIF($J$136,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="T129" s="10">
-        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($J$113,"สุเมธร์")+COUNTIF($J$116,"สุเมธร์")+COUNTIF($J$134,"สุเมธร์")+COUNTIF($J$137,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="U129" s="10">
-        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($J$114,"สุเมธร์")+COUNTIF($J$117,"สุเมธร์")+COUNTIF($J$135,"สุเมธร์")+COUNTIF($J$138,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="V129" s="10">
-        <f>SUM(S129:U129)</f>
-        <v/>
-      </c>
-      <c r="X129" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="Y129" s="10">
+      <c r="Y129" s="7">
         <f>SUM(M129,S129)</f>
         <v/>
       </c>
-      <c r="Z129" s="10">
+      <c r="Z129" s="7">
         <f>SUM(N129,T129)</f>
         <v/>
       </c>
-      <c r="AA129" s="10">
+      <c r="AA129" s="7">
         <f>SUM(O129,U129)</f>
         <v/>
       </c>
-      <c r="AB129" s="10">
+      <c r="AB129" s="7">
         <f>SUM(P129,V129)</f>
         <v/>
       </c>
@@ -7076,63 +7164,63 @@
           <t>27</t>
         </is>
       </c>
-      <c r="L130" s="12" t="inlineStr">
+      <c r="L130" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M130" s="12" t="inlineStr"/>
-      <c r="N130" s="12">
-        <f>COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($E$134,"นที")+COUNTIF($J$98,"นที")+COUNTIF($J$101,"นที")+COUNTIF($J$104,"นที")+COUNTIF($J$107,"นที")+COUNTIF($J$110,"นที")+COUNTIF($J$119,"นที")+COUNTIF($J$122,"นที")+COUNTIF($J$125,"นที")+COUNTIF($J$128,"นที")+COUNTIF($J$131,"นที")+COUNTIF($J$140,"นที")+COUNTIF($J$143,"นที")</f>
-        <v/>
-      </c>
-      <c r="O130" s="12">
-        <f>COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($E$135,"นที")+COUNTIF($J$99,"นที")+COUNTIF($J$102,"นที")+COUNTIF($J$105,"นที")+COUNTIF($J$108,"นที")+COUNTIF($J$111,"นที")+COUNTIF($J$120,"นที")+COUNTIF($J$123,"นที")+COUNTIF($J$126,"นที")+COUNTIF($J$129,"นที")+COUNTIF($J$132,"นที")+COUNTIF($J$141,"นที")+COUNTIF($J$144,"นที")</f>
-        <v/>
-      </c>
-      <c r="P130" s="12">
+      <c r="M130" s="14" t="inlineStr"/>
+      <c r="N130" s="14">
+        <f>COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($E$134,"นที")+COUNTIF($J$98,"นที")+COUNTIF($J$101,"นที")+COUNTIF($J$104,"นที")+COUNTIF($J$107,"นที")+COUNTIF($J$110,"นที")+COUNTIF($J$119,"นที")+COUNTIF($J$122,"นที")+COUNTIF($J$125,"นที")+COUNTIF($J$128,"นที")+COUNTIF($J$131,"นที")+COUNTIF($J$140,"นที")+COUNTIF($J$143,"นที")</f>
+        <v/>
+      </c>
+      <c r="O130" s="14">
+        <f>COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($E$135,"นที")+COUNTIF($J$99,"นที")+COUNTIF($J$102,"นที")+COUNTIF($J$105,"นที")+COUNTIF($J$108,"นที")+COUNTIF($J$111,"นที")+COUNTIF($J$120,"นที")+COUNTIF($J$123,"นที")+COUNTIF($J$126,"นที")+COUNTIF($J$129,"นที")+COUNTIF($J$132,"นที")+COUNTIF($J$141,"นที")+COUNTIF($J$144,"นที")</f>
+        <v/>
+      </c>
+      <c r="P130" s="14">
         <f>SUM(M130:O130)</f>
         <v/>
       </c>
-      <c r="R130" s="12" t="inlineStr">
+      <c r="R130" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S130" s="12">
-        <f>COUNTIF($E$97,"นที")+COUNTIF($E$115,"นที")+COUNTIF($E$118,"นที")+COUNTIF($E$136,"นที")+COUNTIF($E$139,"นที")+COUNTIF($J$112,"นที")+COUNTIF($J$115,"นที")+COUNTIF($J$133,"นที")+COUNTIF($J$136,"นที")</f>
-        <v/>
-      </c>
-      <c r="T130" s="12">
-        <f>COUNTIF($E$98,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($J$113,"นที")+COUNTIF($J$116,"นที")+COUNTIF($J$134,"นที")+COUNTIF($J$137,"นที")</f>
-        <v/>
-      </c>
-      <c r="U130" s="12">
-        <f>COUNTIF($E$99,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($J$114,"นที")+COUNTIF($J$117,"นที")+COUNTIF($J$135,"นที")+COUNTIF($J$138,"นที")</f>
-        <v/>
-      </c>
-      <c r="V130" s="12">
+      <c r="S130" s="14">
+        <f>COUNTIF($E$97,"นที")+COUNTIF($E$100,"นที")+COUNTIF($E$103,"นที")+COUNTIF($E$115,"นที")+COUNTIF($E$118,"นที")+COUNTIF($E$136,"นที")+COUNTIF($E$139,"นที")+COUNTIF($J$112,"นที")+COUNTIF($J$115,"นที")+COUNTIF($J$133,"นที")+COUNTIF($J$136,"นที")</f>
+        <v/>
+      </c>
+      <c r="T130" s="14">
+        <f>COUNTIF($E$98,"นที")+COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($J$113,"นที")+COUNTIF($J$116,"นที")+COUNTIF($J$134,"นที")+COUNTIF($J$137,"นที")</f>
+        <v/>
+      </c>
+      <c r="U130" s="14">
+        <f>COUNTIF($E$99,"นที")+COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($J$114,"นที")+COUNTIF($J$117,"นที")+COUNTIF($J$135,"นที")+COUNTIF($J$138,"นที")</f>
+        <v/>
+      </c>
+      <c r="V130" s="14">
         <f>SUM(S130:U130)</f>
         <v/>
       </c>
-      <c r="X130" s="12" t="inlineStr">
+      <c r="X130" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="Y130" s="12">
+      <c r="Y130" s="14">
         <f>SUM(M130,S130)</f>
         <v/>
       </c>
-      <c r="Z130" s="12">
+      <c r="Z130" s="14">
         <f>SUM(N130,T130)</f>
         <v/>
       </c>
-      <c r="AA130" s="12">
+      <c r="AA130" s="14">
         <f>SUM(O130,U130)</f>
         <v/>
       </c>
-      <c r="AB130" s="12">
+      <c r="AB130" s="14">
         <f>SUM(P130,V130)</f>
         <v/>
       </c>
@@ -7143,39 +7231,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="8" t="inlineStr">
+      <c r="C131" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H131" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G131" s="4" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H131" s="16" t="inlineStr">
+      <c r="I131" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="I131" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
       <c r="J131" s="9" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -7185,39 +7273,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C132" s="8" t="inlineStr">
+      <c r="C132" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E132" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H132" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E132" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="G132" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H132" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I132" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="J132" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="I132" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J132" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -7237,19 +7325,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H133" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I133" s="11" t="inlineStr">
+      <c r="H133" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I133" s="16" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="J133" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="J133" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="O133" s="4" t="inlineStr">
@@ -7264,19 +7352,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D134" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E134" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C134" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D134" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E134" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F134" s="5" t="n"/>
@@ -7285,19 +7373,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H134" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I134" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J134" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I134" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J134" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="M134" s="4" t="inlineStr">
@@ -7327,19 +7415,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C135" s="9" t="inlineStr">
+      <c r="C135" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D135" s="15" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E135" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E135" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F135" s="5" t="n"/>
@@ -7348,39 +7436,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H135" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I135" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J135" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="L135" s="6" t="inlineStr">
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I135" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J135" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L135" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M135" s="6">
+      <c r="M135" s="11">
         <f>SUM(S100,S117)</f>
         <v/>
       </c>
-      <c r="N135" s="6">
+      <c r="N135" s="11">
         <f>SUM(V100,V117)</f>
         <v/>
       </c>
-      <c r="O135" s="6">
+      <c r="O135" s="11">
         <f>SUM(P100,P117)</f>
         <v/>
       </c>
-      <c r="P135" s="6">
+      <c r="P135" s="11">
         <f>SUM(O135,N135)</f>
         <v/>
       </c>
@@ -7396,64 +7484,64 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C136" s="14" t="inlineStr">
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D136" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="F136" s="1" t="inlineStr">
+        <is>
+          <t>29*</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H136" s="13" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I136" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J136" s="12" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D136" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E136" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="F136" s="1" t="inlineStr">
-        <is>
-          <t>29*</t>
-        </is>
-      </c>
-      <c r="G136" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H136" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I136" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J136" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="L136" s="14" t="inlineStr">
+      <c r="L136" s="12" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="M136" s="14">
+      <c r="M136" s="12">
         <f>SUM(S101,S118)</f>
         <v/>
       </c>
-      <c r="N136" s="14">
+      <c r="N136" s="12">
         <f>SUM(V101,V118)</f>
         <v/>
       </c>
-      <c r="O136" s="14">
+      <c r="O136" s="12">
         <f>SUM(P101,P118)</f>
         <v/>
       </c>
-      <c r="P136" s="14">
+      <c r="P136" s="12">
         <f>SUM(O136,N136)</f>
         <v/>
       </c>
@@ -7465,19 +7553,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr">
+      <c r="C137" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D137" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D137" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E137" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F137" s="5" t="n"/>
@@ -7486,39 +7574,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H137" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I137" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J137" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="L137" s="13" t="inlineStr">
+      <c r="H137" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I137" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J137" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L137" s="15" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M137" s="13">
+      <c r="M137" s="15">
         <f>SUM(S102,S119)</f>
         <v/>
       </c>
-      <c r="N137" s="13">
+      <c r="N137" s="15">
         <f>SUM(V102,V119)</f>
         <v/>
       </c>
-      <c r="O137" s="13">
+      <c r="O137" s="15">
         <f>SUM(P102,P119)</f>
         <v/>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="15">
         <f>SUM(O137,N137)</f>
         <v/>
       </c>
@@ -7530,19 +7618,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr">
+      <c r="C138" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D138" s="11" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D138" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E138" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F138" s="5" t="n"/>
@@ -7556,34 +7644,34 @@
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="I138" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J138" s="17" t="inlineStr">
+      <c r="I138" s="10" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J138" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L138" s="6" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="L138" s="17" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="M138" s="17">
+      <c r="M138" s="6">
         <f>SUM(S103,S120)</f>
         <v/>
       </c>
-      <c r="N138" s="17">
+      <c r="N138" s="6">
         <f>SUM(V103,V120)</f>
         <v/>
       </c>
-      <c r="O138" s="17">
+      <c r="O138" s="6">
         <f>SUM(P103,P120)</f>
         <v/>
       </c>
-      <c r="P138" s="17">
+      <c r="P138" s="6">
         <f>SUM(O138,N138)</f>
         <v/>
       </c>
@@ -7599,19 +7687,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C139" s="19" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C139" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D139" s="18" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="E139" s="15" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
@@ -7648,19 +7736,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="16" t="inlineStr">
+      <c r="C140" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D140" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E140" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="D140" s="8" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E140" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G140" s="4" t="inlineStr">
@@ -7668,39 +7756,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H140" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I140" s="13" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J140" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L140" s="16" t="inlineStr">
+      <c r="H140" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I140" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J140" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L140" s="13" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M140" s="16">
+      <c r="M140" s="13">
         <f>SUM(S105,S122)</f>
         <v/>
       </c>
-      <c r="N140" s="16">
+      <c r="N140" s="13">
         <f>SUM(V105,V122)</f>
         <v/>
       </c>
-      <c r="O140" s="16">
+      <c r="O140" s="13">
         <f>SUM(P105,P122)</f>
         <v/>
       </c>
-      <c r="P140" s="16">
+      <c r="P140" s="13">
         <f>SUM(O140,N140)</f>
         <v/>
       </c>
@@ -7712,59 +7800,59 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C141" s="16" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D141" s="7" t="inlineStr">
+      <c r="C141" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E141" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E141" s="8" t="inlineStr">
+      <c r="G141" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H141" s="9" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I141" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J141" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L141" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="G141" s="4" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H141" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I141" s="9" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="J141" s="7" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="L141" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="M141" s="8">
+      <c r="M141" s="18">
         <f>SUM(S106,S123)</f>
         <v/>
       </c>
-      <c r="N141" s="8">
+      <c r="N141" s="18">
         <f>SUM(V106,V123)</f>
         <v/>
       </c>
-      <c r="O141" s="8">
+      <c r="O141" s="18">
         <f>SUM(P106,P123)</f>
         <v/>
       </c>
-      <c r="P141" s="8">
+      <c r="P141" s="18">
         <f>SUM(O141,N141)</f>
         <v/>
       </c>
@@ -7775,24 +7863,24 @@
           <t>31</t>
         </is>
       </c>
-      <c r="L142" s="9" t="inlineStr">
+      <c r="L142" s="8" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M142" s="9">
+      <c r="M142" s="8">
         <f>SUM(S107,S124)</f>
         <v/>
       </c>
-      <c r="N142" s="9">
+      <c r="N142" s="8">
         <f>SUM(V107,V124)</f>
         <v/>
       </c>
-      <c r="O142" s="9">
+      <c r="O142" s="8">
         <f>SUM(P107,P124)</f>
         <v/>
       </c>
-      <c r="P142" s="9">
+      <c r="P142" s="8">
         <f>SUM(O142,N142)</f>
         <v/>
       </c>
@@ -7803,39 +7891,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H143" s="14" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I143" s="8" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="J143" s="12" t="inlineStr">
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I143" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="L143" s="7" t="inlineStr">
+      <c r="J143" s="7" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L143" s="10" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M143" s="7">
+      <c r="M143" s="10">
         <f>SUM(S108,S125)</f>
         <v/>
       </c>
-      <c r="N143" s="7">
+      <c r="N143" s="10">
         <f>SUM(V108,V125)</f>
         <v/>
       </c>
-      <c r="O143" s="7">
+      <c r="O143" s="10">
         <f>SUM(P108,P125)</f>
         <v/>
       </c>
-      <c r="P143" s="7">
+      <c r="P143" s="10">
         <f>SUM(O143,N143)</f>
         <v/>
       </c>
@@ -7846,131 +7934,131 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H144" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I144" s="8" t="inlineStr">
+      <c r="H144" s="12" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I144" s="15" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J144" s="18" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="J144" s="18" t="inlineStr">
+      <c r="L144" s="17" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="M144" s="17">
+        <f>SUM(S109,S126)</f>
+        <v/>
+      </c>
+      <c r="N144" s="17">
+        <f>SUM(V109,V126)</f>
+        <v/>
+      </c>
+      <c r="O144" s="17">
+        <f>SUM(P109,P126)</f>
+        <v/>
+      </c>
+      <c r="P144" s="17">
+        <f>SUM(O144,N144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="L145" s="16" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="M145" s="16">
+        <f>SUM(S110,S127)</f>
+        <v/>
+      </c>
+      <c r="N145" s="16">
+        <f>SUM(V110,V127)</f>
+        <v/>
+      </c>
+      <c r="O145" s="16">
+        <f>SUM(P110,P127)</f>
+        <v/>
+      </c>
+      <c r="P145" s="16">
+        <f>SUM(O145,N145)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="L146" s="9" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="L144" s="15" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="M144" s="15">
-        <f>SUM(S109,S126)</f>
-        <v/>
-      </c>
-      <c r="N144" s="15">
-        <f>SUM(V109,V126)</f>
-        <v/>
-      </c>
-      <c r="O144" s="15">
-        <f>SUM(P109,P126)</f>
-        <v/>
-      </c>
-      <c r="P144" s="15">
-        <f>SUM(O144,N144)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145">
-      <c r="L145" s="11" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="M145" s="11">
-        <f>SUM(S110,S127)</f>
-        <v/>
-      </c>
-      <c r="N145" s="11">
-        <f>SUM(V110,V127)</f>
-        <v/>
-      </c>
-      <c r="O145" s="11">
-        <f>SUM(P110,P127)</f>
-        <v/>
-      </c>
-      <c r="P145" s="11">
-        <f>SUM(O145,N145)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146">
-      <c r="L146" s="18" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="M146" s="18">
+      <c r="M146" s="9">
         <f>SUM(S111,S128)</f>
         <v/>
       </c>
-      <c r="N146" s="18">
+      <c r="N146" s="9">
         <f>SUM(V111,V128)</f>
         <v/>
       </c>
-      <c r="O146" s="18">
+      <c r="O146" s="9">
         <f>SUM(P111,P128)</f>
         <v/>
       </c>
-      <c r="P146" s="18">
+      <c r="P146" s="9">
         <f>SUM(O146,N146)</f>
         <v/>
       </c>
     </row>
     <row r="147">
-      <c r="L147" s="10" t="inlineStr">
+      <c r="L147" s="7" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M147" s="10">
+      <c r="M147" s="7">
         <f>SUM(S112,S129)</f>
         <v/>
       </c>
-      <c r="N147" s="10">
+      <c r="N147" s="7">
         <f>SUM(V112,V129)</f>
         <v/>
       </c>
-      <c r="O147" s="10">
+      <c r="O147" s="7">
         <f>SUM(P112,P129)</f>
         <v/>
       </c>
-      <c r="P147" s="10">
+      <c r="P147" s="7">
         <f>SUM(O147,N147)</f>
         <v/>
       </c>
     </row>
     <row r="148">
-      <c r="L148" s="12" t="inlineStr">
+      <c r="L148" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M148" s="12">
+      <c r="M148" s="14">
         <f>SUM(S113,S130)</f>
         <v/>
       </c>
-      <c r="N148" s="12">
+      <c r="N148" s="14">
         <f>SUM(V113,V130)</f>
         <v/>
       </c>
-      <c r="O148" s="12">
+      <c r="O148" s="14">
         <f>SUM(P113,P130)</f>
         <v/>
       </c>
-      <c r="P148" s="12">
+      <c r="P148" s="14">
         <f>SUM(O148,N148)</f>
         <v/>
       </c>
